--- a/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>TCOM</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1503100</v>
+        <v>662200</v>
       </c>
       <c r="E8" s="3">
-        <v>1247000</v>
+        <v>1166600</v>
       </c>
       <c r="F8" s="3">
-        <v>1171400</v>
+        <v>1466200</v>
       </c>
       <c r="G8" s="3">
-        <v>1084700</v>
+        <v>1216400</v>
       </c>
       <c r="H8" s="3">
-        <v>1342300</v>
+        <v>1142600</v>
       </c>
       <c r="I8" s="3">
+        <v>1058100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1309300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1050100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>965800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>885700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>309500</v>
+        <v>170800</v>
       </c>
       <c r="E9" s="3">
-        <v>258000</v>
+        <v>241900</v>
       </c>
       <c r="F9" s="3">
-        <v>242300</v>
+        <v>301900</v>
       </c>
       <c r="G9" s="3">
-        <v>232400</v>
+        <v>251600</v>
       </c>
       <c r="H9" s="3">
-        <v>285700</v>
+        <v>236400</v>
       </c>
       <c r="I9" s="3">
+        <v>226700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>278700</v>
+      </c>
+      <c r="K9" s="3">
         <v>210800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>178500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>152200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1193600</v>
+        <v>491400</v>
       </c>
       <c r="E10" s="3">
-        <v>989000</v>
+        <v>924700</v>
       </c>
       <c r="F10" s="3">
-        <v>929000</v>
+        <v>1164300</v>
       </c>
       <c r="G10" s="3">
-        <v>852300</v>
+        <v>964700</v>
       </c>
       <c r="H10" s="3">
-        <v>1056600</v>
+        <v>906200</v>
       </c>
       <c r="I10" s="3">
+        <v>831400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1030700</v>
+      </c>
+      <c r="K10" s="3">
         <v>839400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>787300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>400300</v>
+        <v>237400</v>
       </c>
       <c r="E12" s="3">
-        <v>379100</v>
+        <v>377100</v>
       </c>
       <c r="F12" s="3">
-        <v>365000</v>
+        <v>390500</v>
       </c>
       <c r="G12" s="3">
-        <v>390000</v>
+        <v>369800</v>
       </c>
       <c r="H12" s="3">
-        <v>357400</v>
+        <v>356100</v>
       </c>
       <c r="I12" s="3">
+        <v>380400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>348600</v>
+      </c>
+      <c r="K12" s="3">
         <v>323000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>309900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -900,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1181400</v>
+        <v>873400</v>
       </c>
       <c r="E17" s="3">
-        <v>1055700</v>
+        <v>1085400</v>
       </c>
       <c r="F17" s="3">
-        <v>1044400</v>
+        <v>1152400</v>
       </c>
       <c r="G17" s="3">
-        <v>1111800</v>
+        <v>1029800</v>
       </c>
       <c r="H17" s="3">
-        <v>1129900</v>
+        <v>1018800</v>
       </c>
       <c r="I17" s="3">
+        <v>1084600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1102200</v>
+      </c>
+      <c r="K17" s="3">
         <v>946300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>881100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>842200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>321700</v>
+        <v>-211200</v>
       </c>
       <c r="E18" s="3">
-        <v>191300</v>
+        <v>81200</v>
       </c>
       <c r="F18" s="3">
-        <v>127000</v>
+        <v>313800</v>
       </c>
       <c r="G18" s="3">
-        <v>-27100</v>
+        <v>186600</v>
       </c>
       <c r="H18" s="3">
-        <v>212400</v>
+        <v>123900</v>
       </c>
       <c r="I18" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>207100</v>
+      </c>
+      <c r="K18" s="3">
         <v>103900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>84700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1010,37 +1075,45 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-120500</v>
+        <v>-463800</v>
       </c>
       <c r="E20" s="3">
-        <v>-122000</v>
+        <v>323400</v>
       </c>
       <c r="F20" s="3">
-        <v>732200</v>
+        <v>-117600</v>
       </c>
       <c r="G20" s="3">
-        <v>-75900</v>
+        <v>-119000</v>
       </c>
       <c r="H20" s="3">
-        <v>-301900</v>
+        <v>714200</v>
       </c>
       <c r="I20" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-294500</v>
+      </c>
+      <c r="K20" s="3">
         <v>370200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>125800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>96600</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1068,95 +1141,119 @@
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>60700</v>
+        <v>62700</v>
       </c>
       <c r="E22" s="3">
-        <v>61100</v>
+        <v>54200</v>
       </c>
       <c r="F22" s="3">
-        <v>63300</v>
+        <v>59200</v>
       </c>
       <c r="G22" s="3">
-        <v>60500</v>
+        <v>59600</v>
       </c>
       <c r="H22" s="3">
-        <v>56400</v>
+        <v>61700</v>
       </c>
       <c r="I22" s="3">
+        <v>59100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K22" s="3">
         <v>53200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>46200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>140500</v>
+        <v>-737700</v>
       </c>
       <c r="E23" s="3">
-        <v>8200</v>
+        <v>350500</v>
       </c>
       <c r="F23" s="3">
-        <v>795900</v>
+        <v>137000</v>
       </c>
       <c r="G23" s="3">
-        <v>-163600</v>
+        <v>8000</v>
       </c>
       <c r="H23" s="3">
-        <v>-145900</v>
+        <v>776400</v>
       </c>
       <c r="I23" s="3">
+        <v>-159600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-142300</v>
+      </c>
+      <c r="K23" s="3">
         <v>420800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>164300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>93500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>52400</v>
+        <v>-35500</v>
       </c>
       <c r="E24" s="3">
-        <v>48200</v>
+        <v>50900</v>
       </c>
       <c r="F24" s="3">
-        <v>97100</v>
+        <v>51100</v>
       </c>
       <c r="G24" s="3">
-        <v>5000</v>
+        <v>47000</v>
       </c>
       <c r="H24" s="3">
-        <v>36900</v>
+        <v>94800</v>
       </c>
       <c r="I24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K24" s="3">
         <v>46200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>25700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>88100</v>
+        <v>-702200</v>
       </c>
       <c r="E26" s="3">
-        <v>-40000</v>
+        <v>299500</v>
       </c>
       <c r="F26" s="3">
-        <v>698700</v>
+        <v>85900</v>
       </c>
       <c r="G26" s="3">
-        <v>-168600</v>
+        <v>-39000</v>
       </c>
       <c r="H26" s="3">
-        <v>-182800</v>
+        <v>681600</v>
       </c>
       <c r="I26" s="3">
+        <v>-164500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-178300</v>
+      </c>
+      <c r="K26" s="3">
         <v>374600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>138600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>113800</v>
+        <v>-749200</v>
       </c>
       <c r="E27" s="3">
-        <v>-57800</v>
+        <v>281000</v>
       </c>
       <c r="F27" s="3">
-        <v>661900</v>
+        <v>111000</v>
       </c>
       <c r="G27" s="3">
-        <v>-170700</v>
+        <v>-56400</v>
       </c>
       <c r="H27" s="3">
-        <v>-163400</v>
+        <v>645600</v>
       </c>
       <c r="I27" s="3">
+        <v>-166600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-159400</v>
+      </c>
+      <c r="K27" s="3">
         <v>341600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>152100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>120500</v>
+        <v>463800</v>
       </c>
       <c r="E32" s="3">
-        <v>122000</v>
+        <v>-323400</v>
       </c>
       <c r="F32" s="3">
-        <v>-732200</v>
+        <v>117600</v>
       </c>
       <c r="G32" s="3">
-        <v>75900</v>
+        <v>119000</v>
       </c>
       <c r="H32" s="3">
-        <v>301900</v>
+        <v>-714200</v>
       </c>
       <c r="I32" s="3">
+        <v>74000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>294500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-370200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-125800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-96600</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>113800</v>
+        <v>-749200</v>
       </c>
       <c r="E33" s="3">
-        <v>-57800</v>
+        <v>281000</v>
       </c>
       <c r="F33" s="3">
-        <v>661900</v>
+        <v>111000</v>
       </c>
       <c r="G33" s="3">
-        <v>-170700</v>
+        <v>-56400</v>
       </c>
       <c r="H33" s="3">
-        <v>-163400</v>
+        <v>645600</v>
       </c>
       <c r="I33" s="3">
+        <v>-166600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-159400</v>
+      </c>
+      <c r="K33" s="3">
         <v>341600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>152100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>113800</v>
+        <v>-749200</v>
       </c>
       <c r="E35" s="3">
-        <v>-57800</v>
+        <v>281000</v>
       </c>
       <c r="F35" s="3">
-        <v>661900</v>
+        <v>111000</v>
       </c>
       <c r="G35" s="3">
-        <v>-170700</v>
+        <v>-56400</v>
       </c>
       <c r="H35" s="3">
-        <v>-163400</v>
+        <v>645600</v>
       </c>
       <c r="I35" s="3">
+        <v>-166600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-159400</v>
+      </c>
+      <c r="K35" s="3">
         <v>341600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>152100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,95 +1705,115 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2630000</v>
+        <v>3372100</v>
       </c>
       <c r="E41" s="3">
-        <v>3300300</v>
+        <v>2788400</v>
       </c>
       <c r="F41" s="3">
-        <v>3258100</v>
+        <v>2565500</v>
       </c>
       <c r="G41" s="3">
-        <v>3089100</v>
+        <v>3219400</v>
       </c>
       <c r="H41" s="3">
-        <v>3083400</v>
+        <v>3178200</v>
       </c>
       <c r="I41" s="3">
+        <v>3013300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3007700</v>
+      </c>
+      <c r="K41" s="3">
         <v>3162400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2475500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2617500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3740400</v>
+        <v>3509200</v>
       </c>
       <c r="E42" s="3">
-        <v>4727500</v>
+        <v>3227200</v>
       </c>
       <c r="F42" s="3">
-        <v>4835700</v>
+        <v>3648600</v>
       </c>
       <c r="G42" s="3">
-        <v>5273300</v>
+        <v>4611500</v>
       </c>
       <c r="H42" s="3">
-        <v>5422500</v>
+        <v>4717100</v>
       </c>
       <c r="I42" s="3">
+        <v>5143900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>5289500</v>
+      </c>
+      <c r="K42" s="3">
         <v>4760400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>4896000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>4036100</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1333600</v>
+        <v>713500</v>
       </c>
       <c r="E43" s="3">
-        <v>1481400</v>
+        <v>1461200</v>
       </c>
       <c r="F43" s="3">
-        <v>876400</v>
+        <v>1300900</v>
       </c>
       <c r="G43" s="3">
-        <v>1048800</v>
+        <v>1445100</v>
       </c>
       <c r="H43" s="3">
-        <v>975200</v>
+        <v>854900</v>
       </c>
       <c r="I43" s="3">
+        <v>1023100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>951300</v>
+      </c>
+      <c r="K43" s="3">
         <v>898300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>742900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>735000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,153 +1841,189 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3139900</v>
+        <v>1453300</v>
       </c>
       <c r="E45" s="3">
-        <v>1992800</v>
+        <v>2034200</v>
       </c>
       <c r="F45" s="3">
-        <v>2414800</v>
+        <v>3062900</v>
       </c>
       <c r="G45" s="3">
-        <v>1980200</v>
+        <v>1943900</v>
       </c>
       <c r="H45" s="3">
-        <v>2637700</v>
+        <v>2355500</v>
       </c>
       <c r="I45" s="3">
+        <v>1931600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2573000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1838400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1400500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1190300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10843900</v>
+        <v>9048100</v>
       </c>
       <c r="E46" s="3">
-        <v>11502100</v>
+        <v>9511000</v>
       </c>
       <c r="F46" s="3">
-        <v>11385000</v>
+        <v>10577900</v>
       </c>
       <c r="G46" s="3">
-        <v>11391500</v>
+        <v>11219900</v>
       </c>
       <c r="H46" s="3">
-        <v>12118900</v>
+        <v>11105700</v>
       </c>
       <c r="I46" s="3">
+        <v>11112000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>11821600</v>
+      </c>
+      <c r="K46" s="3">
         <v>10659600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>9514900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8525300</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6840100</v>
+        <v>7187400</v>
       </c>
       <c r="E47" s="3">
-        <v>5025100</v>
+        <v>7183300</v>
       </c>
       <c r="F47" s="3">
-        <v>4916600</v>
+        <v>6672300</v>
       </c>
       <c r="G47" s="3">
-        <v>3888700</v>
+        <v>4901800</v>
       </c>
       <c r="H47" s="3">
-        <v>3679500</v>
+        <v>4796000</v>
       </c>
       <c r="I47" s="3">
+        <v>3793300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3589300</v>
+      </c>
+      <c r="K47" s="3">
         <v>3907000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3652100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3737400</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1000200</v>
+        <v>1016400</v>
       </c>
       <c r="E48" s="3">
-        <v>995300</v>
+        <v>1027600</v>
       </c>
       <c r="F48" s="3">
-        <v>956300</v>
+        <v>975700</v>
       </c>
       <c r="G48" s="3">
-        <v>842500</v>
+        <v>970900</v>
       </c>
       <c r="H48" s="3">
-        <v>837500</v>
+        <v>932800</v>
       </c>
       <c r="I48" s="3">
+        <v>821800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>816900</v>
+      </c>
+      <c r="K48" s="3">
         <v>835300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>830000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>805800</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10228400</v>
+        <v>10002400</v>
       </c>
       <c r="E49" s="3">
-        <v>10244600</v>
+        <v>10017200</v>
       </c>
       <c r="F49" s="3">
-        <v>10261000</v>
+        <v>9977500</v>
       </c>
       <c r="G49" s="3">
-        <v>10308000</v>
+        <v>9993300</v>
       </c>
       <c r="H49" s="3">
-        <v>10326300</v>
+        <v>10009200</v>
       </c>
       <c r="I49" s="3">
+        <v>10055100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>10072900</v>
+      </c>
+      <c r="K49" s="3">
         <v>10276000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>10086500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>10056900</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>225700</v>
+        <v>276000</v>
       </c>
       <c r="E52" s="3">
-        <v>250500</v>
+        <v>276600</v>
       </c>
       <c r="F52" s="3">
-        <v>205300</v>
+        <v>220200</v>
       </c>
       <c r="G52" s="3">
-        <v>232200</v>
+        <v>244400</v>
       </c>
       <c r="H52" s="3">
-        <v>208600</v>
+        <v>200300</v>
       </c>
       <c r="I52" s="3">
+        <v>226500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>203500</v>
+      </c>
+      <c r="K52" s="3">
         <v>240300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>190500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>186800</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29138300</v>
+        <v>27530300</v>
       </c>
       <c r="E54" s="3">
-        <v>28017600</v>
+        <v>28015700</v>
       </c>
       <c r="F54" s="3">
-        <v>27724200</v>
+        <v>28423500</v>
       </c>
       <c r="G54" s="3">
-        <v>26662900</v>
+        <v>27330300</v>
       </c>
       <c r="H54" s="3">
-        <v>27170800</v>
+        <v>27044100</v>
       </c>
       <c r="I54" s="3">
+        <v>26008800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>26504200</v>
+      </c>
+      <c r="K54" s="3">
         <v>25918200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>24274100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>23278200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2225,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1920600</v>
+        <v>689900</v>
       </c>
       <c r="E57" s="3">
-        <v>1854500</v>
+        <v>1720700</v>
       </c>
       <c r="F57" s="3">
-        <v>1573800</v>
+        <v>1873500</v>
       </c>
       <c r="G57" s="3">
-        <v>1680700</v>
+        <v>1809000</v>
       </c>
       <c r="H57" s="3">
-        <v>1951200</v>
+        <v>1535200</v>
       </c>
       <c r="I57" s="3">
+        <v>1639500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1903300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1593800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1351000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1070200</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5273000</v>
+        <v>5651900</v>
       </c>
       <c r="E58" s="3">
-        <v>5407800</v>
+        <v>4271000</v>
       </c>
       <c r="F58" s="3">
-        <v>5441300</v>
+        <v>5143700</v>
       </c>
       <c r="G58" s="3">
-        <v>5166900</v>
+        <v>5275100</v>
       </c>
       <c r="H58" s="3">
-        <v>5169000</v>
+        <v>5307800</v>
       </c>
       <c r="I58" s="3">
+        <v>5040100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>5042200</v>
+      </c>
+      <c r="K58" s="3">
         <v>3509800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2952200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2341000</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3440800</v>
+        <v>3147600</v>
       </c>
       <c r="E59" s="3">
-        <v>3445500</v>
+        <v>3691000</v>
       </c>
       <c r="F59" s="3">
-        <v>2957400</v>
+        <v>3356400</v>
       </c>
       <c r="G59" s="3">
-        <v>3021500</v>
+        <v>3361000</v>
       </c>
       <c r="H59" s="3">
-        <v>2789300</v>
+        <v>2884900</v>
       </c>
       <c r="I59" s="3">
+        <v>2947400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2720800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2821200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2478900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2698200</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10634500</v>
+        <v>9489300</v>
       </c>
       <c r="E60" s="3">
-        <v>10707800</v>
+        <v>9682700</v>
       </c>
       <c r="F60" s="3">
-        <v>9972600</v>
+        <v>10373600</v>
       </c>
       <c r="G60" s="3">
-        <v>9869100</v>
+        <v>10445100</v>
       </c>
       <c r="H60" s="3">
-        <v>9909400</v>
+        <v>9727900</v>
       </c>
       <c r="I60" s="3">
+        <v>9627000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>9666300</v>
+      </c>
+      <c r="K60" s="3">
         <v>7924800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6782200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6049400</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2955700</v>
+        <v>3259900</v>
       </c>
       <c r="E61" s="3">
-        <v>3109600</v>
+        <v>2734400</v>
       </c>
       <c r="F61" s="3">
-        <v>3510200</v>
+        <v>2883200</v>
       </c>
       <c r="G61" s="3">
-        <v>3464500</v>
+        <v>3033400</v>
       </c>
       <c r="H61" s="3">
-        <v>3739400</v>
+        <v>3424100</v>
       </c>
       <c r="I61" s="3">
+        <v>3379500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3647600</v>
+      </c>
+      <c r="K61" s="3">
         <v>4291800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4171300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4192500</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>650500</v>
+        <v>643500</v>
       </c>
       <c r="E62" s="3">
-        <v>642200</v>
+        <v>644500</v>
       </c>
       <c r="F62" s="3">
-        <v>706200</v>
+        <v>634600</v>
       </c>
       <c r="G62" s="3">
-        <v>597900</v>
+        <v>626500</v>
       </c>
       <c r="H62" s="3">
-        <v>610700</v>
+        <v>688900</v>
       </c>
       <c r="I62" s="3">
+        <v>583200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>595700</v>
+      </c>
+      <c r="K62" s="3">
         <v>649800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>592000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>608800</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14695400</v>
+        <v>13867800</v>
       </c>
       <c r="E66" s="3">
-        <v>14806400</v>
+        <v>13537900</v>
       </c>
       <c r="F66" s="3">
-        <v>14537300</v>
+        <v>14334800</v>
       </c>
       <c r="G66" s="3">
-        <v>14221000</v>
+        <v>14443200</v>
       </c>
       <c r="H66" s="3">
-        <v>14579600</v>
+        <v>14180600</v>
       </c>
       <c r="I66" s="3">
+        <v>13872100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>14221900</v>
+      </c>
+      <c r="K66" s="3">
         <v>13139500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11814400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11105900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,8 +2726,14 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2394,28 +2741,34 @@
         <v>16</v>
       </c>
       <c r="E72" s="3">
-        <v>2961000</v>
+        <v>3280400</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="3">
-        <v>2356900</v>
+        <v>2888400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="I72" s="3">
+        <v>2299100</v>
+      </c>
+      <c r="J72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="3">
         <v>2379000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2227000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14443000</v>
+        <v>13662500</v>
       </c>
       <c r="E76" s="3">
-        <v>13211200</v>
+        <v>14477700</v>
       </c>
       <c r="F76" s="3">
-        <v>13187000</v>
+        <v>14088700</v>
       </c>
       <c r="G76" s="3">
-        <v>12441900</v>
+        <v>12887100</v>
       </c>
       <c r="H76" s="3">
-        <v>12591200</v>
+        <v>12863400</v>
       </c>
       <c r="I76" s="3">
+        <v>12136600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>12282300</v>
+      </c>
+      <c r="K76" s="3">
         <v>12778800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>12459700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>12172300</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>113800</v>
+        <v>-749200</v>
       </c>
       <c r="E81" s="3">
-        <v>-57800</v>
+        <v>281000</v>
       </c>
       <c r="F81" s="3">
-        <v>661900</v>
+        <v>111000</v>
       </c>
       <c r="G81" s="3">
-        <v>-170700</v>
+        <v>-56400</v>
       </c>
       <c r="H81" s="3">
-        <v>-163400</v>
+        <v>645600</v>
       </c>
       <c r="I81" s="3">
+        <v>-166600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-159400</v>
+      </c>
+      <c r="K81" s="3">
         <v>341600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>152100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,8 +3236,14 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2838,8 +3271,14 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2967,8 +3426,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3581,14 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3125,8 +3616,14 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,8 +3651,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3181,6 +3684,12 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>662200</v>
+        <v>687100</v>
       </c>
       <c r="E8" s="3">
-        <v>1166600</v>
+        <v>1210500</v>
       </c>
       <c r="F8" s="3">
-        <v>1466200</v>
+        <v>1521400</v>
       </c>
       <c r="G8" s="3">
-        <v>1216400</v>
+        <v>1262200</v>
       </c>
       <c r="H8" s="3">
-        <v>1142600</v>
+        <v>1185700</v>
       </c>
       <c r="I8" s="3">
-        <v>1058100</v>
+        <v>1097900</v>
       </c>
       <c r="J8" s="3">
-        <v>1309300</v>
+        <v>1358600</v>
       </c>
       <c r="K8" s="3">
         <v>1050100</v>
@@ -761,25 +761,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>170800</v>
+        <v>177200</v>
       </c>
       <c r="E9" s="3">
-        <v>241900</v>
+        <v>251000</v>
       </c>
       <c r="F9" s="3">
-        <v>301900</v>
+        <v>313300</v>
       </c>
       <c r="G9" s="3">
-        <v>251600</v>
+        <v>261100</v>
       </c>
       <c r="H9" s="3">
-        <v>236400</v>
+        <v>245300</v>
       </c>
       <c r="I9" s="3">
-        <v>226700</v>
+        <v>235300</v>
       </c>
       <c r="J9" s="3">
-        <v>278700</v>
+        <v>289200</v>
       </c>
       <c r="K9" s="3">
         <v>210800</v>
@@ -796,25 +796,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>491400</v>
+        <v>509900</v>
       </c>
       <c r="E10" s="3">
-        <v>924700</v>
+        <v>959500</v>
       </c>
       <c r="F10" s="3">
-        <v>1164300</v>
+        <v>1208200</v>
       </c>
       <c r="G10" s="3">
-        <v>964700</v>
+        <v>1001100</v>
       </c>
       <c r="H10" s="3">
-        <v>906200</v>
+        <v>940400</v>
       </c>
       <c r="I10" s="3">
-        <v>831400</v>
+        <v>862700</v>
       </c>
       <c r="J10" s="3">
-        <v>1030700</v>
+        <v>1069500</v>
       </c>
       <c r="K10" s="3">
         <v>839400</v>
@@ -846,25 +846,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>237400</v>
+        <v>246300</v>
       </c>
       <c r="E12" s="3">
-        <v>377100</v>
+        <v>391200</v>
       </c>
       <c r="F12" s="3">
-        <v>390500</v>
+        <v>405200</v>
       </c>
       <c r="G12" s="3">
-        <v>369800</v>
+        <v>383700</v>
       </c>
       <c r="H12" s="3">
-        <v>356100</v>
+        <v>369500</v>
       </c>
       <c r="I12" s="3">
-        <v>380400</v>
+        <v>394700</v>
       </c>
       <c r="J12" s="3">
-        <v>348600</v>
+        <v>361800</v>
       </c>
       <c r="K12" s="3">
         <v>323000</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>873400</v>
+        <v>906200</v>
       </c>
       <c r="E17" s="3">
-        <v>1085400</v>
+        <v>1126300</v>
       </c>
       <c r="F17" s="3">
-        <v>1152400</v>
+        <v>1195800</v>
       </c>
       <c r="G17" s="3">
-        <v>1029800</v>
+        <v>1068600</v>
       </c>
       <c r="H17" s="3">
-        <v>1018800</v>
+        <v>1057100</v>
       </c>
       <c r="I17" s="3">
-        <v>1084600</v>
+        <v>1125400</v>
       </c>
       <c r="J17" s="3">
-        <v>1102200</v>
+        <v>1143700</v>
       </c>
       <c r="K17" s="3">
         <v>946300</v>
@@ -1033,25 +1033,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-211200</v>
+        <v>-219200</v>
       </c>
       <c r="E18" s="3">
-        <v>81200</v>
+        <v>84200</v>
       </c>
       <c r="F18" s="3">
-        <v>313800</v>
+        <v>325600</v>
       </c>
       <c r="G18" s="3">
-        <v>186600</v>
+        <v>193600</v>
       </c>
       <c r="H18" s="3">
-        <v>123900</v>
+        <v>128500</v>
       </c>
       <c r="I18" s="3">
-        <v>-26500</v>
+        <v>-27400</v>
       </c>
       <c r="J18" s="3">
-        <v>207100</v>
+        <v>214900</v>
       </c>
       <c r="K18" s="3">
         <v>103900</v>
@@ -1083,25 +1083,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-463800</v>
+        <v>-481300</v>
       </c>
       <c r="E20" s="3">
-        <v>323400</v>
+        <v>335600</v>
       </c>
       <c r="F20" s="3">
-        <v>-117600</v>
+        <v>-122000</v>
       </c>
       <c r="G20" s="3">
-        <v>-119000</v>
+        <v>-123400</v>
       </c>
       <c r="H20" s="3">
-        <v>714200</v>
+        <v>741100</v>
       </c>
       <c r="I20" s="3">
-        <v>-74000</v>
+        <v>-76800</v>
       </c>
       <c r="J20" s="3">
-        <v>-294500</v>
+        <v>-305600</v>
       </c>
       <c r="K20" s="3">
         <v>370200</v>
@@ -1153,25 +1153,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>62700</v>
+        <v>65100</v>
       </c>
       <c r="E22" s="3">
-        <v>54200</v>
+        <v>56200</v>
       </c>
       <c r="F22" s="3">
-        <v>59200</v>
+        <v>61400</v>
       </c>
       <c r="G22" s="3">
-        <v>59600</v>
+        <v>61900</v>
       </c>
       <c r="H22" s="3">
-        <v>61700</v>
+        <v>64000</v>
       </c>
       <c r="I22" s="3">
-        <v>59100</v>
+        <v>61300</v>
       </c>
       <c r="J22" s="3">
-        <v>55000</v>
+        <v>57100</v>
       </c>
       <c r="K22" s="3">
         <v>53200</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-737700</v>
+        <v>-765500</v>
       </c>
       <c r="E23" s="3">
-        <v>350500</v>
+        <v>363700</v>
       </c>
       <c r="F23" s="3">
-        <v>137000</v>
+        <v>142200</v>
       </c>
       <c r="G23" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="H23" s="3">
-        <v>776400</v>
+        <v>805600</v>
       </c>
       <c r="I23" s="3">
-        <v>-159600</v>
+        <v>-165600</v>
       </c>
       <c r="J23" s="3">
-        <v>-142300</v>
+        <v>-147700</v>
       </c>
       <c r="K23" s="3">
         <v>420800</v>
@@ -1223,25 +1223,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-35500</v>
+        <v>-36900</v>
       </c>
       <c r="E24" s="3">
-        <v>50900</v>
+        <v>52900</v>
       </c>
       <c r="F24" s="3">
-        <v>51100</v>
+        <v>53000</v>
       </c>
       <c r="G24" s="3">
-        <v>47000</v>
+        <v>48800</v>
       </c>
       <c r="H24" s="3">
-        <v>94800</v>
+        <v>98300</v>
       </c>
       <c r="I24" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="J24" s="3">
-        <v>36000</v>
+        <v>37300</v>
       </c>
       <c r="K24" s="3">
         <v>46200</v>
@@ -1293,25 +1293,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-702200</v>
+        <v>-728600</v>
       </c>
       <c r="E26" s="3">
-        <v>299500</v>
+        <v>310800</v>
       </c>
       <c r="F26" s="3">
-        <v>85900</v>
+        <v>89200</v>
       </c>
       <c r="G26" s="3">
-        <v>-39000</v>
+        <v>-40500</v>
       </c>
       <c r="H26" s="3">
-        <v>681600</v>
+        <v>707300</v>
       </c>
       <c r="I26" s="3">
-        <v>-164500</v>
+        <v>-170600</v>
       </c>
       <c r="J26" s="3">
-        <v>-178300</v>
+        <v>-185000</v>
       </c>
       <c r="K26" s="3">
         <v>374600</v>
@@ -1328,25 +1328,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-749200</v>
+        <v>-777400</v>
       </c>
       <c r="E27" s="3">
-        <v>281000</v>
+        <v>291600</v>
       </c>
       <c r="F27" s="3">
-        <v>111000</v>
+        <v>115200</v>
       </c>
       <c r="G27" s="3">
-        <v>-56400</v>
+        <v>-58500</v>
       </c>
       <c r="H27" s="3">
-        <v>645600</v>
+        <v>669900</v>
       </c>
       <c r="I27" s="3">
-        <v>-166600</v>
+        <v>-172800</v>
       </c>
       <c r="J27" s="3">
-        <v>-159400</v>
+        <v>-165400</v>
       </c>
       <c r="K27" s="3">
         <v>341600</v>
@@ -1503,25 +1503,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>463800</v>
+        <v>481300</v>
       </c>
       <c r="E32" s="3">
-        <v>-323400</v>
+        <v>-335600</v>
       </c>
       <c r="F32" s="3">
-        <v>117600</v>
+        <v>122000</v>
       </c>
       <c r="G32" s="3">
-        <v>119000</v>
+        <v>123400</v>
       </c>
       <c r="H32" s="3">
-        <v>-714200</v>
+        <v>-741100</v>
       </c>
       <c r="I32" s="3">
-        <v>74000</v>
+        <v>76800</v>
       </c>
       <c r="J32" s="3">
-        <v>294500</v>
+        <v>305600</v>
       </c>
       <c r="K32" s="3">
         <v>-370200</v>
@@ -1538,25 +1538,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-749200</v>
+        <v>-777400</v>
       </c>
       <c r="E33" s="3">
-        <v>281000</v>
+        <v>291600</v>
       </c>
       <c r="F33" s="3">
-        <v>111000</v>
+        <v>115200</v>
       </c>
       <c r="G33" s="3">
-        <v>-56400</v>
+        <v>-58500</v>
       </c>
       <c r="H33" s="3">
-        <v>645600</v>
+        <v>669900</v>
       </c>
       <c r="I33" s="3">
-        <v>-166600</v>
+        <v>-172800</v>
       </c>
       <c r="J33" s="3">
-        <v>-159400</v>
+        <v>-165400</v>
       </c>
       <c r="K33" s="3">
         <v>341600</v>
@@ -1608,25 +1608,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-749200</v>
+        <v>-777400</v>
       </c>
       <c r="E35" s="3">
-        <v>281000</v>
+        <v>291600</v>
       </c>
       <c r="F35" s="3">
-        <v>111000</v>
+        <v>115200</v>
       </c>
       <c r="G35" s="3">
-        <v>-56400</v>
+        <v>-58500</v>
       </c>
       <c r="H35" s="3">
-        <v>645600</v>
+        <v>669900</v>
       </c>
       <c r="I35" s="3">
-        <v>-166600</v>
+        <v>-172800</v>
       </c>
       <c r="J35" s="3">
-        <v>-159400</v>
+        <v>-165400</v>
       </c>
       <c r="K35" s="3">
         <v>341600</v>
@@ -1713,25 +1713,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3372100</v>
+        <v>3499000</v>
       </c>
       <c r="E41" s="3">
-        <v>2788400</v>
+        <v>2893400</v>
       </c>
       <c r="F41" s="3">
-        <v>2565500</v>
+        <v>2662100</v>
       </c>
       <c r="G41" s="3">
-        <v>3219400</v>
+        <v>3340600</v>
       </c>
       <c r="H41" s="3">
-        <v>3178200</v>
+        <v>3297900</v>
       </c>
       <c r="I41" s="3">
-        <v>3013300</v>
+        <v>3126800</v>
       </c>
       <c r="J41" s="3">
-        <v>3007700</v>
+        <v>3121000</v>
       </c>
       <c r="K41" s="3">
         <v>3162400</v>
@@ -1748,25 +1748,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3509200</v>
+        <v>3641400</v>
       </c>
       <c r="E42" s="3">
-        <v>3227200</v>
+        <v>3348700</v>
       </c>
       <c r="F42" s="3">
-        <v>3648600</v>
+        <v>3786000</v>
       </c>
       <c r="G42" s="3">
-        <v>4611500</v>
+        <v>4785200</v>
       </c>
       <c r="H42" s="3">
-        <v>4717100</v>
+        <v>4894700</v>
       </c>
       <c r="I42" s="3">
-        <v>5143900</v>
+        <v>5337600</v>
       </c>
       <c r="J42" s="3">
-        <v>5289500</v>
+        <v>5488700</v>
       </c>
       <c r="K42" s="3">
         <v>4760400</v>
@@ -1783,25 +1783,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>713500</v>
+        <v>740400</v>
       </c>
       <c r="E43" s="3">
-        <v>1461200</v>
+        <v>1516200</v>
       </c>
       <c r="F43" s="3">
-        <v>1300900</v>
+        <v>1349900</v>
       </c>
       <c r="G43" s="3">
-        <v>1445100</v>
+        <v>1499500</v>
       </c>
       <c r="H43" s="3">
-        <v>854900</v>
+        <v>887100</v>
       </c>
       <c r="I43" s="3">
-        <v>1023100</v>
+        <v>1061600</v>
       </c>
       <c r="J43" s="3">
-        <v>951300</v>
+        <v>987100</v>
       </c>
       <c r="K43" s="3">
         <v>898300</v>
@@ -1853,25 +1853,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1453300</v>
+        <v>1508100</v>
       </c>
       <c r="E45" s="3">
-        <v>2034200</v>
+        <v>2110800</v>
       </c>
       <c r="F45" s="3">
-        <v>3062900</v>
+        <v>3178200</v>
       </c>
       <c r="G45" s="3">
-        <v>1943900</v>
+        <v>2017100</v>
       </c>
       <c r="H45" s="3">
-        <v>2355500</v>
+        <v>2444200</v>
       </c>
       <c r="I45" s="3">
-        <v>1931600</v>
+        <v>2004300</v>
       </c>
       <c r="J45" s="3">
-        <v>2573000</v>
+        <v>2669900</v>
       </c>
       <c r="K45" s="3">
         <v>1838400</v>
@@ -1888,25 +1888,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9048100</v>
+        <v>9388800</v>
       </c>
       <c r="E46" s="3">
-        <v>9511000</v>
+        <v>9869100</v>
       </c>
       <c r="F46" s="3">
-        <v>10577900</v>
+        <v>10976200</v>
       </c>
       <c r="G46" s="3">
-        <v>11219900</v>
+        <v>11642400</v>
       </c>
       <c r="H46" s="3">
-        <v>11105700</v>
+        <v>11523900</v>
       </c>
       <c r="I46" s="3">
-        <v>11112000</v>
+        <v>11530400</v>
       </c>
       <c r="J46" s="3">
-        <v>11821600</v>
+        <v>12266700</v>
       </c>
       <c r="K46" s="3">
         <v>10659600</v>
@@ -1923,25 +1923,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7187400</v>
+        <v>7458000</v>
       </c>
       <c r="E47" s="3">
-        <v>7183300</v>
+        <v>7453800</v>
       </c>
       <c r="F47" s="3">
-        <v>6672300</v>
+        <v>6923500</v>
       </c>
       <c r="G47" s="3">
-        <v>4901800</v>
+        <v>5086400</v>
       </c>
       <c r="H47" s="3">
-        <v>4796000</v>
+        <v>4976600</v>
       </c>
       <c r="I47" s="3">
-        <v>3793300</v>
+        <v>3936200</v>
       </c>
       <c r="J47" s="3">
-        <v>3589300</v>
+        <v>3724400</v>
       </c>
       <c r="K47" s="3">
         <v>3907000</v>
@@ -1958,25 +1958,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1016400</v>
+        <v>1054700</v>
       </c>
       <c r="E48" s="3">
-        <v>1027600</v>
+        <v>1066300</v>
       </c>
       <c r="F48" s="3">
-        <v>975700</v>
+        <v>1012400</v>
       </c>
       <c r="G48" s="3">
-        <v>970900</v>
+        <v>1007500</v>
       </c>
       <c r="H48" s="3">
-        <v>932800</v>
+        <v>968000</v>
       </c>
       <c r="I48" s="3">
-        <v>821800</v>
+        <v>852800</v>
       </c>
       <c r="J48" s="3">
-        <v>816900</v>
+        <v>847700</v>
       </c>
       <c r="K48" s="3">
         <v>835300</v>
@@ -1993,25 +1993,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10002400</v>
+        <v>10379000</v>
       </c>
       <c r="E49" s="3">
-        <v>10017200</v>
+        <v>10394400</v>
       </c>
       <c r="F49" s="3">
-        <v>9977500</v>
+        <v>10353200</v>
       </c>
       <c r="G49" s="3">
-        <v>9993300</v>
+        <v>10369600</v>
       </c>
       <c r="H49" s="3">
-        <v>10009200</v>
+        <v>10386100</v>
       </c>
       <c r="I49" s="3">
-        <v>10055100</v>
+        <v>10433800</v>
       </c>
       <c r="J49" s="3">
-        <v>10072900</v>
+        <v>10452200</v>
       </c>
       <c r="K49" s="3">
         <v>10276000</v>
@@ -2098,25 +2098,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>276000</v>
+        <v>286400</v>
       </c>
       <c r="E52" s="3">
-        <v>276600</v>
+        <v>287000</v>
       </c>
       <c r="F52" s="3">
-        <v>220200</v>
+        <v>228400</v>
       </c>
       <c r="G52" s="3">
-        <v>244400</v>
+        <v>253600</v>
       </c>
       <c r="H52" s="3">
-        <v>200300</v>
+        <v>207800</v>
       </c>
       <c r="I52" s="3">
-        <v>226500</v>
+        <v>235000</v>
       </c>
       <c r="J52" s="3">
-        <v>203500</v>
+        <v>211200</v>
       </c>
       <c r="K52" s="3">
         <v>240300</v>
@@ -2168,25 +2168,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27530300</v>
+        <v>28566900</v>
       </c>
       <c r="E54" s="3">
-        <v>28015700</v>
+        <v>29070500</v>
       </c>
       <c r="F54" s="3">
-        <v>28423500</v>
+        <v>29493700</v>
       </c>
       <c r="G54" s="3">
-        <v>27330300</v>
+        <v>28359400</v>
       </c>
       <c r="H54" s="3">
-        <v>27044100</v>
+        <v>28062400</v>
       </c>
       <c r="I54" s="3">
-        <v>26008800</v>
+        <v>26988100</v>
       </c>
       <c r="J54" s="3">
-        <v>26504200</v>
+        <v>27502200</v>
       </c>
       <c r="K54" s="3">
         <v>25918200</v>
@@ -2233,25 +2233,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>689900</v>
+        <v>715800</v>
       </c>
       <c r="E57" s="3">
-        <v>1720700</v>
+        <v>1785500</v>
       </c>
       <c r="F57" s="3">
-        <v>1873500</v>
+        <v>1944000</v>
       </c>
       <c r="G57" s="3">
-        <v>1809000</v>
+        <v>1877100</v>
       </c>
       <c r="H57" s="3">
-        <v>1535200</v>
+        <v>1593000</v>
       </c>
       <c r="I57" s="3">
-        <v>1639500</v>
+        <v>1701200</v>
       </c>
       <c r="J57" s="3">
-        <v>1903300</v>
+        <v>1975000</v>
       </c>
       <c r="K57" s="3">
         <v>1593800</v>
@@ -2268,25 +2268,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5651900</v>
+        <v>5864700</v>
       </c>
       <c r="E58" s="3">
-        <v>4271000</v>
+        <v>4431800</v>
       </c>
       <c r="F58" s="3">
-        <v>5143700</v>
+        <v>5337300</v>
       </c>
       <c r="G58" s="3">
-        <v>5275100</v>
+        <v>5473700</v>
       </c>
       <c r="H58" s="3">
-        <v>5307800</v>
+        <v>5507700</v>
       </c>
       <c r="I58" s="3">
-        <v>5040100</v>
+        <v>5229900</v>
       </c>
       <c r="J58" s="3">
-        <v>5042200</v>
+        <v>5232100</v>
       </c>
       <c r="K58" s="3">
         <v>3509800</v>
@@ -2303,25 +2303,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3147600</v>
+        <v>3266100</v>
       </c>
       <c r="E59" s="3">
-        <v>3691000</v>
+        <v>3830000</v>
       </c>
       <c r="F59" s="3">
-        <v>3356400</v>
+        <v>3482800</v>
       </c>
       <c r="G59" s="3">
-        <v>3361000</v>
+        <v>3487600</v>
       </c>
       <c r="H59" s="3">
-        <v>2884900</v>
+        <v>2993500</v>
       </c>
       <c r="I59" s="3">
-        <v>2947400</v>
+        <v>3058400</v>
       </c>
       <c r="J59" s="3">
-        <v>2720800</v>
+        <v>2823300</v>
       </c>
       <c r="K59" s="3">
         <v>2821200</v>
@@ -2338,25 +2338,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9489300</v>
+        <v>9846600</v>
       </c>
       <c r="E60" s="3">
-        <v>9682700</v>
+        <v>10047300</v>
       </c>
       <c r="F60" s="3">
-        <v>10373600</v>
+        <v>10764200</v>
       </c>
       <c r="G60" s="3">
-        <v>10445100</v>
+        <v>10838400</v>
       </c>
       <c r="H60" s="3">
-        <v>9727900</v>
+        <v>10094200</v>
       </c>
       <c r="I60" s="3">
-        <v>9627000</v>
+        <v>9989500</v>
       </c>
       <c r="J60" s="3">
-        <v>9666300</v>
+        <v>10030300</v>
       </c>
       <c r="K60" s="3">
         <v>7924800</v>
@@ -2373,25 +2373,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3259900</v>
+        <v>3382700</v>
       </c>
       <c r="E61" s="3">
-        <v>2734400</v>
+        <v>2837400</v>
       </c>
       <c r="F61" s="3">
-        <v>2883200</v>
+        <v>2991700</v>
       </c>
       <c r="G61" s="3">
-        <v>3033400</v>
+        <v>3147600</v>
       </c>
       <c r="H61" s="3">
-        <v>3424100</v>
+        <v>3553100</v>
       </c>
       <c r="I61" s="3">
-        <v>3379500</v>
+        <v>3506700</v>
       </c>
       <c r="J61" s="3">
-        <v>3647600</v>
+        <v>3785000</v>
       </c>
       <c r="K61" s="3">
         <v>4291800</v>
@@ -2408,25 +2408,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>643500</v>
+        <v>667800</v>
       </c>
       <c r="E62" s="3">
-        <v>644500</v>
+        <v>668800</v>
       </c>
       <c r="F62" s="3">
-        <v>634600</v>
+        <v>658500</v>
       </c>
       <c r="G62" s="3">
-        <v>626500</v>
+        <v>650000</v>
       </c>
       <c r="H62" s="3">
-        <v>688900</v>
+        <v>714800</v>
       </c>
       <c r="I62" s="3">
-        <v>583200</v>
+        <v>605200</v>
       </c>
       <c r="J62" s="3">
-        <v>595700</v>
+        <v>618100</v>
       </c>
       <c r="K62" s="3">
         <v>649800</v>
@@ -2548,25 +2548,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13867800</v>
+        <v>14390000</v>
       </c>
       <c r="E66" s="3">
-        <v>13537900</v>
+        <v>14047700</v>
       </c>
       <c r="F66" s="3">
-        <v>14334800</v>
+        <v>14874600</v>
       </c>
       <c r="G66" s="3">
-        <v>14443200</v>
+        <v>14987000</v>
       </c>
       <c r="H66" s="3">
-        <v>14180600</v>
+        <v>14714600</v>
       </c>
       <c r="I66" s="3">
-        <v>13872100</v>
+        <v>14394500</v>
       </c>
       <c r="J66" s="3">
-        <v>14221900</v>
+        <v>14757400</v>
       </c>
       <c r="K66" s="3">
         <v>13139500</v>
@@ -2741,19 +2741,19 @@
         <v>16</v>
       </c>
       <c r="E72" s="3">
-        <v>3280400</v>
+        <v>3403900</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="3">
-        <v>2888400</v>
+        <v>2997100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I72" s="3">
-        <v>2299100</v>
+        <v>2385700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>16</v>
@@ -2878,25 +2878,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13662500</v>
+        <v>14176900</v>
       </c>
       <c r="E76" s="3">
-        <v>14477700</v>
+        <v>15022900</v>
       </c>
       <c r="F76" s="3">
-        <v>14088700</v>
+        <v>14619100</v>
       </c>
       <c r="G76" s="3">
-        <v>12887100</v>
+        <v>13372300</v>
       </c>
       <c r="H76" s="3">
-        <v>12863400</v>
+        <v>13347800</v>
       </c>
       <c r="I76" s="3">
-        <v>12136600</v>
+        <v>12593600</v>
       </c>
       <c r="J76" s="3">
-        <v>12282300</v>
+        <v>12744800</v>
       </c>
       <c r="K76" s="3">
         <v>12778800</v>
@@ -2988,25 +2988,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-749200</v>
+        <v>-777400</v>
       </c>
       <c r="E81" s="3">
-        <v>281000</v>
+        <v>291600</v>
       </c>
       <c r="F81" s="3">
-        <v>111000</v>
+        <v>115200</v>
       </c>
       <c r="G81" s="3">
-        <v>-56400</v>
+        <v>-58500</v>
       </c>
       <c r="H81" s="3">
-        <v>645600</v>
+        <v>669900</v>
       </c>
       <c r="I81" s="3">
-        <v>-166600</v>
+        <v>-172800</v>
       </c>
       <c r="J81" s="3">
-        <v>-159400</v>
+        <v>-165400</v>
       </c>
       <c r="K81" s="3">
         <v>341600</v>

--- a/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>TCOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>687100</v>
+        <v>480500</v>
       </c>
       <c r="E8" s="3">
-        <v>1210500</v>
+        <v>719700</v>
       </c>
       <c r="F8" s="3">
-        <v>1521400</v>
+        <v>1267900</v>
       </c>
       <c r="G8" s="3">
-        <v>1262200</v>
+        <v>1593600</v>
       </c>
       <c r="H8" s="3">
-        <v>1185700</v>
+        <v>1322100</v>
       </c>
       <c r="I8" s="3">
-        <v>1097900</v>
+        <v>1241900</v>
       </c>
       <c r="J8" s="3">
+        <v>1150000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1358600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1050100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>965800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>885700</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>177200</v>
+        <v>132600</v>
       </c>
       <c r="E9" s="3">
-        <v>251000</v>
+        <v>185600</v>
       </c>
       <c r="F9" s="3">
-        <v>313300</v>
+        <v>262900</v>
       </c>
       <c r="G9" s="3">
-        <v>261100</v>
+        <v>328100</v>
       </c>
       <c r="H9" s="3">
-        <v>245300</v>
+        <v>273500</v>
       </c>
       <c r="I9" s="3">
-        <v>235300</v>
+        <v>256900</v>
       </c>
       <c r="J9" s="3">
+        <v>246400</v>
+      </c>
+      <c r="K9" s="3">
         <v>289200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>210800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>178500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>152200</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>509900</v>
+        <v>347900</v>
       </c>
       <c r="E10" s="3">
-        <v>959500</v>
+        <v>534100</v>
       </c>
       <c r="F10" s="3">
-        <v>1208200</v>
+        <v>1005100</v>
       </c>
       <c r="G10" s="3">
-        <v>1001100</v>
+        <v>1265500</v>
       </c>
       <c r="H10" s="3">
-        <v>940400</v>
+        <v>1048600</v>
       </c>
       <c r="I10" s="3">
-        <v>862700</v>
+        <v>985000</v>
       </c>
       <c r="J10" s="3">
+        <v>903600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1069500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>839400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>787300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>246300</v>
+        <v>274000</v>
       </c>
       <c r="E12" s="3">
-        <v>391200</v>
+        <v>258000</v>
       </c>
       <c r="F12" s="3">
-        <v>405200</v>
+        <v>409800</v>
       </c>
       <c r="G12" s="3">
-        <v>383700</v>
+        <v>424400</v>
       </c>
       <c r="H12" s="3">
-        <v>369500</v>
+        <v>401900</v>
       </c>
       <c r="I12" s="3">
-        <v>394700</v>
+        <v>387000</v>
       </c>
       <c r="J12" s="3">
+        <v>413500</v>
+      </c>
+      <c r="K12" s="3">
         <v>361800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>323000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>309900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>906200</v>
+        <v>585200</v>
       </c>
       <c r="E17" s="3">
-        <v>1126300</v>
+        <v>949200</v>
       </c>
       <c r="F17" s="3">
-        <v>1195800</v>
+        <v>1179700</v>
       </c>
       <c r="G17" s="3">
-        <v>1068600</v>
+        <v>1252600</v>
       </c>
       <c r="H17" s="3">
-        <v>1057100</v>
+        <v>1119300</v>
       </c>
       <c r="I17" s="3">
-        <v>1125400</v>
+        <v>1107300</v>
       </c>
       <c r="J17" s="3">
+        <v>1178800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1143700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>946300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>881100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>842200</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-219200</v>
+        <v>-104700</v>
       </c>
       <c r="E18" s="3">
-        <v>84200</v>
+        <v>-229500</v>
       </c>
       <c r="F18" s="3">
-        <v>325600</v>
+        <v>88200</v>
       </c>
       <c r="G18" s="3">
-        <v>193600</v>
+        <v>341100</v>
       </c>
       <c r="H18" s="3">
-        <v>128500</v>
+        <v>202800</v>
       </c>
       <c r="I18" s="3">
-        <v>-27400</v>
+        <v>134600</v>
       </c>
       <c r="J18" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="K18" s="3">
         <v>214900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>103900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>84700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1077,43 +1110,47 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-481300</v>
+        <v>360400</v>
       </c>
       <c r="E20" s="3">
-        <v>335600</v>
+        <v>-504100</v>
       </c>
       <c r="F20" s="3">
-        <v>-122000</v>
+        <v>351500</v>
       </c>
       <c r="G20" s="3">
-        <v>-123400</v>
+        <v>-127800</v>
       </c>
       <c r="H20" s="3">
-        <v>741100</v>
+        <v>-129300</v>
       </c>
       <c r="I20" s="3">
-        <v>-76800</v>
+        <v>776300</v>
       </c>
       <c r="J20" s="3">
+        <v>-80500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-305600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>370200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>125800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>96600</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1147,113 +1184,125 @@
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>65100</v>
+        <v>70100</v>
       </c>
       <c r="E22" s="3">
-        <v>56200</v>
+        <v>68100</v>
       </c>
       <c r="F22" s="3">
-        <v>61400</v>
+        <v>58900</v>
       </c>
       <c r="G22" s="3">
-        <v>61900</v>
+        <v>64300</v>
       </c>
       <c r="H22" s="3">
-        <v>64000</v>
+        <v>64800</v>
       </c>
       <c r="I22" s="3">
-        <v>61300</v>
+        <v>67100</v>
       </c>
       <c r="J22" s="3">
+        <v>64200</v>
+      </c>
+      <c r="K22" s="3">
         <v>57100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>53200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>46200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-765500</v>
+        <v>185600</v>
       </c>
       <c r="E23" s="3">
-        <v>363700</v>
+        <v>-801800</v>
       </c>
       <c r="F23" s="3">
-        <v>142200</v>
+        <v>380900</v>
       </c>
       <c r="G23" s="3">
-        <v>8300</v>
+        <v>148900</v>
       </c>
       <c r="H23" s="3">
-        <v>805600</v>
+        <v>8700</v>
       </c>
       <c r="I23" s="3">
-        <v>-165600</v>
+        <v>843800</v>
       </c>
       <c r="J23" s="3">
+        <v>-173400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-147700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>420800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>164300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>93500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-36900</v>
+        <v>30600</v>
       </c>
       <c r="E24" s="3">
-        <v>52900</v>
+        <v>-38600</v>
       </c>
       <c r="F24" s="3">
-        <v>53000</v>
+        <v>55400</v>
       </c>
       <c r="G24" s="3">
-        <v>48800</v>
+        <v>55500</v>
       </c>
       <c r="H24" s="3">
-        <v>98300</v>
+        <v>51100</v>
       </c>
       <c r="I24" s="3">
-        <v>5100</v>
+        <v>103000</v>
       </c>
       <c r="J24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K24" s="3">
         <v>37300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>46200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-728600</v>
+        <v>155000</v>
       </c>
       <c r="E26" s="3">
-        <v>310800</v>
+        <v>-763200</v>
       </c>
       <c r="F26" s="3">
-        <v>89200</v>
+        <v>325500</v>
       </c>
       <c r="G26" s="3">
-        <v>-40500</v>
+        <v>93400</v>
       </c>
       <c r="H26" s="3">
-        <v>707300</v>
+        <v>-42400</v>
       </c>
       <c r="I26" s="3">
-        <v>-170600</v>
+        <v>740800</v>
       </c>
       <c r="J26" s="3">
+        <v>-178700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-185000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>374600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>138600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-777400</v>
+        <v>-72400</v>
       </c>
       <c r="E27" s="3">
-        <v>291600</v>
+        <v>-814300</v>
       </c>
       <c r="F27" s="3">
-        <v>115200</v>
+        <v>305500</v>
       </c>
       <c r="G27" s="3">
-        <v>-58500</v>
+        <v>120600</v>
       </c>
       <c r="H27" s="3">
-        <v>669900</v>
+        <v>-61300</v>
       </c>
       <c r="I27" s="3">
-        <v>-172800</v>
+        <v>701700</v>
       </c>
       <c r="J27" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-165400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>341600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>152100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>481300</v>
+        <v>-360400</v>
       </c>
       <c r="E32" s="3">
-        <v>-335600</v>
+        <v>504100</v>
       </c>
       <c r="F32" s="3">
-        <v>122000</v>
+        <v>-351500</v>
       </c>
       <c r="G32" s="3">
-        <v>123400</v>
+        <v>127800</v>
       </c>
       <c r="H32" s="3">
-        <v>-741100</v>
+        <v>129300</v>
       </c>
       <c r="I32" s="3">
-        <v>76800</v>
+        <v>-776300</v>
       </c>
       <c r="J32" s="3">
+        <v>80500</v>
+      </c>
+      <c r="K32" s="3">
         <v>305600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-370200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-125800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-96600</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-777400</v>
+        <v>-72400</v>
       </c>
       <c r="E33" s="3">
-        <v>291600</v>
+        <v>-814300</v>
       </c>
       <c r="F33" s="3">
-        <v>115200</v>
+        <v>305500</v>
       </c>
       <c r="G33" s="3">
-        <v>-58500</v>
+        <v>120600</v>
       </c>
       <c r="H33" s="3">
-        <v>669900</v>
+        <v>-61300</v>
       </c>
       <c r="I33" s="3">
-        <v>-172800</v>
+        <v>701700</v>
       </c>
       <c r="J33" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-165400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>341600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>152100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-777400</v>
+        <v>-72400</v>
       </c>
       <c r="E35" s="3">
-        <v>291600</v>
+        <v>-814300</v>
       </c>
       <c r="F35" s="3">
-        <v>115200</v>
+        <v>305500</v>
       </c>
       <c r="G35" s="3">
-        <v>-58500</v>
+        <v>120600</v>
       </c>
       <c r="H35" s="3">
-        <v>669900</v>
+        <v>-61300</v>
       </c>
       <c r="I35" s="3">
-        <v>-172800</v>
+        <v>701700</v>
       </c>
       <c r="J35" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-165400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>341600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>152100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,113 +1793,123 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3499000</v>
+        <v>2874500</v>
       </c>
       <c r="E41" s="3">
-        <v>2893400</v>
+        <v>3665000</v>
       </c>
       <c r="F41" s="3">
-        <v>2662100</v>
+        <v>3030700</v>
       </c>
       <c r="G41" s="3">
-        <v>3340600</v>
+        <v>2788400</v>
       </c>
       <c r="H41" s="3">
-        <v>3297900</v>
+        <v>3499100</v>
       </c>
       <c r="I41" s="3">
-        <v>3126800</v>
+        <v>3454300</v>
       </c>
       <c r="J41" s="3">
+        <v>3275100</v>
+      </c>
+      <c r="K41" s="3">
         <v>3121000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3162400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2475500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2617500</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3641400</v>
+        <v>3633500</v>
       </c>
       <c r="E42" s="3">
-        <v>3348700</v>
+        <v>3814100</v>
       </c>
       <c r="F42" s="3">
-        <v>3786000</v>
+        <v>3507600</v>
       </c>
       <c r="G42" s="3">
-        <v>4785200</v>
+        <v>3965600</v>
       </c>
       <c r="H42" s="3">
-        <v>4894700</v>
+        <v>5012200</v>
       </c>
       <c r="I42" s="3">
-        <v>5337600</v>
+        <v>5126900</v>
       </c>
       <c r="J42" s="3">
+        <v>5590900</v>
+      </c>
+      <c r="K42" s="3">
         <v>5488700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4760400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4896000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4036100</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>740400</v>
+        <v>780200</v>
       </c>
       <c r="E43" s="3">
-        <v>1516200</v>
+        <v>775500</v>
       </c>
       <c r="F43" s="3">
-        <v>1349900</v>
+        <v>1588100</v>
       </c>
       <c r="G43" s="3">
-        <v>1499500</v>
+        <v>1414000</v>
       </c>
       <c r="H43" s="3">
-        <v>887100</v>
+        <v>1570600</v>
       </c>
       <c r="I43" s="3">
-        <v>1061600</v>
+        <v>929100</v>
       </c>
       <c r="J43" s="3">
+        <v>1112000</v>
+      </c>
+      <c r="K43" s="3">
         <v>987100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>898300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>742900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>735000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,183 +1943,201 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1508100</v>
+        <v>2370500</v>
       </c>
       <c r="E45" s="3">
-        <v>2110800</v>
+        <v>1579600</v>
       </c>
       <c r="F45" s="3">
-        <v>3178200</v>
+        <v>2210900</v>
       </c>
       <c r="G45" s="3">
-        <v>2017100</v>
+        <v>3329000</v>
       </c>
       <c r="H45" s="3">
-        <v>2444200</v>
+        <v>2112800</v>
       </c>
       <c r="I45" s="3">
-        <v>2004300</v>
+        <v>2560200</v>
       </c>
       <c r="J45" s="3">
+        <v>2099400</v>
+      </c>
+      <c r="K45" s="3">
         <v>2669900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1838400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1190300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9388800</v>
+        <v>9658700</v>
       </c>
       <c r="E46" s="3">
-        <v>9869100</v>
+        <v>9834300</v>
       </c>
       <c r="F46" s="3">
-        <v>10976200</v>
+        <v>10337300</v>
       </c>
       <c r="G46" s="3">
-        <v>11642400</v>
+        <v>11496900</v>
       </c>
       <c r="H46" s="3">
-        <v>11523900</v>
+        <v>12194700</v>
       </c>
       <c r="I46" s="3">
-        <v>11530400</v>
+        <v>12070600</v>
       </c>
       <c r="J46" s="3">
+        <v>12077400</v>
+      </c>
+      <c r="K46" s="3">
         <v>12266700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10659600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9514900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8525300</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7458000</v>
+        <v>8162600</v>
       </c>
       <c r="E47" s="3">
-        <v>7453800</v>
+        <v>7811800</v>
       </c>
       <c r="F47" s="3">
-        <v>6923500</v>
+        <v>7807400</v>
       </c>
       <c r="G47" s="3">
-        <v>5086400</v>
+        <v>7252000</v>
       </c>
       <c r="H47" s="3">
-        <v>4976600</v>
+        <v>5327700</v>
       </c>
       <c r="I47" s="3">
-        <v>3936200</v>
+        <v>5212700</v>
       </c>
       <c r="J47" s="3">
+        <v>4122900</v>
+      </c>
+      <c r="K47" s="3">
         <v>3724400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3907000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3652100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3737400</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1054700</v>
+        <v>1031400</v>
       </c>
       <c r="E48" s="3">
-        <v>1066300</v>
+        <v>1104700</v>
       </c>
       <c r="F48" s="3">
-        <v>1012400</v>
+        <v>1116900</v>
       </c>
       <c r="G48" s="3">
-        <v>1007500</v>
+        <v>1060400</v>
       </c>
       <c r="H48" s="3">
-        <v>968000</v>
+        <v>1055300</v>
       </c>
       <c r="I48" s="3">
-        <v>852800</v>
+        <v>1013900</v>
       </c>
       <c r="J48" s="3">
+        <v>893200</v>
+      </c>
+      <c r="K48" s="3">
         <v>847700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>835300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>830000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>805800</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10379000</v>
+        <v>11051700</v>
       </c>
       <c r="E49" s="3">
-        <v>10394400</v>
+        <v>10871400</v>
       </c>
       <c r="F49" s="3">
-        <v>10353200</v>
+        <v>10887500</v>
       </c>
       <c r="G49" s="3">
-        <v>10369600</v>
+        <v>10844300</v>
       </c>
       <c r="H49" s="3">
-        <v>10386100</v>
+        <v>10861500</v>
       </c>
       <c r="I49" s="3">
-        <v>10433800</v>
+        <v>10878900</v>
       </c>
       <c r="J49" s="3">
+        <v>10928800</v>
+      </c>
+      <c r="K49" s="3">
         <v>10452200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10276000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10086500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10056900</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>286400</v>
+        <v>290700</v>
       </c>
       <c r="E52" s="3">
-        <v>287000</v>
+        <v>300000</v>
       </c>
       <c r="F52" s="3">
-        <v>228400</v>
+        <v>300600</v>
       </c>
       <c r="G52" s="3">
-        <v>253600</v>
+        <v>239300</v>
       </c>
       <c r="H52" s="3">
-        <v>207800</v>
+        <v>265600</v>
       </c>
       <c r="I52" s="3">
-        <v>235000</v>
+        <v>217700</v>
       </c>
       <c r="J52" s="3">
+        <v>246100</v>
+      </c>
+      <c r="K52" s="3">
         <v>211200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>240300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>190500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>186800</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28566900</v>
+        <v>30195100</v>
       </c>
       <c r="E54" s="3">
-        <v>29070500</v>
+        <v>29922200</v>
       </c>
       <c r="F54" s="3">
-        <v>29493700</v>
+        <v>30449700</v>
       </c>
       <c r="G54" s="3">
-        <v>28359400</v>
+        <v>30893000</v>
       </c>
       <c r="H54" s="3">
-        <v>28062400</v>
+        <v>29704800</v>
       </c>
       <c r="I54" s="3">
-        <v>26988100</v>
+        <v>29393700</v>
       </c>
       <c r="J54" s="3">
+        <v>28268500</v>
+      </c>
+      <c r="K54" s="3">
         <v>27502200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25918200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24274100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23278200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,218 +2357,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>715800</v>
+        <v>681200</v>
       </c>
       <c r="E57" s="3">
-        <v>1785500</v>
+        <v>749800</v>
       </c>
       <c r="F57" s="3">
-        <v>1944000</v>
+        <v>1870200</v>
       </c>
       <c r="G57" s="3">
-        <v>1877100</v>
+        <v>2036300</v>
       </c>
       <c r="H57" s="3">
-        <v>1593000</v>
+        <v>1966200</v>
       </c>
       <c r="I57" s="3">
-        <v>1701200</v>
+        <v>1668600</v>
       </c>
       <c r="J57" s="3">
+        <v>1781900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1975000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1593800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1351000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1070200</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5864700</v>
+        <v>6403800</v>
       </c>
       <c r="E58" s="3">
-        <v>4431800</v>
+        <v>6142900</v>
       </c>
       <c r="F58" s="3">
-        <v>5337300</v>
+        <v>4642100</v>
       </c>
       <c r="G58" s="3">
-        <v>5473700</v>
+        <v>5590600</v>
       </c>
       <c r="H58" s="3">
-        <v>5507700</v>
+        <v>5733400</v>
       </c>
       <c r="I58" s="3">
-        <v>5229900</v>
+        <v>5769000</v>
       </c>
       <c r="J58" s="3">
+        <v>5478000</v>
+      </c>
+      <c r="K58" s="3">
         <v>5232100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3509800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2952200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2341000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3266100</v>
+        <v>3039700</v>
       </c>
       <c r="E59" s="3">
-        <v>3830000</v>
+        <v>3421000</v>
       </c>
       <c r="F59" s="3">
-        <v>3482800</v>
+        <v>4011700</v>
       </c>
       <c r="G59" s="3">
-        <v>3487600</v>
+        <v>3648000</v>
       </c>
       <c r="H59" s="3">
-        <v>2993500</v>
+        <v>3653000</v>
       </c>
       <c r="I59" s="3">
-        <v>3058400</v>
+        <v>3135500</v>
       </c>
       <c r="J59" s="3">
+        <v>3203500</v>
+      </c>
+      <c r="K59" s="3">
         <v>2823300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2821200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2478900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2698200</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9846600</v>
+        <v>10124700</v>
       </c>
       <c r="E60" s="3">
-        <v>10047300</v>
+        <v>10313700</v>
       </c>
       <c r="F60" s="3">
-        <v>10764200</v>
+        <v>10524000</v>
       </c>
       <c r="G60" s="3">
-        <v>10838400</v>
+        <v>11274800</v>
       </c>
       <c r="H60" s="3">
-        <v>10094200</v>
+        <v>11352600</v>
       </c>
       <c r="I60" s="3">
-        <v>9989500</v>
+        <v>10573100</v>
       </c>
       <c r="J60" s="3">
+        <v>10463400</v>
+      </c>
+      <c r="K60" s="3">
         <v>10030300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7924800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6782200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6049400</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3382700</v>
+        <v>4269600</v>
       </c>
       <c r="E61" s="3">
-        <v>2837400</v>
+        <v>3543200</v>
       </c>
       <c r="F61" s="3">
-        <v>2991700</v>
+        <v>2972000</v>
       </c>
       <c r="G61" s="3">
-        <v>3147600</v>
+        <v>3133700</v>
       </c>
       <c r="H61" s="3">
-        <v>3553100</v>
+        <v>3296900</v>
       </c>
       <c r="I61" s="3">
-        <v>3506700</v>
+        <v>3721600</v>
       </c>
       <c r="J61" s="3">
+        <v>3673100</v>
+      </c>
+      <c r="K61" s="3">
         <v>3785000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4291800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4171300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4192500</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>667800</v>
+        <v>655500</v>
       </c>
       <c r="E62" s="3">
-        <v>668800</v>
+        <v>699400</v>
       </c>
       <c r="F62" s="3">
-        <v>658500</v>
+        <v>700500</v>
       </c>
       <c r="G62" s="3">
-        <v>650000</v>
+        <v>689700</v>
       </c>
       <c r="H62" s="3">
-        <v>714800</v>
+        <v>680900</v>
       </c>
       <c r="I62" s="3">
-        <v>605200</v>
+        <v>748700</v>
       </c>
       <c r="J62" s="3">
+        <v>633900</v>
+      </c>
+      <c r="K62" s="3">
         <v>618100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>649800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>592000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>608800</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14390000</v>
+        <v>15358900</v>
       </c>
       <c r="E66" s="3">
-        <v>14047700</v>
+        <v>15072700</v>
       </c>
       <c r="F66" s="3">
-        <v>14874600</v>
+        <v>14714100</v>
       </c>
       <c r="G66" s="3">
-        <v>14987000</v>
+        <v>15580300</v>
       </c>
       <c r="H66" s="3">
-        <v>14714600</v>
+        <v>15698000</v>
       </c>
       <c r="I66" s="3">
-        <v>14394500</v>
+        <v>15412600</v>
       </c>
       <c r="J66" s="3">
+        <v>15077400</v>
+      </c>
+      <c r="K66" s="3">
         <v>14757400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13139500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11814400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11105900</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="3">
-        <v>3403900</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G72" s="3">
-        <v>2997100</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="F72" s="3">
+        <v>3565400</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="3">
-        <v>2385700</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="H72" s="3">
+        <v>3139300</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2498900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="3">
         <v>2379000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2227000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14176900</v>
+        <v>14836100</v>
       </c>
       <c r="E76" s="3">
-        <v>15022900</v>
+        <v>14849500</v>
       </c>
       <c r="F76" s="3">
-        <v>14619100</v>
+        <v>15735600</v>
       </c>
       <c r="G76" s="3">
-        <v>13372300</v>
+        <v>15312700</v>
       </c>
       <c r="H76" s="3">
-        <v>13347800</v>
+        <v>14006800</v>
       </c>
       <c r="I76" s="3">
-        <v>12593600</v>
+        <v>13981000</v>
       </c>
       <c r="J76" s="3">
+        <v>13191100</v>
+      </c>
+      <c r="K76" s="3">
         <v>12744800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12778800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12459700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12172300</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-777400</v>
+        <v>-72400</v>
       </c>
       <c r="E81" s="3">
-        <v>291600</v>
+        <v>-814300</v>
       </c>
       <c r="F81" s="3">
-        <v>115200</v>
+        <v>305500</v>
       </c>
       <c r="G81" s="3">
-        <v>-58500</v>
+        <v>120600</v>
       </c>
       <c r="H81" s="3">
-        <v>669900</v>
+        <v>-61300</v>
       </c>
       <c r="I81" s="3">
-        <v>-172800</v>
+        <v>701700</v>
       </c>
       <c r="J81" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-165400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>341600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>152100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3456,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3277,8 +3494,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3830,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3622,8 +3868,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +3906,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3690,6 +3942,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>TCOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>480500</v>
+        <v>758400</v>
       </c>
       <c r="E8" s="3">
-        <v>719700</v>
+        <v>834500</v>
       </c>
       <c r="F8" s="3">
-        <v>1267900</v>
+        <v>482600</v>
       </c>
       <c r="G8" s="3">
-        <v>1593600</v>
+        <v>722800</v>
       </c>
       <c r="H8" s="3">
-        <v>1322100</v>
+        <v>1273400</v>
       </c>
       <c r="I8" s="3">
+        <v>1600500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1327800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1241900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1150000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1358600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1050100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>965800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>885700</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>132600</v>
+        <v>139000</v>
       </c>
       <c r="E9" s="3">
-        <v>185600</v>
+        <v>157200</v>
       </c>
       <c r="F9" s="3">
-        <v>262900</v>
+        <v>133200</v>
       </c>
       <c r="G9" s="3">
-        <v>328100</v>
+        <v>186400</v>
       </c>
       <c r="H9" s="3">
-        <v>273500</v>
+        <v>264000</v>
       </c>
       <c r="I9" s="3">
+        <v>329500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>274700</v>
+      </c>
+      <c r="K9" s="3">
         <v>256900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>246400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>289200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>210800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>178500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>152200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>347900</v>
+        <v>619400</v>
       </c>
       <c r="E10" s="3">
-        <v>534100</v>
+        <v>677300</v>
       </c>
       <c r="F10" s="3">
-        <v>1005100</v>
+        <v>349400</v>
       </c>
       <c r="G10" s="3">
-        <v>1265500</v>
+        <v>536400</v>
       </c>
       <c r="H10" s="3">
-        <v>1048600</v>
+        <v>1009400</v>
       </c>
       <c r="I10" s="3">
+        <v>1271000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1053100</v>
+      </c>
+      <c r="K10" s="3">
         <v>985000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>903600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1069500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>839400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>787300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +879,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>274000</v>
+        <v>330300</v>
       </c>
       <c r="E12" s="3">
-        <v>258000</v>
+        <v>306800</v>
       </c>
       <c r="F12" s="3">
-        <v>409800</v>
+        <v>275200</v>
       </c>
       <c r="G12" s="3">
-        <v>424400</v>
+        <v>259100</v>
       </c>
       <c r="H12" s="3">
-        <v>401900</v>
+        <v>411600</v>
       </c>
       <c r="I12" s="3">
+        <v>426300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>403600</v>
+      </c>
+      <c r="K12" s="3">
         <v>387000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>413500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>361800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>323000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>309900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>585200</v>
+        <v>760800</v>
       </c>
       <c r="E17" s="3">
-        <v>949200</v>
+        <v>713800</v>
       </c>
       <c r="F17" s="3">
-        <v>1179700</v>
+        <v>587700</v>
       </c>
       <c r="G17" s="3">
-        <v>1252600</v>
+        <v>953300</v>
       </c>
       <c r="H17" s="3">
-        <v>1119300</v>
+        <v>1184800</v>
       </c>
       <c r="I17" s="3">
+        <v>1258000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1124200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1107300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1178800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1143700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>946300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>881100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>842200</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-104700</v>
+        <v>-2400</v>
       </c>
       <c r="E18" s="3">
-        <v>-229500</v>
+        <v>120700</v>
       </c>
       <c r="F18" s="3">
-        <v>88200</v>
+        <v>-105100</v>
       </c>
       <c r="G18" s="3">
-        <v>341100</v>
+        <v>-230500</v>
       </c>
       <c r="H18" s="3">
-        <v>202800</v>
+        <v>88600</v>
       </c>
       <c r="I18" s="3">
+        <v>342500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>203700</v>
+      </c>
+      <c r="K18" s="3">
         <v>134600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-28800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>214900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>103900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>84700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1111,46 +1176,54 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>360400</v>
+        <v>183000</v>
       </c>
       <c r="E20" s="3">
-        <v>-504100</v>
+        <v>253800</v>
       </c>
       <c r="F20" s="3">
-        <v>351500</v>
+        <v>361900</v>
       </c>
       <c r="G20" s="3">
-        <v>-127800</v>
+        <v>-506300</v>
       </c>
       <c r="H20" s="3">
-        <v>-129300</v>
+        <v>353100</v>
       </c>
       <c r="I20" s="3">
+        <v>-128300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-129900</v>
+      </c>
+      <c r="K20" s="3">
         <v>776300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-80500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-305600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>370200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>125800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>96600</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,122 +1260,146 @@
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>70100</v>
+        <v>57600</v>
       </c>
       <c r="E22" s="3">
-        <v>68100</v>
+        <v>65700</v>
       </c>
       <c r="F22" s="3">
-        <v>58900</v>
+        <v>70400</v>
       </c>
       <c r="G22" s="3">
-        <v>64300</v>
+        <v>68400</v>
       </c>
       <c r="H22" s="3">
-        <v>64800</v>
+        <v>59100</v>
       </c>
       <c r="I22" s="3">
+        <v>64600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>65100</v>
+      </c>
+      <c r="K22" s="3">
         <v>67100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>64200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>57100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>53200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>46200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>185600</v>
+        <v>123000</v>
       </c>
       <c r="E23" s="3">
-        <v>-801800</v>
+        <v>308800</v>
       </c>
       <c r="F23" s="3">
-        <v>380900</v>
+        <v>186400</v>
       </c>
       <c r="G23" s="3">
-        <v>148900</v>
+        <v>-805300</v>
       </c>
       <c r="H23" s="3">
+        <v>382600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>149600</v>
+      </c>
+      <c r="J23" s="3">
         <v>8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>843800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-173400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-147700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>420800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>164300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>93500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>30600</v>
+        <v>24900</v>
       </c>
       <c r="E24" s="3">
-        <v>-38600</v>
+        <v>37400</v>
       </c>
       <c r="F24" s="3">
-        <v>55400</v>
+        <v>30700</v>
       </c>
       <c r="G24" s="3">
-        <v>55500</v>
+        <v>-38800</v>
       </c>
       <c r="H24" s="3">
-        <v>51100</v>
+        <v>55600</v>
       </c>
       <c r="I24" s="3">
+        <v>55800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>51300</v>
+      </c>
+      <c r="K24" s="3">
         <v>103000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>37300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>46200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>25700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>155000</v>
+        <v>98100</v>
       </c>
       <c r="E26" s="3">
-        <v>-763200</v>
+        <v>271300</v>
       </c>
       <c r="F26" s="3">
-        <v>325500</v>
+        <v>155700</v>
       </c>
       <c r="G26" s="3">
-        <v>93400</v>
+        <v>-766500</v>
       </c>
       <c r="H26" s="3">
-        <v>-42400</v>
+        <v>326900</v>
       </c>
       <c r="I26" s="3">
+        <v>93800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="K26" s="3">
         <v>740800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-178700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-185000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>374600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>138600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-72400</v>
+        <v>153400</v>
       </c>
       <c r="E27" s="3">
-        <v>-814300</v>
+        <v>241100</v>
       </c>
       <c r="F27" s="3">
-        <v>305500</v>
+        <v>-72700</v>
       </c>
       <c r="G27" s="3">
-        <v>120600</v>
+        <v>-817800</v>
       </c>
       <c r="H27" s="3">
-        <v>-61300</v>
+        <v>306800</v>
       </c>
       <c r="I27" s="3">
+        <v>121200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="K27" s="3">
         <v>701700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-181000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-165400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>341600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>152100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-360400</v>
+        <v>-183000</v>
       </c>
       <c r="E32" s="3">
-        <v>504100</v>
+        <v>-253800</v>
       </c>
       <c r="F32" s="3">
-        <v>-351500</v>
+        <v>-361900</v>
       </c>
       <c r="G32" s="3">
-        <v>127800</v>
+        <v>506300</v>
       </c>
       <c r="H32" s="3">
-        <v>129300</v>
+        <v>-353100</v>
       </c>
       <c r="I32" s="3">
+        <v>128300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>129900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-776300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>80500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>305600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-370200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-125800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-96600</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-72400</v>
+        <v>153400</v>
       </c>
       <c r="E33" s="3">
-        <v>-814300</v>
+        <v>241100</v>
       </c>
       <c r="F33" s="3">
-        <v>305500</v>
+        <v>-72700</v>
       </c>
       <c r="G33" s="3">
-        <v>120600</v>
+        <v>-817800</v>
       </c>
       <c r="H33" s="3">
-        <v>-61300</v>
+        <v>306800</v>
       </c>
       <c r="I33" s="3">
+        <v>121200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="K33" s="3">
         <v>701700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-181000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-165400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>341600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>152100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-72400</v>
+        <v>153400</v>
       </c>
       <c r="E35" s="3">
-        <v>-814300</v>
+        <v>241100</v>
       </c>
       <c r="F35" s="3">
-        <v>305500</v>
+        <v>-72700</v>
       </c>
       <c r="G35" s="3">
-        <v>120600</v>
+        <v>-817800</v>
       </c>
       <c r="H35" s="3">
-        <v>-61300</v>
+        <v>306800</v>
       </c>
       <c r="I35" s="3">
+        <v>121200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="K35" s="3">
         <v>701700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-181000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-165400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>341600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>152100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,122 +1965,142 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2874500</v>
+        <v>2764700</v>
       </c>
       <c r="E41" s="3">
-        <v>3665000</v>
+        <v>3850800</v>
       </c>
       <c r="F41" s="3">
-        <v>3030700</v>
+        <v>2886900</v>
       </c>
       <c r="G41" s="3">
-        <v>2788400</v>
+        <v>3680900</v>
       </c>
       <c r="H41" s="3">
-        <v>3499100</v>
+        <v>3043800</v>
       </c>
       <c r="I41" s="3">
+        <v>2800500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3514200</v>
+      </c>
+      <c r="K41" s="3">
         <v>3454300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3275100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3121000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3162400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2475500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2617500</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3633500</v>
+        <v>3792000</v>
       </c>
       <c r="E42" s="3">
-        <v>3814100</v>
+        <v>3395400</v>
       </c>
       <c r="F42" s="3">
-        <v>3507600</v>
+        <v>3649300</v>
       </c>
       <c r="G42" s="3">
-        <v>3965600</v>
+        <v>3830700</v>
       </c>
       <c r="H42" s="3">
-        <v>5012200</v>
+        <v>3522800</v>
       </c>
       <c r="I42" s="3">
+        <v>3982800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>5033900</v>
+      </c>
+      <c r="K42" s="3">
         <v>5126900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>5590900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>5488700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>4760400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>4896000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>4036100</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>780200</v>
+        <v>904600</v>
       </c>
       <c r="E43" s="3">
-        <v>775500</v>
+        <v>883700</v>
       </c>
       <c r="F43" s="3">
-        <v>1588100</v>
+        <v>783600</v>
       </c>
       <c r="G43" s="3">
-        <v>1414000</v>
+        <v>778900</v>
       </c>
       <c r="H43" s="3">
-        <v>1570600</v>
+        <v>1595000</v>
       </c>
       <c r="I43" s="3">
+        <v>1420100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1577500</v>
+      </c>
+      <c r="K43" s="3">
         <v>929100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1112000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>987100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>898300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>742900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>735000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,198 +2137,234 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2370500</v>
+        <v>1401600</v>
       </c>
       <c r="E45" s="3">
-        <v>1579600</v>
+        <v>1920300</v>
       </c>
       <c r="F45" s="3">
-        <v>2210900</v>
+        <v>2380800</v>
       </c>
       <c r="G45" s="3">
-        <v>3329000</v>
+        <v>1586500</v>
       </c>
       <c r="H45" s="3">
-        <v>2112800</v>
+        <v>2220500</v>
       </c>
       <c r="I45" s="3">
+        <v>3343400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2122000</v>
+      </c>
+      <c r="K45" s="3">
         <v>2560200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2099400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2669900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1838400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1400500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1190300</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9658700</v>
+        <v>8862900</v>
       </c>
       <c r="E46" s="3">
-        <v>9834300</v>
+        <v>10050200</v>
       </c>
       <c r="F46" s="3">
-        <v>10337300</v>
+        <v>9700600</v>
       </c>
       <c r="G46" s="3">
-        <v>11496900</v>
+        <v>9876900</v>
       </c>
       <c r="H46" s="3">
-        <v>12194700</v>
+        <v>10382200</v>
       </c>
       <c r="I46" s="3">
+        <v>11546800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>12247600</v>
+      </c>
+      <c r="K46" s="3">
         <v>12070600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>12077400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>12266700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>10659600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>9514900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8525300</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8162600</v>
+        <v>7328600</v>
       </c>
       <c r="E47" s="3">
-        <v>7811800</v>
+        <v>7792200</v>
       </c>
       <c r="F47" s="3">
-        <v>7807400</v>
+        <v>8198000</v>
       </c>
       <c r="G47" s="3">
-        <v>7252000</v>
+        <v>7845700</v>
       </c>
       <c r="H47" s="3">
-        <v>5327700</v>
+        <v>7841300</v>
       </c>
       <c r="I47" s="3">
+        <v>7283500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>5350800</v>
+      </c>
+      <c r="K47" s="3">
         <v>5212700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>4122900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3724400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>3907000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3652100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>3737400</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1031400</v>
+        <v>1033900</v>
       </c>
       <c r="E48" s="3">
-        <v>1104700</v>
+        <v>1018700</v>
       </c>
       <c r="F48" s="3">
-        <v>1116900</v>
+        <v>1035800</v>
       </c>
       <c r="G48" s="3">
-        <v>1060400</v>
+        <v>1109500</v>
       </c>
       <c r="H48" s="3">
-        <v>1055300</v>
+        <v>1121700</v>
       </c>
       <c r="I48" s="3">
+        <v>1065000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1059800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1013900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>893200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>847700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>835300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>830000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>805800</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11051700</v>
+        <v>11106600</v>
       </c>
       <c r="E49" s="3">
-        <v>10871400</v>
+        <v>11141500</v>
       </c>
       <c r="F49" s="3">
-        <v>10887500</v>
+        <v>11099600</v>
       </c>
       <c r="G49" s="3">
-        <v>10844300</v>
+        <v>10918600</v>
       </c>
       <c r="H49" s="3">
-        <v>10861500</v>
+        <v>10934800</v>
       </c>
       <c r="I49" s="3">
+        <v>10891400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>10908600</v>
+      </c>
+      <c r="K49" s="3">
         <v>10878900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>10928800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>10452200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>10276000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>10086500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>10056900</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>290700</v>
+        <v>275900</v>
       </c>
       <c r="E52" s="3">
-        <v>300000</v>
+        <v>278200</v>
       </c>
       <c r="F52" s="3">
-        <v>300600</v>
+        <v>292000</v>
       </c>
       <c r="G52" s="3">
-        <v>239300</v>
+        <v>301300</v>
       </c>
       <c r="H52" s="3">
-        <v>265600</v>
+        <v>301900</v>
       </c>
       <c r="I52" s="3">
+        <v>240300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>266800</v>
+      </c>
+      <c r="K52" s="3">
         <v>217700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>246100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>211200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>240300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>190500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>186800</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30195100</v>
+        <v>28607900</v>
       </c>
       <c r="E54" s="3">
-        <v>29922200</v>
+        <v>30280800</v>
       </c>
       <c r="F54" s="3">
-        <v>30449700</v>
+        <v>30326100</v>
       </c>
       <c r="G54" s="3">
-        <v>30893000</v>
+        <v>30052000</v>
       </c>
       <c r="H54" s="3">
-        <v>29704800</v>
+        <v>30581800</v>
       </c>
       <c r="I54" s="3">
+        <v>31027000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>29833700</v>
+      </c>
+      <c r="K54" s="3">
         <v>29393700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>28268500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>27502200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>25918200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>24274100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>23278200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,236 +2617,274 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>681200</v>
+        <v>688400</v>
       </c>
       <c r="E57" s="3">
-        <v>749800</v>
+        <v>1086100</v>
       </c>
       <c r="F57" s="3">
-        <v>1870200</v>
+        <v>684100</v>
       </c>
       <c r="G57" s="3">
-        <v>2036300</v>
+        <v>753100</v>
       </c>
       <c r="H57" s="3">
-        <v>1966200</v>
+        <v>1878300</v>
       </c>
       <c r="I57" s="3">
+        <v>2045100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1974700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1668600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1781900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1975000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1593800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1351000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1070200</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6403800</v>
+        <v>5143300</v>
       </c>
       <c r="E58" s="3">
-        <v>6142900</v>
+        <v>5244600</v>
       </c>
       <c r="F58" s="3">
-        <v>4642100</v>
+        <v>6431600</v>
       </c>
       <c r="G58" s="3">
-        <v>5590600</v>
+        <v>6169600</v>
       </c>
       <c r="H58" s="3">
-        <v>5733400</v>
+        <v>4662200</v>
       </c>
       <c r="I58" s="3">
+        <v>5614800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>5758300</v>
+      </c>
+      <c r="K58" s="3">
         <v>5769000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5478000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5232100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3509800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2952200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2341000</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3039700</v>
+        <v>3085900</v>
       </c>
       <c r="E59" s="3">
-        <v>3421000</v>
+        <v>3043800</v>
       </c>
       <c r="F59" s="3">
-        <v>4011700</v>
+        <v>3052800</v>
       </c>
       <c r="G59" s="3">
-        <v>3648000</v>
+        <v>3435900</v>
       </c>
       <c r="H59" s="3">
-        <v>3653000</v>
+        <v>4029100</v>
       </c>
       <c r="I59" s="3">
+        <v>3663800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3668900</v>
+      </c>
+      <c r="K59" s="3">
         <v>3135500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3203500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2823300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2821200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2478900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2698200</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10124700</v>
+        <v>8917600</v>
       </c>
       <c r="E60" s="3">
-        <v>10313700</v>
+        <v>9374600</v>
       </c>
       <c r="F60" s="3">
-        <v>10524000</v>
+        <v>10168600</v>
       </c>
       <c r="G60" s="3">
-        <v>11274800</v>
+        <v>10358500</v>
       </c>
       <c r="H60" s="3">
-        <v>11352600</v>
+        <v>10569600</v>
       </c>
       <c r="I60" s="3">
+        <v>11323700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>11401800</v>
+      </c>
+      <c r="K60" s="3">
         <v>10573100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>10463400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>10030300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7924800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6782200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6049400</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4269600</v>
+        <v>3470900</v>
       </c>
       <c r="E61" s="3">
-        <v>3543200</v>
+        <v>4928500</v>
       </c>
       <c r="F61" s="3">
-        <v>2972000</v>
+        <v>4288100</v>
       </c>
       <c r="G61" s="3">
-        <v>3133700</v>
+        <v>3558600</v>
       </c>
       <c r="H61" s="3">
-        <v>3296900</v>
+        <v>2984900</v>
       </c>
       <c r="I61" s="3">
+        <v>3147300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3311200</v>
+      </c>
+      <c r="K61" s="3">
         <v>3721600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3673100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3785000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4291800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4171300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4192500</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>655500</v>
+        <v>702000</v>
       </c>
       <c r="E62" s="3">
-        <v>699400</v>
+        <v>656800</v>
       </c>
       <c r="F62" s="3">
-        <v>700500</v>
+        <v>658300</v>
       </c>
       <c r="G62" s="3">
-        <v>689700</v>
+        <v>702500</v>
       </c>
       <c r="H62" s="3">
-        <v>680900</v>
+        <v>703600</v>
       </c>
       <c r="I62" s="3">
+        <v>692700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>683800</v>
+      </c>
+      <c r="K62" s="3">
         <v>748700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>633900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>618100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>649800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>592000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>608800</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15358900</v>
+        <v>13275800</v>
       </c>
       <c r="E66" s="3">
-        <v>15072700</v>
+        <v>15199200</v>
       </c>
       <c r="F66" s="3">
-        <v>14714100</v>
+        <v>15425600</v>
       </c>
       <c r="G66" s="3">
-        <v>15580300</v>
+        <v>15138100</v>
       </c>
       <c r="H66" s="3">
-        <v>15698000</v>
+        <v>14778000</v>
       </c>
       <c r="I66" s="3">
+        <v>15647900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>15766100</v>
+      </c>
+      <c r="K66" s="3">
         <v>15412600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>15077400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>14757400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13139500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11814400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11105900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>16</v>
+      <c r="D72" s="3">
+        <v>3071900</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="3">
-        <v>3565400</v>
+      <c r="F72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H72" s="3">
-        <v>3139300</v>
+        <v>3580900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J72" s="3">
-        <v>2498900</v>
+        <v>3152900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="L72" s="3">
+        <v>2498900</v>
+      </c>
+      <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O72" s="3">
         <v>2379000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2227000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14836100</v>
+        <v>15332100</v>
       </c>
       <c r="E76" s="3">
-        <v>14849500</v>
+        <v>15081700</v>
       </c>
       <c r="F76" s="3">
-        <v>15735600</v>
+        <v>14900500</v>
       </c>
       <c r="G76" s="3">
-        <v>15312700</v>
+        <v>14913900</v>
       </c>
       <c r="H76" s="3">
-        <v>14006800</v>
+        <v>15803900</v>
       </c>
       <c r="I76" s="3">
+        <v>15379100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>14067500</v>
+      </c>
+      <c r="K76" s="3">
         <v>13981000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>13191100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>12744800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>12778800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>12459700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>12172300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-72400</v>
+        <v>153400</v>
       </c>
       <c r="E81" s="3">
-        <v>-814300</v>
+        <v>241100</v>
       </c>
       <c r="F81" s="3">
-        <v>305500</v>
+        <v>-72700</v>
       </c>
       <c r="G81" s="3">
-        <v>120600</v>
+        <v>-817800</v>
       </c>
       <c r="H81" s="3">
-        <v>-61300</v>
+        <v>306800</v>
       </c>
       <c r="I81" s="3">
+        <v>121200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="K81" s="3">
         <v>701700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-181000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-165400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>341600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>152100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3886,14 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3497,8 +3930,14 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3871,8 +4362,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4406,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3945,6 +4448,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>TCOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>758400</v>
+        <v>641000</v>
       </c>
       <c r="E8" s="3">
-        <v>834500</v>
+        <v>774400</v>
       </c>
       <c r="F8" s="3">
-        <v>482600</v>
+        <v>852100</v>
       </c>
       <c r="G8" s="3">
-        <v>722800</v>
+        <v>492800</v>
       </c>
       <c r="H8" s="3">
-        <v>1273400</v>
+        <v>738100</v>
       </c>
       <c r="I8" s="3">
-        <v>1600500</v>
+        <v>1300300</v>
       </c>
       <c r="J8" s="3">
+        <v>1634400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1327800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1241900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1150000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1358600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1050100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>965800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>885700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>139000</v>
+        <v>161300</v>
       </c>
       <c r="E9" s="3">
-        <v>157200</v>
+        <v>142000</v>
       </c>
       <c r="F9" s="3">
-        <v>133200</v>
+        <v>160500</v>
       </c>
       <c r="G9" s="3">
-        <v>186400</v>
+        <v>136000</v>
       </c>
       <c r="H9" s="3">
-        <v>264000</v>
+        <v>190300</v>
       </c>
       <c r="I9" s="3">
-        <v>329500</v>
+        <v>269600</v>
       </c>
       <c r="J9" s="3">
+        <v>336500</v>
+      </c>
+      <c r="K9" s="3">
         <v>274700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>256900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>246400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>289200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>210800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>178500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>152200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>619400</v>
+        <v>479700</v>
       </c>
       <c r="E10" s="3">
-        <v>677300</v>
+        <v>632500</v>
       </c>
       <c r="F10" s="3">
-        <v>349400</v>
+        <v>691600</v>
       </c>
       <c r="G10" s="3">
-        <v>536400</v>
+        <v>356800</v>
       </c>
       <c r="H10" s="3">
-        <v>1009400</v>
+        <v>547800</v>
       </c>
       <c r="I10" s="3">
-        <v>1271000</v>
+        <v>1030800</v>
       </c>
       <c r="J10" s="3">
+        <v>1297800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1053100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>985000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>903600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1069500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>839400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>787300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>330300</v>
+        <v>347100</v>
       </c>
       <c r="E12" s="3">
-        <v>306800</v>
+        <v>337300</v>
       </c>
       <c r="F12" s="3">
-        <v>275200</v>
+        <v>313300</v>
       </c>
       <c r="G12" s="3">
-        <v>259100</v>
+        <v>281000</v>
       </c>
       <c r="H12" s="3">
-        <v>411600</v>
+        <v>264600</v>
       </c>
       <c r="I12" s="3">
-        <v>426300</v>
+        <v>420300</v>
       </c>
       <c r="J12" s="3">
+        <v>435300</v>
+      </c>
+      <c r="K12" s="3">
         <v>403600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>387000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>413500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>361800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>323000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>309900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>760800</v>
+        <v>763800</v>
       </c>
       <c r="E17" s="3">
-        <v>713800</v>
+        <v>776900</v>
       </c>
       <c r="F17" s="3">
-        <v>587700</v>
+        <v>728900</v>
       </c>
       <c r="G17" s="3">
-        <v>953300</v>
+        <v>600200</v>
       </c>
       <c r="H17" s="3">
-        <v>1184800</v>
+        <v>973500</v>
       </c>
       <c r="I17" s="3">
-        <v>1258000</v>
+        <v>1209900</v>
       </c>
       <c r="J17" s="3">
+        <v>1284600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1124200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1107300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1178800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1143700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>946300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>881100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>842200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-2400</v>
+        <v>-122800</v>
       </c>
       <c r="E18" s="3">
-        <v>120700</v>
+        <v>-2500</v>
       </c>
       <c r="F18" s="3">
-        <v>-105100</v>
+        <v>123200</v>
       </c>
       <c r="G18" s="3">
-        <v>-230500</v>
+        <v>-107300</v>
       </c>
       <c r="H18" s="3">
-        <v>88600</v>
+        <v>-235400</v>
       </c>
       <c r="I18" s="3">
-        <v>342500</v>
+        <v>90500</v>
       </c>
       <c r="J18" s="3">
+        <v>349800</v>
+      </c>
+      <c r="K18" s="3">
         <v>203700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>134600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-28800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>214900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>103900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>84700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,52 +1211,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>183000</v>
+        <v>456500</v>
       </c>
       <c r="E20" s="3">
-        <v>253800</v>
+        <v>186900</v>
       </c>
       <c r="F20" s="3">
-        <v>361900</v>
+        <v>259100</v>
       </c>
       <c r="G20" s="3">
-        <v>-506300</v>
+        <v>369600</v>
       </c>
       <c r="H20" s="3">
-        <v>353100</v>
+        <v>-517000</v>
       </c>
       <c r="I20" s="3">
-        <v>-128300</v>
+        <v>360500</v>
       </c>
       <c r="J20" s="3">
+        <v>-131000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-129900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>776300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-80500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-305600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>370200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>125800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>96600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1266,140 +1303,152 @@
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>57600</v>
+        <v>63500</v>
       </c>
       <c r="E22" s="3">
-        <v>65700</v>
+        <v>58800</v>
       </c>
       <c r="F22" s="3">
-        <v>70400</v>
+        <v>67100</v>
       </c>
       <c r="G22" s="3">
-        <v>68400</v>
+        <v>71900</v>
       </c>
       <c r="H22" s="3">
-        <v>59100</v>
+        <v>69900</v>
       </c>
       <c r="I22" s="3">
-        <v>64600</v>
+        <v>60400</v>
       </c>
       <c r="J22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K22" s="3">
         <v>65100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>67100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>64200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>57100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>53200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>46200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>123000</v>
+        <v>270200</v>
       </c>
       <c r="E23" s="3">
-        <v>308800</v>
+        <v>125600</v>
       </c>
       <c r="F23" s="3">
-        <v>186400</v>
+        <v>315300</v>
       </c>
       <c r="G23" s="3">
-        <v>-805300</v>
+        <v>190300</v>
       </c>
       <c r="H23" s="3">
-        <v>382600</v>
+        <v>-822300</v>
       </c>
       <c r="I23" s="3">
-        <v>149600</v>
+        <v>390600</v>
       </c>
       <c r="J23" s="3">
+        <v>152700</v>
+      </c>
+      <c r="K23" s="3">
         <v>8700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>843800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-173400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-147700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>420800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>164300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>93500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24900</v>
+        <v>6400</v>
       </c>
       <c r="E24" s="3">
-        <v>37400</v>
+        <v>25400</v>
       </c>
       <c r="F24" s="3">
-        <v>30700</v>
+        <v>38200</v>
       </c>
       <c r="G24" s="3">
-        <v>-38800</v>
+        <v>31400</v>
       </c>
       <c r="H24" s="3">
-        <v>55600</v>
+        <v>-39600</v>
       </c>
       <c r="I24" s="3">
-        <v>55800</v>
+        <v>56800</v>
       </c>
       <c r="J24" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K24" s="3">
         <v>51300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>103000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>37300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>46200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>25700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>98100</v>
+        <v>263800</v>
       </c>
       <c r="E26" s="3">
-        <v>271300</v>
+        <v>100200</v>
       </c>
       <c r="F26" s="3">
-        <v>155700</v>
+        <v>277100</v>
       </c>
       <c r="G26" s="3">
-        <v>-766500</v>
+        <v>159000</v>
       </c>
       <c r="H26" s="3">
-        <v>326900</v>
+        <v>-782700</v>
       </c>
       <c r="I26" s="3">
-        <v>93800</v>
+        <v>333900</v>
       </c>
       <c r="J26" s="3">
+        <v>95800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-42600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>740800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-178700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-185000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>374600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>138600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>153400</v>
+        <v>277700</v>
       </c>
       <c r="E27" s="3">
-        <v>241100</v>
+        <v>156600</v>
       </c>
       <c r="F27" s="3">
-        <v>-72700</v>
+        <v>246200</v>
       </c>
       <c r="G27" s="3">
-        <v>-817800</v>
+        <v>-74300</v>
       </c>
       <c r="H27" s="3">
-        <v>306800</v>
+        <v>-835100</v>
       </c>
       <c r="I27" s="3">
-        <v>121200</v>
+        <v>313300</v>
       </c>
       <c r="J27" s="3">
+        <v>123700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-61600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>701700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-181000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-165400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>341600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>152100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-183000</v>
+        <v>-456500</v>
       </c>
       <c r="E32" s="3">
-        <v>-253800</v>
+        <v>-186900</v>
       </c>
       <c r="F32" s="3">
-        <v>-361900</v>
+        <v>-259100</v>
       </c>
       <c r="G32" s="3">
-        <v>506300</v>
+        <v>-369600</v>
       </c>
       <c r="H32" s="3">
-        <v>-353100</v>
+        <v>517000</v>
       </c>
       <c r="I32" s="3">
-        <v>128300</v>
+        <v>-360500</v>
       </c>
       <c r="J32" s="3">
+        <v>131000</v>
+      </c>
+      <c r="K32" s="3">
         <v>129900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-776300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>80500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>305600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-370200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-125800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-96600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>153400</v>
+        <v>277700</v>
       </c>
       <c r="E33" s="3">
-        <v>241100</v>
+        <v>156600</v>
       </c>
       <c r="F33" s="3">
-        <v>-72700</v>
+        <v>246200</v>
       </c>
       <c r="G33" s="3">
-        <v>-817800</v>
+        <v>-74300</v>
       </c>
       <c r="H33" s="3">
-        <v>306800</v>
+        <v>-835100</v>
       </c>
       <c r="I33" s="3">
-        <v>121200</v>
+        <v>313300</v>
       </c>
       <c r="J33" s="3">
+        <v>123700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-61600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>701700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-181000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-165400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>341600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>152100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>153400</v>
+        <v>277700</v>
       </c>
       <c r="E35" s="3">
-        <v>241100</v>
+        <v>156600</v>
       </c>
       <c r="F35" s="3">
-        <v>-72700</v>
+        <v>246200</v>
       </c>
       <c r="G35" s="3">
-        <v>-817800</v>
+        <v>-74300</v>
       </c>
       <c r="H35" s="3">
-        <v>306800</v>
+        <v>-835100</v>
       </c>
       <c r="I35" s="3">
-        <v>121200</v>
+        <v>313300</v>
       </c>
       <c r="J35" s="3">
+        <v>123700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-61600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>701700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-181000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-165400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>341600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>152100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,140 +2053,150 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2764700</v>
+        <v>3597600</v>
       </c>
       <c r="E41" s="3">
-        <v>3850800</v>
+        <v>2823200</v>
       </c>
       <c r="F41" s="3">
-        <v>2886900</v>
+        <v>3932200</v>
       </c>
       <c r="G41" s="3">
-        <v>3680900</v>
+        <v>2948000</v>
       </c>
       <c r="H41" s="3">
-        <v>3043800</v>
+        <v>3758700</v>
       </c>
       <c r="I41" s="3">
-        <v>2800500</v>
+        <v>3108200</v>
       </c>
       <c r="J41" s="3">
+        <v>2859700</v>
+      </c>
+      <c r="K41" s="3">
         <v>3514200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3454300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3275100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3121000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3162400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2475500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2617500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3792000</v>
+        <v>4786200</v>
       </c>
       <c r="E42" s="3">
-        <v>3395400</v>
+        <v>3872200</v>
       </c>
       <c r="F42" s="3">
-        <v>3649300</v>
+        <v>3467200</v>
       </c>
       <c r="G42" s="3">
-        <v>3830700</v>
+        <v>3726500</v>
       </c>
       <c r="H42" s="3">
-        <v>3522800</v>
+        <v>3911600</v>
       </c>
       <c r="I42" s="3">
-        <v>3982800</v>
+        <v>3597300</v>
       </c>
       <c r="J42" s="3">
+        <v>4067000</v>
+      </c>
+      <c r="K42" s="3">
         <v>5033900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5126900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5590900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5488700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4760400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4896000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4036100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>904600</v>
+        <v>679100</v>
       </c>
       <c r="E43" s="3">
-        <v>883700</v>
+        <v>923700</v>
       </c>
       <c r="F43" s="3">
-        <v>783600</v>
+        <v>902400</v>
       </c>
       <c r="G43" s="3">
-        <v>778900</v>
+        <v>800200</v>
       </c>
       <c r="H43" s="3">
-        <v>1595000</v>
+        <v>795300</v>
       </c>
       <c r="I43" s="3">
-        <v>1420100</v>
+        <v>1628700</v>
       </c>
       <c r="J43" s="3">
+        <v>1450100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1577500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>929100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1112000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>987100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>898300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>742900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>735000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,228 +2239,246 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1401600</v>
+        <v>1526700</v>
       </c>
       <c r="E45" s="3">
-        <v>1920300</v>
+        <v>1431200</v>
       </c>
       <c r="F45" s="3">
-        <v>2380800</v>
+        <v>1960900</v>
       </c>
       <c r="G45" s="3">
-        <v>1586500</v>
+        <v>2431100</v>
       </c>
       <c r="H45" s="3">
-        <v>2220500</v>
+        <v>1620000</v>
       </c>
       <c r="I45" s="3">
-        <v>3343400</v>
+        <v>2267400</v>
       </c>
       <c r="J45" s="3">
+        <v>3414100</v>
+      </c>
+      <c r="K45" s="3">
         <v>2122000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2560200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2099400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2669900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1838400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1400500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1190300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8862900</v>
+        <v>10589600</v>
       </c>
       <c r="E46" s="3">
-        <v>10050200</v>
+        <v>9050300</v>
       </c>
       <c r="F46" s="3">
-        <v>9700600</v>
+        <v>10262600</v>
       </c>
       <c r="G46" s="3">
-        <v>9876900</v>
+        <v>9905700</v>
       </c>
       <c r="H46" s="3">
-        <v>10382200</v>
+        <v>10085700</v>
       </c>
       <c r="I46" s="3">
-        <v>11546800</v>
+        <v>10601700</v>
       </c>
       <c r="J46" s="3">
+        <v>11790900</v>
+      </c>
+      <c r="K46" s="3">
         <v>12247600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12070600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12077400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12266700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10659600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9514900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8525300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7328600</v>
+        <v>7526900</v>
       </c>
       <c r="E47" s="3">
-        <v>7792200</v>
+        <v>7483500</v>
       </c>
       <c r="F47" s="3">
-        <v>8198000</v>
+        <v>7957000</v>
       </c>
       <c r="G47" s="3">
-        <v>7845700</v>
+        <v>8371300</v>
       </c>
       <c r="H47" s="3">
-        <v>7841300</v>
+        <v>8011600</v>
       </c>
       <c r="I47" s="3">
-        <v>7283500</v>
+        <v>8007100</v>
       </c>
       <c r="J47" s="3">
+        <v>7437500</v>
+      </c>
+      <c r="K47" s="3">
         <v>5350800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5212700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4122900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3724400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3907000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3652100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3737400</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1033900</v>
+        <v>1064100</v>
       </c>
       <c r="E48" s="3">
-        <v>1018700</v>
+        <v>1055700</v>
       </c>
       <c r="F48" s="3">
-        <v>1035800</v>
+        <v>1040300</v>
       </c>
       <c r="G48" s="3">
-        <v>1109500</v>
+        <v>1057700</v>
       </c>
       <c r="H48" s="3">
-        <v>1121700</v>
+        <v>1132900</v>
       </c>
       <c r="I48" s="3">
-        <v>1065000</v>
+        <v>1145400</v>
       </c>
       <c r="J48" s="3">
+        <v>1087500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1059800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1013900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>893200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>847700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>835300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>830000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>805800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11106600</v>
+        <v>11323700</v>
       </c>
       <c r="E49" s="3">
-        <v>11141500</v>
+        <v>11341500</v>
       </c>
       <c r="F49" s="3">
-        <v>11099600</v>
+        <v>11377000</v>
       </c>
       <c r="G49" s="3">
-        <v>10918600</v>
+        <v>11334300</v>
       </c>
       <c r="H49" s="3">
-        <v>10934800</v>
+        <v>11149400</v>
       </c>
       <c r="I49" s="3">
-        <v>10891400</v>
+        <v>11165900</v>
       </c>
       <c r="J49" s="3">
+        <v>11121600</v>
+      </c>
+      <c r="K49" s="3">
         <v>10908600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10878900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10928800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10452200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10276000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10086500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10056900</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>275900</v>
+        <v>298600</v>
       </c>
       <c r="E52" s="3">
-        <v>278200</v>
+        <v>281800</v>
       </c>
       <c r="F52" s="3">
-        <v>292000</v>
+        <v>284100</v>
       </c>
       <c r="G52" s="3">
-        <v>301300</v>
+        <v>298100</v>
       </c>
       <c r="H52" s="3">
-        <v>301900</v>
+        <v>307700</v>
       </c>
       <c r="I52" s="3">
+        <v>308300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>245400</v>
+      </c>
+      <c r="K52" s="3">
+        <v>266800</v>
+      </c>
+      <c r="L52" s="3">
+        <v>217700</v>
+      </c>
+      <c r="M52" s="3">
+        <v>246100</v>
+      </c>
+      <c r="N52" s="3">
+        <v>211200</v>
+      </c>
+      <c r="O52" s="3">
         <v>240300</v>
       </c>
-      <c r="J52" s="3">
-        <v>266800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>217700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>246100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>211200</v>
-      </c>
-      <c r="N52" s="3">
-        <v>240300</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>190500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>186800</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28607900</v>
+        <v>30802900</v>
       </c>
       <c r="E54" s="3">
-        <v>30280800</v>
+        <v>29212700</v>
       </c>
       <c r="F54" s="3">
-        <v>30326100</v>
+        <v>30921000</v>
       </c>
       <c r="G54" s="3">
-        <v>30052000</v>
+        <v>30967200</v>
       </c>
       <c r="H54" s="3">
-        <v>30581800</v>
+        <v>30687300</v>
       </c>
       <c r="I54" s="3">
-        <v>31027000</v>
+        <v>31228400</v>
       </c>
       <c r="J54" s="3">
+        <v>31683000</v>
+      </c>
+      <c r="K54" s="3">
         <v>29833700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29393700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28268500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27502200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25918200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24274100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23278200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2749,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>688400</v>
+        <v>775800</v>
       </c>
       <c r="E57" s="3">
-        <v>1086100</v>
+        <v>703000</v>
       </c>
       <c r="F57" s="3">
-        <v>684100</v>
+        <v>1109100</v>
       </c>
       <c r="G57" s="3">
-        <v>753100</v>
+        <v>698600</v>
       </c>
       <c r="H57" s="3">
-        <v>1878300</v>
+        <v>769000</v>
       </c>
       <c r="I57" s="3">
-        <v>2045100</v>
+        <v>1918000</v>
       </c>
       <c r="J57" s="3">
+        <v>2088300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1974700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1668600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1781900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1975000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1593800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1351000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1070200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5143300</v>
+        <v>6364600</v>
       </c>
       <c r="E58" s="3">
-        <v>5244600</v>
+        <v>5252100</v>
       </c>
       <c r="F58" s="3">
-        <v>6431600</v>
+        <v>5355500</v>
       </c>
       <c r="G58" s="3">
-        <v>6169600</v>
+        <v>6567600</v>
       </c>
       <c r="H58" s="3">
-        <v>4662200</v>
+        <v>6300000</v>
       </c>
       <c r="I58" s="3">
-        <v>5614800</v>
+        <v>4760800</v>
       </c>
       <c r="J58" s="3">
+        <v>5733500</v>
+      </c>
+      <c r="K58" s="3">
         <v>5758300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5769000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5478000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5232100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3509800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2952200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2341000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3085900</v>
+        <v>3099800</v>
       </c>
       <c r="E59" s="3">
-        <v>3043800</v>
+        <v>3151100</v>
       </c>
       <c r="F59" s="3">
-        <v>3052800</v>
+        <v>3108200</v>
       </c>
       <c r="G59" s="3">
-        <v>3435900</v>
+        <v>3117400</v>
       </c>
       <c r="H59" s="3">
-        <v>4029100</v>
+        <v>3508500</v>
       </c>
       <c r="I59" s="3">
-        <v>3663800</v>
+        <v>4114300</v>
       </c>
       <c r="J59" s="3">
+        <v>3741300</v>
+      </c>
+      <c r="K59" s="3">
         <v>3668900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3135500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3203500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2823300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2821200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2478900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2698200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8917600</v>
+        <v>10240200</v>
       </c>
       <c r="E60" s="3">
-        <v>9374600</v>
+        <v>9106100</v>
       </c>
       <c r="F60" s="3">
-        <v>10168600</v>
+        <v>9572800</v>
       </c>
       <c r="G60" s="3">
-        <v>10358500</v>
+        <v>10383600</v>
       </c>
       <c r="H60" s="3">
-        <v>10569600</v>
+        <v>10577500</v>
       </c>
       <c r="I60" s="3">
-        <v>11323700</v>
+        <v>10793100</v>
       </c>
       <c r="J60" s="3">
+        <v>11563100</v>
+      </c>
+      <c r="K60" s="3">
         <v>11401800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10573100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10463400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10030300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7924800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6782200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6049400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3470900</v>
+        <v>3643800</v>
       </c>
       <c r="E61" s="3">
-        <v>4928500</v>
+        <v>3544200</v>
       </c>
       <c r="F61" s="3">
-        <v>4288100</v>
+        <v>5032700</v>
       </c>
       <c r="G61" s="3">
-        <v>3558600</v>
+        <v>4378700</v>
       </c>
       <c r="H61" s="3">
-        <v>2984900</v>
+        <v>3633800</v>
       </c>
       <c r="I61" s="3">
-        <v>3147300</v>
+        <v>3048000</v>
       </c>
       <c r="J61" s="3">
+        <v>3213800</v>
+      </c>
+      <c r="K61" s="3">
         <v>3311200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3721600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3673100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3785000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4291800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4171300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4192500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>702000</v>
+        <v>727800</v>
       </c>
       <c r="E62" s="3">
-        <v>656800</v>
+        <v>716900</v>
       </c>
       <c r="F62" s="3">
-        <v>658300</v>
+        <v>670700</v>
       </c>
       <c r="G62" s="3">
-        <v>702500</v>
+        <v>672200</v>
       </c>
       <c r="H62" s="3">
-        <v>703600</v>
+        <v>717300</v>
       </c>
       <c r="I62" s="3">
-        <v>692700</v>
+        <v>718400</v>
       </c>
       <c r="J62" s="3">
+        <v>707300</v>
+      </c>
+      <c r="K62" s="3">
         <v>683800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>748700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>633900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>618100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>649800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>592000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>608800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13275800</v>
+        <v>14759300</v>
       </c>
       <c r="E66" s="3">
-        <v>15199200</v>
+        <v>13556500</v>
       </c>
       <c r="F66" s="3">
-        <v>15425600</v>
+        <v>15520500</v>
       </c>
       <c r="G66" s="3">
-        <v>15138100</v>
+        <v>15751700</v>
       </c>
       <c r="H66" s="3">
-        <v>14778000</v>
+        <v>15458100</v>
       </c>
       <c r="I66" s="3">
-        <v>15647900</v>
+        <v>15090400</v>
       </c>
       <c r="J66" s="3">
+        <v>15978700</v>
+      </c>
+      <c r="K66" s="3">
         <v>15766100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15412600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15077400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14757400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13139500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11814400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11105900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,16 +3424,19 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>3071900</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3136900</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>16</v>
@@ -3270,35 +3444,38 @@
       <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="3">
-        <v>3580900</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J72" s="3">
+      <c r="I72" s="3">
+        <v>3656600</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="3">
         <v>3152900</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2498900</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72" s="3">
         <v>2379000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2227000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15332100</v>
+        <v>16043600</v>
       </c>
       <c r="E76" s="3">
-        <v>15081700</v>
+        <v>15656200</v>
       </c>
       <c r="F76" s="3">
-        <v>14900500</v>
+        <v>15400500</v>
       </c>
       <c r="G76" s="3">
-        <v>14913900</v>
+        <v>15215500</v>
       </c>
       <c r="H76" s="3">
-        <v>15803900</v>
+        <v>15229200</v>
       </c>
       <c r="I76" s="3">
-        <v>15379100</v>
+        <v>16138000</v>
       </c>
       <c r="J76" s="3">
+        <v>15704300</v>
+      </c>
+      <c r="K76" s="3">
         <v>14067500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13981000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13191100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12744800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12778800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12459700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12172300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>153400</v>
+        <v>277700</v>
       </c>
       <c r="E81" s="3">
-        <v>241100</v>
+        <v>156600</v>
       </c>
       <c r="F81" s="3">
-        <v>-72700</v>
+        <v>246200</v>
       </c>
       <c r="G81" s="3">
-        <v>-817800</v>
+        <v>-74300</v>
       </c>
       <c r="H81" s="3">
-        <v>306800</v>
+        <v>-835100</v>
       </c>
       <c r="I81" s="3">
-        <v>121200</v>
+        <v>313300</v>
       </c>
       <c r="J81" s="3">
+        <v>123700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-61600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>701700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-181000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-165400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>341600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>152100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
@@ -741,25 +741,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>641000</v>
+        <v>632500</v>
       </c>
       <c r="E8" s="3">
-        <v>774400</v>
+        <v>764400</v>
       </c>
       <c r="F8" s="3">
-        <v>852100</v>
+        <v>841000</v>
       </c>
       <c r="G8" s="3">
-        <v>492800</v>
+        <v>486400</v>
       </c>
       <c r="H8" s="3">
-        <v>738100</v>
+        <v>728500</v>
       </c>
       <c r="I8" s="3">
-        <v>1300300</v>
+        <v>1283400</v>
       </c>
       <c r="J8" s="3">
-        <v>1634400</v>
+        <v>1613100</v>
       </c>
       <c r="K8" s="3">
         <v>1327800</v>
@@ -788,25 +788,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>161300</v>
+        <v>159200</v>
       </c>
       <c r="E9" s="3">
-        <v>142000</v>
+        <v>140100</v>
       </c>
       <c r="F9" s="3">
-        <v>160500</v>
+        <v>158400</v>
       </c>
       <c r="G9" s="3">
-        <v>136000</v>
+        <v>134300</v>
       </c>
       <c r="H9" s="3">
-        <v>190300</v>
+        <v>187900</v>
       </c>
       <c r="I9" s="3">
-        <v>269600</v>
+        <v>266100</v>
       </c>
       <c r="J9" s="3">
-        <v>336500</v>
+        <v>332100</v>
       </c>
       <c r="K9" s="3">
         <v>274700</v>
@@ -835,25 +835,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>479700</v>
+        <v>473300</v>
       </c>
       <c r="E10" s="3">
-        <v>632500</v>
+        <v>624200</v>
       </c>
       <c r="F10" s="3">
-        <v>691600</v>
+        <v>682600</v>
       </c>
       <c r="G10" s="3">
-        <v>356800</v>
+        <v>352200</v>
       </c>
       <c r="H10" s="3">
-        <v>547800</v>
+        <v>540600</v>
       </c>
       <c r="I10" s="3">
-        <v>1030800</v>
+        <v>1017300</v>
       </c>
       <c r="J10" s="3">
-        <v>1297800</v>
+        <v>1281000</v>
       </c>
       <c r="K10" s="3">
         <v>1053100</v>
@@ -901,25 +901,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>347100</v>
+        <v>342600</v>
       </c>
       <c r="E12" s="3">
-        <v>337300</v>
+        <v>332900</v>
       </c>
       <c r="F12" s="3">
-        <v>313300</v>
+        <v>309200</v>
       </c>
       <c r="G12" s="3">
-        <v>281000</v>
+        <v>277300</v>
       </c>
       <c r="H12" s="3">
-        <v>264600</v>
+        <v>261200</v>
       </c>
       <c r="I12" s="3">
-        <v>420300</v>
+        <v>414800</v>
       </c>
       <c r="J12" s="3">
-        <v>435300</v>
+        <v>429600</v>
       </c>
       <c r="K12" s="3">
         <v>403600</v>
@@ -1105,25 +1105,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>763800</v>
+        <v>753700</v>
       </c>
       <c r="E17" s="3">
-        <v>776900</v>
+        <v>766800</v>
       </c>
       <c r="F17" s="3">
-        <v>728900</v>
+        <v>719400</v>
       </c>
       <c r="G17" s="3">
-        <v>600200</v>
+        <v>592400</v>
       </c>
       <c r="H17" s="3">
-        <v>973500</v>
+        <v>960800</v>
       </c>
       <c r="I17" s="3">
-        <v>1209900</v>
+        <v>1194100</v>
       </c>
       <c r="J17" s="3">
-        <v>1284600</v>
+        <v>1267900</v>
       </c>
       <c r="K17" s="3">
         <v>1124200</v>
@@ -1152,25 +1152,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-122800</v>
+        <v>-121200</v>
       </c>
       <c r="E18" s="3">
         <v>-2500</v>
       </c>
       <c r="F18" s="3">
-        <v>123200</v>
+        <v>121600</v>
       </c>
       <c r="G18" s="3">
-        <v>-107300</v>
+        <v>-105900</v>
       </c>
       <c r="H18" s="3">
-        <v>-235400</v>
+        <v>-232400</v>
       </c>
       <c r="I18" s="3">
-        <v>90500</v>
+        <v>89300</v>
       </c>
       <c r="J18" s="3">
-        <v>349800</v>
+        <v>345200</v>
       </c>
       <c r="K18" s="3">
         <v>203700</v>
@@ -1218,25 +1218,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>456500</v>
+        <v>450500</v>
       </c>
       <c r="E20" s="3">
-        <v>186900</v>
+        <v>184500</v>
       </c>
       <c r="F20" s="3">
-        <v>259100</v>
+        <v>255800</v>
       </c>
       <c r="G20" s="3">
-        <v>369600</v>
+        <v>364800</v>
       </c>
       <c r="H20" s="3">
-        <v>-517000</v>
+        <v>-510300</v>
       </c>
       <c r="I20" s="3">
-        <v>360500</v>
+        <v>355800</v>
       </c>
       <c r="J20" s="3">
-        <v>-131000</v>
+        <v>-129300</v>
       </c>
       <c r="K20" s="3">
         <v>-129900</v>
@@ -1312,25 +1312,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>63500</v>
+        <v>62700</v>
       </c>
       <c r="E22" s="3">
-        <v>58800</v>
+        <v>58100</v>
       </c>
       <c r="F22" s="3">
-        <v>67100</v>
+        <v>66200</v>
       </c>
       <c r="G22" s="3">
-        <v>71900</v>
+        <v>71000</v>
       </c>
       <c r="H22" s="3">
-        <v>69900</v>
+        <v>69000</v>
       </c>
       <c r="I22" s="3">
-        <v>60400</v>
+        <v>59600</v>
       </c>
       <c r="J22" s="3">
-        <v>66000</v>
+        <v>65100</v>
       </c>
       <c r="K22" s="3">
         <v>65100</v>
@@ -1359,25 +1359,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>270200</v>
+        <v>266700</v>
       </c>
       <c r="E23" s="3">
-        <v>125600</v>
+        <v>124000</v>
       </c>
       <c r="F23" s="3">
-        <v>315300</v>
+        <v>311200</v>
       </c>
       <c r="G23" s="3">
-        <v>190300</v>
+        <v>187900</v>
       </c>
       <c r="H23" s="3">
-        <v>-822300</v>
+        <v>-811600</v>
       </c>
       <c r="I23" s="3">
-        <v>390600</v>
+        <v>385600</v>
       </c>
       <c r="J23" s="3">
-        <v>152700</v>
+        <v>150700</v>
       </c>
       <c r="K23" s="3">
         <v>8700</v>
@@ -1406,25 +1406,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="E24" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="F24" s="3">
-        <v>38200</v>
+        <v>37700</v>
       </c>
       <c r="G24" s="3">
-        <v>31400</v>
+        <v>30900</v>
       </c>
       <c r="H24" s="3">
-        <v>-39600</v>
+        <v>-39100</v>
       </c>
       <c r="I24" s="3">
-        <v>56800</v>
+        <v>56000</v>
       </c>
       <c r="J24" s="3">
-        <v>56900</v>
+        <v>56200</v>
       </c>
       <c r="K24" s="3">
         <v>51300</v>
@@ -1500,25 +1500,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>263800</v>
+        <v>260400</v>
       </c>
       <c r="E26" s="3">
-        <v>100200</v>
+        <v>98900</v>
       </c>
       <c r="F26" s="3">
-        <v>277100</v>
+        <v>273500</v>
       </c>
       <c r="G26" s="3">
-        <v>159000</v>
+        <v>156900</v>
       </c>
       <c r="H26" s="3">
-        <v>-782700</v>
+        <v>-772500</v>
       </c>
       <c r="I26" s="3">
-        <v>333900</v>
+        <v>329500</v>
       </c>
       <c r="J26" s="3">
-        <v>95800</v>
+        <v>94500</v>
       </c>
       <c r="K26" s="3">
         <v>-42600</v>
@@ -1547,25 +1547,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>277700</v>
+        <v>274100</v>
       </c>
       <c r="E27" s="3">
-        <v>156600</v>
+        <v>154600</v>
       </c>
       <c r="F27" s="3">
-        <v>246200</v>
+        <v>243000</v>
       </c>
       <c r="G27" s="3">
-        <v>-74300</v>
+        <v>-73300</v>
       </c>
       <c r="H27" s="3">
-        <v>-835100</v>
+        <v>-824300</v>
       </c>
       <c r="I27" s="3">
-        <v>313300</v>
+        <v>309200</v>
       </c>
       <c r="J27" s="3">
-        <v>123700</v>
+        <v>122100</v>
       </c>
       <c r="K27" s="3">
         <v>-61600</v>
@@ -1782,25 +1782,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-456500</v>
+        <v>-450500</v>
       </c>
       <c r="E32" s="3">
-        <v>-186900</v>
+        <v>-184500</v>
       </c>
       <c r="F32" s="3">
-        <v>-259100</v>
+        <v>-255800</v>
       </c>
       <c r="G32" s="3">
-        <v>-369600</v>
+        <v>-364800</v>
       </c>
       <c r="H32" s="3">
-        <v>517000</v>
+        <v>510300</v>
       </c>
       <c r="I32" s="3">
-        <v>-360500</v>
+        <v>-355800</v>
       </c>
       <c r="J32" s="3">
-        <v>131000</v>
+        <v>129300</v>
       </c>
       <c r="K32" s="3">
         <v>129900</v>
@@ -1829,25 +1829,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>277700</v>
+        <v>274100</v>
       </c>
       <c r="E33" s="3">
-        <v>156600</v>
+        <v>154600</v>
       </c>
       <c r="F33" s="3">
-        <v>246200</v>
+        <v>243000</v>
       </c>
       <c r="G33" s="3">
-        <v>-74300</v>
+        <v>-73300</v>
       </c>
       <c r="H33" s="3">
-        <v>-835100</v>
+        <v>-824300</v>
       </c>
       <c r="I33" s="3">
-        <v>313300</v>
+        <v>309200</v>
       </c>
       <c r="J33" s="3">
-        <v>123700</v>
+        <v>122100</v>
       </c>
       <c r="K33" s="3">
         <v>-61600</v>
@@ -1923,25 +1923,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>277700</v>
+        <v>274100</v>
       </c>
       <c r="E35" s="3">
-        <v>156600</v>
+        <v>154600</v>
       </c>
       <c r="F35" s="3">
-        <v>246200</v>
+        <v>243000</v>
       </c>
       <c r="G35" s="3">
-        <v>-74300</v>
+        <v>-73300</v>
       </c>
       <c r="H35" s="3">
-        <v>-835100</v>
+        <v>-824300</v>
       </c>
       <c r="I35" s="3">
-        <v>313300</v>
+        <v>309200</v>
       </c>
       <c r="J35" s="3">
-        <v>123700</v>
+        <v>122100</v>
       </c>
       <c r="K35" s="3">
         <v>-61600</v>
@@ -2060,25 +2060,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3597600</v>
+        <v>3550800</v>
       </c>
       <c r="E41" s="3">
-        <v>2823200</v>
+        <v>2786400</v>
       </c>
       <c r="F41" s="3">
-        <v>3932200</v>
+        <v>3881100</v>
       </c>
       <c r="G41" s="3">
-        <v>2948000</v>
+        <v>2909600</v>
       </c>
       <c r="H41" s="3">
-        <v>3758700</v>
+        <v>3709800</v>
       </c>
       <c r="I41" s="3">
-        <v>3108200</v>
+        <v>3067700</v>
       </c>
       <c r="J41" s="3">
-        <v>2859700</v>
+        <v>2822500</v>
       </c>
       <c r="K41" s="3">
         <v>3514200</v>
@@ -2107,25 +2107,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4786200</v>
+        <v>4724000</v>
       </c>
       <c r="E42" s="3">
-        <v>3872200</v>
+        <v>3821800</v>
       </c>
       <c r="F42" s="3">
-        <v>3467200</v>
+        <v>3422100</v>
       </c>
       <c r="G42" s="3">
-        <v>3726500</v>
+        <v>3678000</v>
       </c>
       <c r="H42" s="3">
-        <v>3911600</v>
+        <v>3860700</v>
       </c>
       <c r="I42" s="3">
-        <v>3597300</v>
+        <v>3550500</v>
       </c>
       <c r="J42" s="3">
-        <v>4067000</v>
+        <v>4014100</v>
       </c>
       <c r="K42" s="3">
         <v>5033900</v>
@@ -2154,25 +2154,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>679100</v>
+        <v>670300</v>
       </c>
       <c r="E43" s="3">
-        <v>923700</v>
+        <v>911700</v>
       </c>
       <c r="F43" s="3">
-        <v>902400</v>
+        <v>890600</v>
       </c>
       <c r="G43" s="3">
-        <v>800200</v>
+        <v>789800</v>
       </c>
       <c r="H43" s="3">
-        <v>795300</v>
+        <v>785000</v>
       </c>
       <c r="I43" s="3">
-        <v>1628700</v>
+        <v>1607600</v>
       </c>
       <c r="J43" s="3">
-        <v>1450100</v>
+        <v>1431200</v>
       </c>
       <c r="K43" s="3">
         <v>1577500</v>
@@ -2248,25 +2248,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1526700</v>
+        <v>1506800</v>
       </c>
       <c r="E45" s="3">
-        <v>1431200</v>
+        <v>1412600</v>
       </c>
       <c r="F45" s="3">
-        <v>1960900</v>
+        <v>1935400</v>
       </c>
       <c r="G45" s="3">
-        <v>2431100</v>
+        <v>2399500</v>
       </c>
       <c r="H45" s="3">
-        <v>1620000</v>
+        <v>1598900</v>
       </c>
       <c r="I45" s="3">
-        <v>2267400</v>
+        <v>2237900</v>
       </c>
       <c r="J45" s="3">
-        <v>3414100</v>
+        <v>3369700</v>
       </c>
       <c r="K45" s="3">
         <v>2122000</v>
@@ -2295,25 +2295,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10589600</v>
+        <v>10451900</v>
       </c>
       <c r="E46" s="3">
-        <v>9050300</v>
+        <v>8932500</v>
       </c>
       <c r="F46" s="3">
-        <v>10262600</v>
+        <v>10129100</v>
       </c>
       <c r="G46" s="3">
-        <v>9905700</v>
+        <v>9776800</v>
       </c>
       <c r="H46" s="3">
-        <v>10085700</v>
+        <v>9954500</v>
       </c>
       <c r="I46" s="3">
-        <v>10601700</v>
+        <v>10463700</v>
       </c>
       <c r="J46" s="3">
-        <v>11790900</v>
+        <v>11637500</v>
       </c>
       <c r="K46" s="3">
         <v>12247600</v>
@@ -2342,25 +2342,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7526900</v>
+        <v>7428900</v>
       </c>
       <c r="E47" s="3">
-        <v>7483500</v>
+        <v>7386100</v>
       </c>
       <c r="F47" s="3">
-        <v>7957000</v>
+        <v>7853400</v>
       </c>
       <c r="G47" s="3">
-        <v>8371300</v>
+        <v>8262400</v>
       </c>
       <c r="H47" s="3">
-        <v>8011600</v>
+        <v>7907300</v>
       </c>
       <c r="I47" s="3">
-        <v>8007100</v>
+        <v>7902900</v>
       </c>
       <c r="J47" s="3">
-        <v>7437500</v>
+        <v>7340700</v>
       </c>
       <c r="K47" s="3">
         <v>5350800</v>
@@ -2389,25 +2389,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1064100</v>
+        <v>1050300</v>
       </c>
       <c r="E48" s="3">
-        <v>1055700</v>
+        <v>1042000</v>
       </c>
       <c r="F48" s="3">
-        <v>1040300</v>
+        <v>1026700</v>
       </c>
       <c r="G48" s="3">
-        <v>1057700</v>
+        <v>1044000</v>
       </c>
       <c r="H48" s="3">
-        <v>1132900</v>
+        <v>1118200</v>
       </c>
       <c r="I48" s="3">
-        <v>1145400</v>
+        <v>1130500</v>
       </c>
       <c r="J48" s="3">
-        <v>1087500</v>
+        <v>1073400</v>
       </c>
       <c r="K48" s="3">
         <v>1059800</v>
@@ -2436,25 +2436,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11323700</v>
+        <v>11176300</v>
       </c>
       <c r="E49" s="3">
-        <v>11341500</v>
+        <v>11193900</v>
       </c>
       <c r="F49" s="3">
-        <v>11377000</v>
+        <v>11229000</v>
       </c>
       <c r="G49" s="3">
-        <v>11334300</v>
+        <v>11186800</v>
       </c>
       <c r="H49" s="3">
-        <v>11149400</v>
+        <v>11004300</v>
       </c>
       <c r="I49" s="3">
-        <v>11165900</v>
+        <v>11020700</v>
       </c>
       <c r="J49" s="3">
-        <v>11121600</v>
+        <v>10976900</v>
       </c>
       <c r="K49" s="3">
         <v>10908600</v>
@@ -2577,25 +2577,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>298600</v>
+        <v>294700</v>
       </c>
       <c r="E52" s="3">
-        <v>281800</v>
+        <v>278100</v>
       </c>
       <c r="F52" s="3">
-        <v>284100</v>
+        <v>280400</v>
       </c>
       <c r="G52" s="3">
-        <v>298100</v>
+        <v>294300</v>
       </c>
       <c r="H52" s="3">
-        <v>307700</v>
+        <v>303600</v>
       </c>
       <c r="I52" s="3">
-        <v>308300</v>
+        <v>304300</v>
       </c>
       <c r="J52" s="3">
-        <v>245400</v>
+        <v>242200</v>
       </c>
       <c r="K52" s="3">
         <v>266800</v>
@@ -2671,25 +2671,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30802900</v>
+        <v>30402100</v>
       </c>
       <c r="E54" s="3">
-        <v>29212700</v>
+        <v>28832600</v>
       </c>
       <c r="F54" s="3">
-        <v>30921000</v>
+        <v>30518700</v>
       </c>
       <c r="G54" s="3">
-        <v>30967200</v>
+        <v>30564300</v>
       </c>
       <c r="H54" s="3">
-        <v>30687300</v>
+        <v>30288000</v>
       </c>
       <c r="I54" s="3">
-        <v>31228400</v>
+        <v>30822000</v>
       </c>
       <c r="J54" s="3">
-        <v>31683000</v>
+        <v>31270700</v>
       </c>
       <c r="K54" s="3">
         <v>29833700</v>
@@ -2756,25 +2756,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>775800</v>
+        <v>765700</v>
       </c>
       <c r="E57" s="3">
-        <v>703000</v>
+        <v>693800</v>
       </c>
       <c r="F57" s="3">
-        <v>1109100</v>
+        <v>1094600</v>
       </c>
       <c r="G57" s="3">
-        <v>698600</v>
+        <v>689500</v>
       </c>
       <c r="H57" s="3">
-        <v>769000</v>
+        <v>759000</v>
       </c>
       <c r="I57" s="3">
-        <v>1918000</v>
+        <v>1893000</v>
       </c>
       <c r="J57" s="3">
-        <v>2088300</v>
+        <v>2061200</v>
       </c>
       <c r="K57" s="3">
         <v>1974700</v>
@@ -2803,25 +2803,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6364600</v>
+        <v>6281800</v>
       </c>
       <c r="E58" s="3">
-        <v>5252100</v>
+        <v>5183700</v>
       </c>
       <c r="F58" s="3">
-        <v>5355500</v>
+        <v>5285800</v>
       </c>
       <c r="G58" s="3">
-        <v>6567600</v>
+        <v>6482100</v>
       </c>
       <c r="H58" s="3">
-        <v>6300000</v>
+        <v>6218000</v>
       </c>
       <c r="I58" s="3">
-        <v>4760800</v>
+        <v>4698900</v>
       </c>
       <c r="J58" s="3">
-        <v>5733500</v>
+        <v>5658900</v>
       </c>
       <c r="K58" s="3">
         <v>5758300</v>
@@ -2850,25 +2850,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3099800</v>
+        <v>3059400</v>
       </c>
       <c r="E59" s="3">
-        <v>3151100</v>
+        <v>3110100</v>
       </c>
       <c r="F59" s="3">
-        <v>3108200</v>
+        <v>3067700</v>
       </c>
       <c r="G59" s="3">
-        <v>3117400</v>
+        <v>3076800</v>
       </c>
       <c r="H59" s="3">
-        <v>3508500</v>
+        <v>3462900</v>
       </c>
       <c r="I59" s="3">
-        <v>4114300</v>
+        <v>4060800</v>
       </c>
       <c r="J59" s="3">
-        <v>3741300</v>
+        <v>3692600</v>
       </c>
       <c r="K59" s="3">
         <v>3668900</v>
@@ -2897,25 +2897,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10240200</v>
+        <v>10106900</v>
       </c>
       <c r="E60" s="3">
-        <v>9106100</v>
+        <v>8987700</v>
       </c>
       <c r="F60" s="3">
-        <v>9572800</v>
+        <v>9448200</v>
       </c>
       <c r="G60" s="3">
-        <v>10383600</v>
+        <v>10248400</v>
       </c>
       <c r="H60" s="3">
-        <v>10577500</v>
+        <v>10439800</v>
       </c>
       <c r="I60" s="3">
-        <v>10793100</v>
+        <v>10652600</v>
       </c>
       <c r="J60" s="3">
-        <v>11563100</v>
+        <v>11412700</v>
       </c>
       <c r="K60" s="3">
         <v>11401800</v>
@@ -2944,25 +2944,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3643800</v>
+        <v>3596400</v>
       </c>
       <c r="E61" s="3">
-        <v>3544200</v>
+        <v>3498100</v>
       </c>
       <c r="F61" s="3">
-        <v>5032700</v>
+        <v>4967200</v>
       </c>
       <c r="G61" s="3">
-        <v>4378700</v>
+        <v>4321800</v>
       </c>
       <c r="H61" s="3">
-        <v>3633800</v>
+        <v>3586500</v>
       </c>
       <c r="I61" s="3">
-        <v>3048000</v>
+        <v>3008300</v>
       </c>
       <c r="J61" s="3">
-        <v>3213800</v>
+        <v>3172000</v>
       </c>
       <c r="K61" s="3">
         <v>3311200</v>
@@ -2991,25 +2991,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>727800</v>
+        <v>718300</v>
       </c>
       <c r="E62" s="3">
-        <v>716900</v>
+        <v>707500</v>
       </c>
       <c r="F62" s="3">
-        <v>670700</v>
+        <v>662000</v>
       </c>
       <c r="G62" s="3">
-        <v>672200</v>
+        <v>663500</v>
       </c>
       <c r="H62" s="3">
-        <v>717300</v>
+        <v>708000</v>
       </c>
       <c r="I62" s="3">
-        <v>718400</v>
+        <v>709100</v>
       </c>
       <c r="J62" s="3">
-        <v>707300</v>
+        <v>698100</v>
       </c>
       <c r="K62" s="3">
         <v>683800</v>
@@ -3179,25 +3179,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14759300</v>
+        <v>14567300</v>
       </c>
       <c r="E66" s="3">
-        <v>13556500</v>
+        <v>13380100</v>
       </c>
       <c r="F66" s="3">
-        <v>15520500</v>
+        <v>15318500</v>
       </c>
       <c r="G66" s="3">
-        <v>15751700</v>
+        <v>15546700</v>
       </c>
       <c r="H66" s="3">
-        <v>15458100</v>
+        <v>15257000</v>
       </c>
       <c r="I66" s="3">
-        <v>15090400</v>
+        <v>14894000</v>
       </c>
       <c r="J66" s="3">
-        <v>15978700</v>
+        <v>15770800</v>
       </c>
       <c r="K66" s="3">
         <v>15766100</v>
@@ -3436,7 +3436,7 @@
         <v>16</v>
       </c>
       <c r="E72" s="3">
-        <v>3136900</v>
+        <v>3096100</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>16</v>
@@ -3448,7 +3448,7 @@
         <v>16</v>
       </c>
       <c r="I72" s="3">
-        <v>3656600</v>
+        <v>3609000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>16</v>
@@ -3621,25 +3621,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16043600</v>
+        <v>15834800</v>
       </c>
       <c r="E76" s="3">
-        <v>15656200</v>
+        <v>15452500</v>
       </c>
       <c r="F76" s="3">
-        <v>15400500</v>
+        <v>15200100</v>
       </c>
       <c r="G76" s="3">
-        <v>15215500</v>
+        <v>15017500</v>
       </c>
       <c r="H76" s="3">
-        <v>15229200</v>
+        <v>15031100</v>
       </c>
       <c r="I76" s="3">
-        <v>16138000</v>
+        <v>15928000</v>
       </c>
       <c r="J76" s="3">
-        <v>15704300</v>
+        <v>15499900</v>
       </c>
       <c r="K76" s="3">
         <v>14067500</v>
@@ -3767,25 +3767,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>277700</v>
+        <v>274100</v>
       </c>
       <c r="E81" s="3">
-        <v>156600</v>
+        <v>154600</v>
       </c>
       <c r="F81" s="3">
-        <v>246200</v>
+        <v>243000</v>
       </c>
       <c r="G81" s="3">
-        <v>-74300</v>
+        <v>-73300</v>
       </c>
       <c r="H81" s="3">
-        <v>-835100</v>
+        <v>-824300</v>
       </c>
       <c r="I81" s="3">
-        <v>313300</v>
+        <v>309200</v>
       </c>
       <c r="J81" s="3">
-        <v>123700</v>
+        <v>122100</v>
       </c>
       <c r="K81" s="3">
         <v>-61600</v>

--- a/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>TCOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>632500</v>
+        <v>922100</v>
       </c>
       <c r="E8" s="3">
-        <v>764400</v>
+        <v>643100</v>
       </c>
       <c r="F8" s="3">
-        <v>841000</v>
+        <v>777200</v>
       </c>
       <c r="G8" s="3">
-        <v>486400</v>
+        <v>855100</v>
       </c>
       <c r="H8" s="3">
-        <v>728500</v>
+        <v>494600</v>
       </c>
       <c r="I8" s="3">
-        <v>1283400</v>
+        <v>740700</v>
       </c>
       <c r="J8" s="3">
+        <v>1304900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1613100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1327800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1241900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1150000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1358600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1050100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>965800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>885700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>159200</v>
+        <v>191500</v>
       </c>
       <c r="E9" s="3">
-        <v>140100</v>
+        <v>161900</v>
       </c>
       <c r="F9" s="3">
-        <v>158400</v>
+        <v>142500</v>
       </c>
       <c r="G9" s="3">
-        <v>134300</v>
+        <v>161100</v>
       </c>
       <c r="H9" s="3">
-        <v>187900</v>
+        <v>136500</v>
       </c>
       <c r="I9" s="3">
-        <v>266100</v>
+        <v>191000</v>
       </c>
       <c r="J9" s="3">
+        <v>270500</v>
+      </c>
+      <c r="K9" s="3">
         <v>332100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>274700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>256900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>246400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>289200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>210800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>178500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>152200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>473300</v>
+        <v>730700</v>
       </c>
       <c r="E10" s="3">
-        <v>624200</v>
+        <v>481300</v>
       </c>
       <c r="F10" s="3">
-        <v>682600</v>
+        <v>634700</v>
       </c>
       <c r="G10" s="3">
-        <v>352200</v>
+        <v>694000</v>
       </c>
       <c r="H10" s="3">
-        <v>540600</v>
+        <v>358100</v>
       </c>
       <c r="I10" s="3">
-        <v>1017300</v>
+        <v>549700</v>
       </c>
       <c r="J10" s="3">
+        <v>1034400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1281000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1053100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>985000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>903600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1069500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>839400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>787300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>342600</v>
+        <v>348500</v>
       </c>
       <c r="E12" s="3">
-        <v>332900</v>
+        <v>348300</v>
       </c>
       <c r="F12" s="3">
-        <v>309200</v>
+        <v>338500</v>
       </c>
       <c r="G12" s="3">
-        <v>277300</v>
+        <v>314400</v>
       </c>
       <c r="H12" s="3">
-        <v>261200</v>
+        <v>282000</v>
       </c>
       <c r="I12" s="3">
-        <v>414800</v>
+        <v>265500</v>
       </c>
       <c r="J12" s="3">
+        <v>421800</v>
+      </c>
+      <c r="K12" s="3">
         <v>429600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>403600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>387000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>413500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>361800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>323000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>309900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>753700</v>
+        <v>871100</v>
       </c>
       <c r="E17" s="3">
-        <v>766800</v>
+        <v>766400</v>
       </c>
       <c r="F17" s="3">
-        <v>719400</v>
+        <v>779700</v>
       </c>
       <c r="G17" s="3">
-        <v>592400</v>
+        <v>731400</v>
       </c>
       <c r="H17" s="3">
-        <v>960800</v>
+        <v>602300</v>
       </c>
       <c r="I17" s="3">
-        <v>1194100</v>
+        <v>976900</v>
       </c>
       <c r="J17" s="3">
+        <v>1214100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1267900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1124200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1107300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1178800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1143700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>946300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>881100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>842200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-121200</v>
+        <v>51000</v>
       </c>
       <c r="E18" s="3">
+        <v>-123200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
-        <v>121600</v>
-      </c>
       <c r="G18" s="3">
-        <v>-105900</v>
+        <v>123700</v>
       </c>
       <c r="H18" s="3">
-        <v>-232400</v>
+        <v>-107700</v>
       </c>
       <c r="I18" s="3">
-        <v>89300</v>
+        <v>-236200</v>
       </c>
       <c r="J18" s="3">
+        <v>90800</v>
+      </c>
+      <c r="K18" s="3">
         <v>345200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>203700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>134600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-28800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>214900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>103900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>84700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,55 +1245,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>450500</v>
+        <v>-58900</v>
       </c>
       <c r="E20" s="3">
-        <v>184500</v>
+        <v>458100</v>
       </c>
       <c r="F20" s="3">
-        <v>255800</v>
+        <v>187600</v>
       </c>
       <c r="G20" s="3">
-        <v>364800</v>
+        <v>260000</v>
       </c>
       <c r="H20" s="3">
-        <v>-510300</v>
+        <v>370900</v>
       </c>
       <c r="I20" s="3">
-        <v>355800</v>
+        <v>-518800</v>
       </c>
       <c r="J20" s="3">
+        <v>361800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-129300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-129900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>776300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-80500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-305600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>370200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>125800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>96600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1282,8 +1319,8 @@
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
+      <c r="J21" s="3">
+        <v>624200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
@@ -1306,149 +1343,161 @@
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>62700</v>
+        <v>65400</v>
       </c>
       <c r="E22" s="3">
-        <v>58100</v>
+        <v>63700</v>
       </c>
       <c r="F22" s="3">
-        <v>66200</v>
+        <v>59000</v>
       </c>
       <c r="G22" s="3">
-        <v>71000</v>
+        <v>67300</v>
       </c>
       <c r="H22" s="3">
-        <v>69000</v>
+        <v>72200</v>
       </c>
       <c r="I22" s="3">
-        <v>59600</v>
+        <v>70100</v>
       </c>
       <c r="J22" s="3">
-        <v>65100</v>
+        <v>60600</v>
       </c>
       <c r="K22" s="3">
         <v>65100</v>
       </c>
       <c r="L22" s="3">
+        <v>65100</v>
+      </c>
+      <c r="M22" s="3">
         <v>67100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>64200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>57100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>53200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>46200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>266700</v>
+        <v>-73300</v>
       </c>
       <c r="E23" s="3">
-        <v>124000</v>
+        <v>271200</v>
       </c>
       <c r="F23" s="3">
-        <v>311200</v>
+        <v>126000</v>
       </c>
       <c r="G23" s="3">
-        <v>187900</v>
+        <v>316400</v>
       </c>
       <c r="H23" s="3">
-        <v>-811600</v>
+        <v>191000</v>
       </c>
       <c r="I23" s="3">
-        <v>385600</v>
+        <v>-825200</v>
       </c>
       <c r="J23" s="3">
+        <v>392000</v>
+      </c>
+      <c r="K23" s="3">
         <v>150700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>843800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-173400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-147700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>420800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>164300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>93500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6300</v>
+        <v>15200</v>
       </c>
       <c r="E24" s="3">
-        <v>25100</v>
+        <v>6400</v>
       </c>
       <c r="F24" s="3">
-        <v>37700</v>
+        <v>25500</v>
       </c>
       <c r="G24" s="3">
-        <v>30900</v>
+        <v>38400</v>
       </c>
       <c r="H24" s="3">
-        <v>-39100</v>
+        <v>31500</v>
       </c>
       <c r="I24" s="3">
-        <v>56000</v>
+        <v>-39800</v>
       </c>
       <c r="J24" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K24" s="3">
         <v>56200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>51300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>103000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>37300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>46200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>25700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>260400</v>
+        <v>-88500</v>
       </c>
       <c r="E26" s="3">
-        <v>98900</v>
+        <v>264700</v>
       </c>
       <c r="F26" s="3">
-        <v>273500</v>
+        <v>100500</v>
       </c>
       <c r="G26" s="3">
-        <v>156900</v>
+        <v>278100</v>
       </c>
       <c r="H26" s="3">
-        <v>-772500</v>
+        <v>159500</v>
       </c>
       <c r="I26" s="3">
-        <v>329500</v>
+        <v>-785500</v>
       </c>
       <c r="J26" s="3">
+        <v>335000</v>
+      </c>
+      <c r="K26" s="3">
         <v>94500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-42600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>740800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-178700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-185000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>374600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>138600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>274100</v>
+        <v>-101300</v>
       </c>
       <c r="E27" s="3">
-        <v>154600</v>
+        <v>278700</v>
       </c>
       <c r="F27" s="3">
-        <v>243000</v>
+        <v>157200</v>
       </c>
       <c r="G27" s="3">
-        <v>-73300</v>
+        <v>247100</v>
       </c>
       <c r="H27" s="3">
-        <v>-824300</v>
+        <v>-74500</v>
       </c>
       <c r="I27" s="3">
-        <v>309200</v>
+        <v>-838100</v>
       </c>
       <c r="J27" s="3">
+        <v>314400</v>
+      </c>
+      <c r="K27" s="3">
         <v>122100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-61600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>701700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-181000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-165400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>341600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>152100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-450500</v>
+        <v>58900</v>
       </c>
       <c r="E32" s="3">
-        <v>-184500</v>
+        <v>-458100</v>
       </c>
       <c r="F32" s="3">
-        <v>-255800</v>
+        <v>-187600</v>
       </c>
       <c r="G32" s="3">
-        <v>-364800</v>
+        <v>-260000</v>
       </c>
       <c r="H32" s="3">
-        <v>510300</v>
+        <v>-370900</v>
       </c>
       <c r="I32" s="3">
-        <v>-355800</v>
+        <v>518800</v>
       </c>
       <c r="J32" s="3">
+        <v>-361800</v>
+      </c>
+      <c r="K32" s="3">
         <v>129300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>129900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-776300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>80500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>305600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-370200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-125800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-96600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>274100</v>
+        <v>-101300</v>
       </c>
       <c r="E33" s="3">
-        <v>154600</v>
+        <v>278700</v>
       </c>
       <c r="F33" s="3">
-        <v>243000</v>
+        <v>157200</v>
       </c>
       <c r="G33" s="3">
-        <v>-73300</v>
+        <v>247100</v>
       </c>
       <c r="H33" s="3">
-        <v>-824300</v>
+        <v>-74500</v>
       </c>
       <c r="I33" s="3">
-        <v>309200</v>
+        <v>-838100</v>
       </c>
       <c r="J33" s="3">
+        <v>314400</v>
+      </c>
+      <c r="K33" s="3">
         <v>122100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-61600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>701700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-181000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-165400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>341600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>152100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>274100</v>
+        <v>-101300</v>
       </c>
       <c r="E35" s="3">
-        <v>154600</v>
+        <v>278700</v>
       </c>
       <c r="F35" s="3">
-        <v>243000</v>
+        <v>157200</v>
       </c>
       <c r="G35" s="3">
-        <v>-73300</v>
+        <v>247100</v>
       </c>
       <c r="H35" s="3">
-        <v>-824300</v>
+        <v>-74500</v>
       </c>
       <c r="I35" s="3">
-        <v>309200</v>
+        <v>-838100</v>
       </c>
       <c r="J35" s="3">
+        <v>314400</v>
+      </c>
+      <c r="K35" s="3">
         <v>122100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-61600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>701700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-181000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-165400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>341600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>152100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,149 +2140,159 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3550800</v>
+        <v>4336100</v>
       </c>
       <c r="E41" s="3">
-        <v>2786400</v>
+        <v>3610300</v>
       </c>
       <c r="F41" s="3">
-        <v>3881100</v>
+        <v>2833100</v>
       </c>
       <c r="G41" s="3">
-        <v>2909600</v>
+        <v>3946100</v>
       </c>
       <c r="H41" s="3">
-        <v>3709800</v>
+        <v>2958400</v>
       </c>
       <c r="I41" s="3">
-        <v>3067700</v>
+        <v>3772000</v>
       </c>
       <c r="J41" s="3">
+        <v>3119100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2822500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3514200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3454300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3275100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3121000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3162400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2475500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2617500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4724000</v>
+        <v>5524400</v>
       </c>
       <c r="E42" s="3">
-        <v>3821800</v>
+        <v>4803100</v>
       </c>
       <c r="F42" s="3">
-        <v>3422100</v>
+        <v>3885800</v>
       </c>
       <c r="G42" s="3">
-        <v>3678000</v>
+        <v>3479400</v>
       </c>
       <c r="H42" s="3">
-        <v>3860700</v>
+        <v>3739600</v>
       </c>
       <c r="I42" s="3">
-        <v>3550500</v>
+        <v>3925400</v>
       </c>
       <c r="J42" s="3">
+        <v>3610000</v>
+      </c>
+      <c r="K42" s="3">
         <v>4014100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5033900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5126900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5590900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5488700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4760400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4896000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4036100</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>670300</v>
+        <v>835900</v>
       </c>
       <c r="E43" s="3">
-        <v>911700</v>
+        <v>681500</v>
       </c>
       <c r="F43" s="3">
-        <v>890600</v>
+        <v>927000</v>
       </c>
       <c r="G43" s="3">
-        <v>789800</v>
+        <v>905500</v>
       </c>
       <c r="H43" s="3">
-        <v>785000</v>
+        <v>803000</v>
       </c>
       <c r="I43" s="3">
-        <v>1607600</v>
+        <v>798100</v>
       </c>
       <c r="J43" s="3">
+        <v>1634500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1431200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1577500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>929100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1112000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>987100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>898300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>742900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>735000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,243 +2338,261 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1506800</v>
+        <v>1624600</v>
       </c>
       <c r="E45" s="3">
-        <v>1412600</v>
+        <v>1532100</v>
       </c>
       <c r="F45" s="3">
-        <v>1935400</v>
+        <v>1436300</v>
       </c>
       <c r="G45" s="3">
-        <v>2399500</v>
+        <v>1967800</v>
       </c>
       <c r="H45" s="3">
-        <v>1598900</v>
+        <v>2439700</v>
       </c>
       <c r="I45" s="3">
-        <v>2237900</v>
+        <v>1625700</v>
       </c>
       <c r="J45" s="3">
+        <v>2275400</v>
+      </c>
+      <c r="K45" s="3">
         <v>3369700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2122000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2560200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2099400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2669900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1838400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1190300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10451900</v>
+        <v>12321000</v>
       </c>
       <c r="E46" s="3">
-        <v>8932500</v>
+        <v>10627000</v>
       </c>
       <c r="F46" s="3">
-        <v>10129100</v>
+        <v>9082200</v>
       </c>
       <c r="G46" s="3">
-        <v>9776800</v>
+        <v>10298800</v>
       </c>
       <c r="H46" s="3">
-        <v>9954500</v>
+        <v>9940600</v>
       </c>
       <c r="I46" s="3">
-        <v>10463700</v>
+        <v>10121300</v>
       </c>
       <c r="J46" s="3">
+        <v>10639000</v>
+      </c>
+      <c r="K46" s="3">
         <v>11637500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12247600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12070600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12077400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12266700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10659600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9514900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8525300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7428900</v>
+        <v>7364400</v>
       </c>
       <c r="E47" s="3">
-        <v>7386100</v>
+        <v>7553400</v>
       </c>
       <c r="F47" s="3">
-        <v>7853400</v>
+        <v>7509900</v>
       </c>
       <c r="G47" s="3">
-        <v>8262400</v>
+        <v>7985000</v>
       </c>
       <c r="H47" s="3">
-        <v>7907300</v>
+        <v>8400900</v>
       </c>
       <c r="I47" s="3">
-        <v>7902900</v>
+        <v>8039800</v>
       </c>
       <c r="J47" s="3">
+        <v>8035300</v>
+      </c>
+      <c r="K47" s="3">
         <v>7340700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5350800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5212700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4122900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3724400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3907000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3652100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3737400</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1050300</v>
+        <v>1036300</v>
       </c>
       <c r="E48" s="3">
-        <v>1042000</v>
+        <v>1067900</v>
       </c>
       <c r="F48" s="3">
-        <v>1026700</v>
+        <v>1059400</v>
       </c>
       <c r="G48" s="3">
-        <v>1044000</v>
+        <v>1043900</v>
       </c>
       <c r="H48" s="3">
-        <v>1118200</v>
+        <v>1061500</v>
       </c>
       <c r="I48" s="3">
-        <v>1130500</v>
+        <v>1136900</v>
       </c>
       <c r="J48" s="3">
+        <v>1149500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1073400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1059800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1013900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>893200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>847700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>835300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>830000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>805800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11176300</v>
+        <v>11355300</v>
       </c>
       <c r="E49" s="3">
-        <v>11193900</v>
+        <v>11363600</v>
       </c>
       <c r="F49" s="3">
-        <v>11229000</v>
+        <v>11381400</v>
       </c>
       <c r="G49" s="3">
-        <v>11186800</v>
+        <v>11417100</v>
       </c>
       <c r="H49" s="3">
-        <v>11004300</v>
+        <v>11374200</v>
       </c>
       <c r="I49" s="3">
-        <v>11020700</v>
+        <v>11188700</v>
       </c>
       <c r="J49" s="3">
+        <v>11205300</v>
+      </c>
+      <c r="K49" s="3">
         <v>10976900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10908600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10878900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10928800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10452200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10276000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10086500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10056900</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>294700</v>
+        <v>331800</v>
       </c>
       <c r="E52" s="3">
-        <v>278100</v>
+        <v>299700</v>
       </c>
       <c r="F52" s="3">
-        <v>280400</v>
+        <v>282700</v>
       </c>
       <c r="G52" s="3">
-        <v>294300</v>
+        <v>285100</v>
       </c>
       <c r="H52" s="3">
-        <v>303600</v>
+        <v>299200</v>
       </c>
       <c r="I52" s="3">
-        <v>304300</v>
+        <v>308700</v>
       </c>
       <c r="J52" s="3">
+        <v>309400</v>
+      </c>
+      <c r="K52" s="3">
         <v>242200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>266800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>217700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>246100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>211200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>240300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>190500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>186800</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30402100</v>
+        <v>32408700</v>
       </c>
       <c r="E54" s="3">
-        <v>28832600</v>
+        <v>30911500</v>
       </c>
       <c r="F54" s="3">
-        <v>30518700</v>
+        <v>29315700</v>
       </c>
       <c r="G54" s="3">
-        <v>30564300</v>
+        <v>31030000</v>
       </c>
       <c r="H54" s="3">
-        <v>30288000</v>
+        <v>31076400</v>
       </c>
       <c r="I54" s="3">
-        <v>30822000</v>
+        <v>30795500</v>
       </c>
       <c r="J54" s="3">
+        <v>31338500</v>
+      </c>
+      <c r="K54" s="3">
         <v>31270700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29833700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29393700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28268500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27502200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25918200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24274100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23278200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>765700</v>
+        <v>1029700</v>
       </c>
       <c r="E57" s="3">
-        <v>693800</v>
+        <v>778600</v>
       </c>
       <c r="F57" s="3">
-        <v>1094600</v>
+        <v>705500</v>
       </c>
       <c r="G57" s="3">
-        <v>689500</v>
+        <v>1113000</v>
       </c>
       <c r="H57" s="3">
-        <v>759000</v>
+        <v>701100</v>
       </c>
       <c r="I57" s="3">
-        <v>1893000</v>
+        <v>771700</v>
       </c>
       <c r="J57" s="3">
+        <v>1924700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2061200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1974700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1668600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1781900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1975000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1593800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1351000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1070200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6281800</v>
+        <v>6413800</v>
       </c>
       <c r="E58" s="3">
-        <v>5183700</v>
+        <v>6387000</v>
       </c>
       <c r="F58" s="3">
-        <v>5285800</v>
+        <v>5270600</v>
       </c>
       <c r="G58" s="3">
-        <v>6482100</v>
+        <v>5374400</v>
       </c>
       <c r="H58" s="3">
-        <v>6218000</v>
+        <v>6590700</v>
       </c>
       <c r="I58" s="3">
-        <v>4698900</v>
+        <v>6322200</v>
       </c>
       <c r="J58" s="3">
+        <v>4777600</v>
+      </c>
+      <c r="K58" s="3">
         <v>5658900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5758300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5769000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5478000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5232100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3509800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2952200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2341000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3059400</v>
+        <v>3291800</v>
       </c>
       <c r="E59" s="3">
-        <v>3110100</v>
+        <v>3110700</v>
       </c>
       <c r="F59" s="3">
-        <v>3067700</v>
+        <v>3162200</v>
       </c>
       <c r="G59" s="3">
-        <v>3076800</v>
+        <v>3119100</v>
       </c>
       <c r="H59" s="3">
-        <v>3462900</v>
+        <v>3128400</v>
       </c>
       <c r="I59" s="3">
-        <v>4060800</v>
+        <v>3520900</v>
       </c>
       <c r="J59" s="3">
+        <v>4128800</v>
+      </c>
+      <c r="K59" s="3">
         <v>3692600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3668900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3135500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3203500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2823300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2821200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2478900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2698200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10106900</v>
+        <v>10735300</v>
       </c>
       <c r="E60" s="3">
-        <v>8987700</v>
+        <v>10276300</v>
       </c>
       <c r="F60" s="3">
-        <v>9448200</v>
+        <v>9138300</v>
       </c>
       <c r="G60" s="3">
-        <v>10248400</v>
+        <v>9606500</v>
       </c>
       <c r="H60" s="3">
-        <v>10439800</v>
+        <v>10420200</v>
       </c>
       <c r="I60" s="3">
-        <v>10652600</v>
+        <v>10614800</v>
       </c>
       <c r="J60" s="3">
+        <v>10831100</v>
+      </c>
+      <c r="K60" s="3">
         <v>11412700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11401800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10573100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10463400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10030300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7924800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6782200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6049400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3596400</v>
+        <v>3555900</v>
       </c>
       <c r="E61" s="3">
-        <v>3498100</v>
+        <v>3656600</v>
       </c>
       <c r="F61" s="3">
-        <v>4967200</v>
+        <v>3556700</v>
       </c>
       <c r="G61" s="3">
-        <v>4321800</v>
+        <v>5050500</v>
       </c>
       <c r="H61" s="3">
-        <v>3586500</v>
+        <v>4394200</v>
       </c>
       <c r="I61" s="3">
-        <v>3008300</v>
+        <v>3646600</v>
       </c>
       <c r="J61" s="3">
+        <v>3058700</v>
+      </c>
+      <c r="K61" s="3">
         <v>3172000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3311200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3721600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3673100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3785000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4291800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4171300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4192500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>718300</v>
+        <v>687600</v>
       </c>
       <c r="E62" s="3">
-        <v>707500</v>
+        <v>730400</v>
       </c>
       <c r="F62" s="3">
-        <v>662000</v>
+        <v>719400</v>
       </c>
       <c r="G62" s="3">
-        <v>663500</v>
+        <v>673100</v>
       </c>
       <c r="H62" s="3">
-        <v>708000</v>
+        <v>674600</v>
       </c>
       <c r="I62" s="3">
-        <v>709100</v>
+        <v>719900</v>
       </c>
       <c r="J62" s="3">
+        <v>721000</v>
+      </c>
+      <c r="K62" s="3">
         <v>698100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>683800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>748700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>633900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>618100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>649800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>592000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>608800</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14567300</v>
+        <v>15125300</v>
       </c>
       <c r="E66" s="3">
-        <v>13380100</v>
+        <v>14811400</v>
       </c>
       <c r="F66" s="3">
-        <v>15318500</v>
+        <v>13604300</v>
       </c>
       <c r="G66" s="3">
-        <v>15546700</v>
+        <v>15575200</v>
       </c>
       <c r="H66" s="3">
-        <v>15257000</v>
+        <v>15807200</v>
       </c>
       <c r="I66" s="3">
-        <v>14894000</v>
+        <v>15512600</v>
       </c>
       <c r="J66" s="3">
+        <v>15143600</v>
+      </c>
+      <c r="K66" s="3">
         <v>15770800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15766100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15412600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15077400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14757400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13139500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11814400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11105900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,19 +3598,22 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="3">
-        <v>3096100</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>16</v>
+      <c r="E72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="3">
+        <v>3148000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
@@ -3447,35 +3621,38 @@
       <c r="H72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="3">
-        <v>3609000</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="3">
+        <v>3669500</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="3">
         <v>3152900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N72" s="3">
         <v>2498900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="3">
         <v>2379000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2227000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15834800</v>
+        <v>17283400</v>
       </c>
       <c r="E76" s="3">
-        <v>15452500</v>
+        <v>16100200</v>
       </c>
       <c r="F76" s="3">
-        <v>15200100</v>
+        <v>15711400</v>
       </c>
       <c r="G76" s="3">
-        <v>15017500</v>
+        <v>15454800</v>
       </c>
       <c r="H76" s="3">
-        <v>15031100</v>
+        <v>15269100</v>
       </c>
       <c r="I76" s="3">
-        <v>15928000</v>
+        <v>15282900</v>
       </c>
       <c r="J76" s="3">
+        <v>16194900</v>
+      </c>
+      <c r="K76" s="3">
         <v>15499900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14067500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13981000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13191100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12744800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12778800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12459700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12172300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>274100</v>
+        <v>-101300</v>
       </c>
       <c r="E81" s="3">
-        <v>154600</v>
+        <v>278700</v>
       </c>
       <c r="F81" s="3">
-        <v>243000</v>
+        <v>157200</v>
       </c>
       <c r="G81" s="3">
-        <v>-73300</v>
+        <v>247100</v>
       </c>
       <c r="H81" s="3">
-        <v>-824300</v>
+        <v>-74500</v>
       </c>
       <c r="I81" s="3">
-        <v>309200</v>
+        <v>-838100</v>
       </c>
       <c r="J81" s="3">
+        <v>314400</v>
+      </c>
+      <c r="K81" s="3">
         <v>122100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-61600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>701700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-181000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-165400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>341600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>152100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,31 +4025,32 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>171600</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,31 +4323,34 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>1148100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,31 +4395,32 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-128800</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,31 +4543,34 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-377800</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,31 +4813,34 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>-1449100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4617,31 +4863,34 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>48400</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4664,31 +4913,34 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-630500</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
@@ -745,25 +745,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>922100</v>
+        <v>929200</v>
       </c>
       <c r="E8" s="3">
-        <v>643100</v>
+        <v>648100</v>
       </c>
       <c r="F8" s="3">
-        <v>777200</v>
+        <v>783100</v>
       </c>
       <c r="G8" s="3">
-        <v>855100</v>
+        <v>861700</v>
       </c>
       <c r="H8" s="3">
-        <v>494600</v>
+        <v>498400</v>
       </c>
       <c r="I8" s="3">
-        <v>740700</v>
+        <v>746400</v>
       </c>
       <c r="J8" s="3">
-        <v>1304900</v>
+        <v>1314900</v>
       </c>
       <c r="K8" s="3">
         <v>1613100</v>
@@ -795,25 +795,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>191500</v>
+        <v>192900</v>
       </c>
       <c r="E9" s="3">
-        <v>161900</v>
+        <v>163100</v>
       </c>
       <c r="F9" s="3">
-        <v>142500</v>
+        <v>143600</v>
       </c>
       <c r="G9" s="3">
-        <v>161100</v>
+        <v>162300</v>
       </c>
       <c r="H9" s="3">
-        <v>136500</v>
+        <v>137600</v>
       </c>
       <c r="I9" s="3">
-        <v>191000</v>
+        <v>192500</v>
       </c>
       <c r="J9" s="3">
-        <v>270500</v>
+        <v>272600</v>
       </c>
       <c r="K9" s="3">
         <v>332100</v>
@@ -845,25 +845,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>730700</v>
+        <v>736300</v>
       </c>
       <c r="E10" s="3">
-        <v>481300</v>
+        <v>485000</v>
       </c>
       <c r="F10" s="3">
-        <v>634700</v>
+        <v>639600</v>
       </c>
       <c r="G10" s="3">
-        <v>694000</v>
+        <v>699400</v>
       </c>
       <c r="H10" s="3">
-        <v>358100</v>
+        <v>360800</v>
       </c>
       <c r="I10" s="3">
-        <v>549700</v>
+        <v>553900</v>
       </c>
       <c r="J10" s="3">
-        <v>1034400</v>
+        <v>1042300</v>
       </c>
       <c r="K10" s="3">
         <v>1281000</v>
@@ -915,25 +915,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>348500</v>
+        <v>351200</v>
       </c>
       <c r="E12" s="3">
-        <v>348300</v>
+        <v>351000</v>
       </c>
       <c r="F12" s="3">
-        <v>338500</v>
+        <v>341100</v>
       </c>
       <c r="G12" s="3">
-        <v>314400</v>
+        <v>316800</v>
       </c>
       <c r="H12" s="3">
-        <v>282000</v>
+        <v>284100</v>
       </c>
       <c r="I12" s="3">
-        <v>265500</v>
+        <v>267600</v>
       </c>
       <c r="J12" s="3">
-        <v>421800</v>
+        <v>425000</v>
       </c>
       <c r="K12" s="3">
         <v>429600</v>
@@ -1132,25 +1132,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>871100</v>
+        <v>877800</v>
       </c>
       <c r="E17" s="3">
-        <v>766400</v>
+        <v>772200</v>
       </c>
       <c r="F17" s="3">
-        <v>779700</v>
+        <v>785600</v>
       </c>
       <c r="G17" s="3">
-        <v>731400</v>
+        <v>737100</v>
       </c>
       <c r="H17" s="3">
-        <v>602300</v>
+        <v>606900</v>
       </c>
       <c r="I17" s="3">
-        <v>976900</v>
+        <v>984400</v>
       </c>
       <c r="J17" s="3">
-        <v>1214100</v>
+        <v>1223400</v>
       </c>
       <c r="K17" s="3">
         <v>1267900</v>
@@ -1182,25 +1182,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>51000</v>
+        <v>51400</v>
       </c>
       <c r="E18" s="3">
-        <v>-123200</v>
+        <v>-124200</v>
       </c>
       <c r="F18" s="3">
         <v>-2500</v>
       </c>
       <c r="G18" s="3">
-        <v>123700</v>
+        <v>124600</v>
       </c>
       <c r="H18" s="3">
-        <v>-107700</v>
+        <v>-108500</v>
       </c>
       <c r="I18" s="3">
-        <v>-236200</v>
+        <v>-238100</v>
       </c>
       <c r="J18" s="3">
-        <v>90800</v>
+        <v>91500</v>
       </c>
       <c r="K18" s="3">
         <v>345200</v>
@@ -1252,25 +1252,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-58900</v>
+        <v>-59300</v>
       </c>
       <c r="E20" s="3">
-        <v>458100</v>
+        <v>461600</v>
       </c>
       <c r="F20" s="3">
-        <v>187600</v>
+        <v>189000</v>
       </c>
       <c r="G20" s="3">
-        <v>260000</v>
+        <v>262000</v>
       </c>
       <c r="H20" s="3">
-        <v>370900</v>
+        <v>373700</v>
       </c>
       <c r="I20" s="3">
-        <v>-518800</v>
+        <v>-522800</v>
       </c>
       <c r="J20" s="3">
-        <v>361800</v>
+        <v>364600</v>
       </c>
       <c r="K20" s="3">
         <v>-129300</v>
@@ -1320,7 +1320,7 @@
         <v>16</v>
       </c>
       <c r="J21" s="3">
-        <v>624200</v>
+        <v>629000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
@@ -1352,25 +1352,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>65400</v>
+        <v>65900</v>
       </c>
       <c r="E22" s="3">
-        <v>63700</v>
+        <v>64200</v>
       </c>
       <c r="F22" s="3">
-        <v>59000</v>
+        <v>59500</v>
       </c>
       <c r="G22" s="3">
-        <v>67300</v>
+        <v>67800</v>
       </c>
       <c r="H22" s="3">
-        <v>72200</v>
+        <v>72700</v>
       </c>
       <c r="I22" s="3">
-        <v>70100</v>
+        <v>70700</v>
       </c>
       <c r="J22" s="3">
-        <v>60600</v>
+        <v>61100</v>
       </c>
       <c r="K22" s="3">
         <v>65100</v>
@@ -1402,25 +1402,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-73300</v>
+        <v>-73800</v>
       </c>
       <c r="E23" s="3">
-        <v>271200</v>
+        <v>273200</v>
       </c>
       <c r="F23" s="3">
-        <v>126000</v>
+        <v>127000</v>
       </c>
       <c r="G23" s="3">
-        <v>316400</v>
+        <v>318800</v>
       </c>
       <c r="H23" s="3">
-        <v>191000</v>
+        <v>192500</v>
       </c>
       <c r="I23" s="3">
-        <v>-825200</v>
+        <v>-831600</v>
       </c>
       <c r="J23" s="3">
-        <v>392000</v>
+        <v>395000</v>
       </c>
       <c r="K23" s="3">
         <v>150700</v>
@@ -1452,25 +1452,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="E24" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="F24" s="3">
-        <v>25500</v>
+        <v>25700</v>
       </c>
       <c r="G24" s="3">
-        <v>38400</v>
+        <v>38700</v>
       </c>
       <c r="H24" s="3">
-        <v>31500</v>
+        <v>31700</v>
       </c>
       <c r="I24" s="3">
-        <v>-39800</v>
+        <v>-40100</v>
       </c>
       <c r="J24" s="3">
-        <v>57000</v>
+        <v>57400</v>
       </c>
       <c r="K24" s="3">
         <v>56200</v>
@@ -1552,25 +1552,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-88500</v>
+        <v>-89100</v>
       </c>
       <c r="E26" s="3">
-        <v>264700</v>
+        <v>266800</v>
       </c>
       <c r="F26" s="3">
-        <v>100500</v>
+        <v>101300</v>
       </c>
       <c r="G26" s="3">
-        <v>278100</v>
+        <v>280200</v>
       </c>
       <c r="H26" s="3">
-        <v>159500</v>
+        <v>160800</v>
       </c>
       <c r="I26" s="3">
-        <v>-785500</v>
+        <v>-791500</v>
       </c>
       <c r="J26" s="3">
-        <v>335000</v>
+        <v>337600</v>
       </c>
       <c r="K26" s="3">
         <v>94500</v>
@@ -1602,25 +1602,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-101300</v>
+        <v>-102100</v>
       </c>
       <c r="E27" s="3">
-        <v>278700</v>
+        <v>280800</v>
       </c>
       <c r="F27" s="3">
-        <v>157200</v>
+        <v>158400</v>
       </c>
       <c r="G27" s="3">
-        <v>247100</v>
+        <v>248900</v>
       </c>
       <c r="H27" s="3">
-        <v>-74500</v>
+        <v>-75100</v>
       </c>
       <c r="I27" s="3">
-        <v>-838100</v>
+        <v>-844500</v>
       </c>
       <c r="J27" s="3">
-        <v>314400</v>
+        <v>316800</v>
       </c>
       <c r="K27" s="3">
         <v>122100</v>
@@ -1852,25 +1852,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>58900</v>
+        <v>59300</v>
       </c>
       <c r="E32" s="3">
-        <v>-458100</v>
+        <v>-461600</v>
       </c>
       <c r="F32" s="3">
-        <v>-187600</v>
+        <v>-189000</v>
       </c>
       <c r="G32" s="3">
-        <v>-260000</v>
+        <v>-262000</v>
       </c>
       <c r="H32" s="3">
-        <v>-370900</v>
+        <v>-373700</v>
       </c>
       <c r="I32" s="3">
-        <v>518800</v>
+        <v>522800</v>
       </c>
       <c r="J32" s="3">
-        <v>-361800</v>
+        <v>-364600</v>
       </c>
       <c r="K32" s="3">
         <v>129300</v>
@@ -1902,25 +1902,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-101300</v>
+        <v>-102100</v>
       </c>
       <c r="E33" s="3">
-        <v>278700</v>
+        <v>280800</v>
       </c>
       <c r="F33" s="3">
-        <v>157200</v>
+        <v>158400</v>
       </c>
       <c r="G33" s="3">
-        <v>247100</v>
+        <v>248900</v>
       </c>
       <c r="H33" s="3">
-        <v>-74500</v>
+        <v>-75100</v>
       </c>
       <c r="I33" s="3">
-        <v>-838100</v>
+        <v>-844500</v>
       </c>
       <c r="J33" s="3">
-        <v>314400</v>
+        <v>316800</v>
       </c>
       <c r="K33" s="3">
         <v>122100</v>
@@ -2002,25 +2002,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-101300</v>
+        <v>-102100</v>
       </c>
       <c r="E35" s="3">
-        <v>278700</v>
+        <v>280800</v>
       </c>
       <c r="F35" s="3">
-        <v>157200</v>
+        <v>158400</v>
       </c>
       <c r="G35" s="3">
-        <v>247100</v>
+        <v>248900</v>
       </c>
       <c r="H35" s="3">
-        <v>-74500</v>
+        <v>-75100</v>
       </c>
       <c r="I35" s="3">
-        <v>-838100</v>
+        <v>-844500</v>
       </c>
       <c r="J35" s="3">
-        <v>314400</v>
+        <v>316800</v>
       </c>
       <c r="K35" s="3">
         <v>122100</v>
@@ -2147,25 +2147,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4336100</v>
+        <v>4369300</v>
       </c>
       <c r="E41" s="3">
-        <v>3610300</v>
+        <v>3637900</v>
       </c>
       <c r="F41" s="3">
-        <v>2833100</v>
+        <v>2854800</v>
       </c>
       <c r="G41" s="3">
-        <v>3946100</v>
+        <v>3976300</v>
       </c>
       <c r="H41" s="3">
-        <v>2958400</v>
+        <v>2981000</v>
       </c>
       <c r="I41" s="3">
-        <v>3772000</v>
+        <v>3800900</v>
       </c>
       <c r="J41" s="3">
-        <v>3119100</v>
+        <v>3143100</v>
       </c>
       <c r="K41" s="3">
         <v>2822500</v>
@@ -2197,25 +2197,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5524400</v>
+        <v>5566700</v>
       </c>
       <c r="E42" s="3">
-        <v>4803100</v>
+        <v>4839900</v>
       </c>
       <c r="F42" s="3">
-        <v>3885800</v>
+        <v>3915600</v>
       </c>
       <c r="G42" s="3">
-        <v>3479400</v>
+        <v>3506100</v>
       </c>
       <c r="H42" s="3">
-        <v>3739600</v>
+        <v>3768300</v>
       </c>
       <c r="I42" s="3">
-        <v>3925400</v>
+        <v>3955500</v>
       </c>
       <c r="J42" s="3">
-        <v>3610000</v>
+        <v>3637600</v>
       </c>
       <c r="K42" s="3">
         <v>4014100</v>
@@ -2247,25 +2247,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>835900</v>
+        <v>842300</v>
       </c>
       <c r="E43" s="3">
-        <v>681500</v>
+        <v>686700</v>
       </c>
       <c r="F43" s="3">
-        <v>927000</v>
+        <v>934100</v>
       </c>
       <c r="G43" s="3">
-        <v>905500</v>
+        <v>912500</v>
       </c>
       <c r="H43" s="3">
-        <v>803000</v>
+        <v>809200</v>
       </c>
       <c r="I43" s="3">
-        <v>798100</v>
+        <v>804300</v>
       </c>
       <c r="J43" s="3">
-        <v>1634500</v>
+        <v>1647000</v>
       </c>
       <c r="K43" s="3">
         <v>1431200</v>
@@ -2347,25 +2347,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1624600</v>
+        <v>1637100</v>
       </c>
       <c r="E45" s="3">
-        <v>1532100</v>
+        <v>1543800</v>
       </c>
       <c r="F45" s="3">
-        <v>1436300</v>
+        <v>1447300</v>
       </c>
       <c r="G45" s="3">
-        <v>1967800</v>
+        <v>1982900</v>
       </c>
       <c r="H45" s="3">
-        <v>2439700</v>
+        <v>2458400</v>
       </c>
       <c r="I45" s="3">
-        <v>1625700</v>
+        <v>1638200</v>
       </c>
       <c r="J45" s="3">
-        <v>2275400</v>
+        <v>2292900</v>
       </c>
       <c r="K45" s="3">
         <v>3369700</v>
@@ -2397,25 +2397,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12321000</v>
+        <v>12415400</v>
       </c>
       <c r="E46" s="3">
-        <v>10627000</v>
+        <v>10708400</v>
       </c>
       <c r="F46" s="3">
-        <v>9082200</v>
+        <v>9151800</v>
       </c>
       <c r="G46" s="3">
-        <v>10298800</v>
+        <v>10377800</v>
       </c>
       <c r="H46" s="3">
-        <v>9940600</v>
+        <v>10016800</v>
       </c>
       <c r="I46" s="3">
-        <v>10121300</v>
+        <v>10198900</v>
       </c>
       <c r="J46" s="3">
-        <v>10639000</v>
+        <v>10720600</v>
       </c>
       <c r="K46" s="3">
         <v>11637500</v>
@@ -2447,25 +2447,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7364400</v>
+        <v>7420900</v>
       </c>
       <c r="E47" s="3">
-        <v>7553400</v>
+        <v>7611300</v>
       </c>
       <c r="F47" s="3">
-        <v>7509900</v>
+        <v>7567400</v>
       </c>
       <c r="G47" s="3">
-        <v>7985000</v>
+        <v>8046200</v>
       </c>
       <c r="H47" s="3">
-        <v>8400900</v>
+        <v>8465200</v>
       </c>
       <c r="I47" s="3">
-        <v>8039800</v>
+        <v>8101400</v>
       </c>
       <c r="J47" s="3">
-        <v>8035300</v>
+        <v>8096900</v>
       </c>
       <c r="K47" s="3">
         <v>7340700</v>
@@ -2497,25 +2497,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1036300</v>
+        <v>1044200</v>
       </c>
       <c r="E48" s="3">
-        <v>1067900</v>
+        <v>1076100</v>
       </c>
       <c r="F48" s="3">
-        <v>1059400</v>
+        <v>1067600</v>
       </c>
       <c r="G48" s="3">
-        <v>1043900</v>
+        <v>1051900</v>
       </c>
       <c r="H48" s="3">
-        <v>1061500</v>
+        <v>1069600</v>
       </c>
       <c r="I48" s="3">
-        <v>1136900</v>
+        <v>1145700</v>
       </c>
       <c r="J48" s="3">
-        <v>1149500</v>
+        <v>1158300</v>
       </c>
       <c r="K48" s="3">
         <v>1073400</v>
@@ -2547,25 +2547,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11355300</v>
+        <v>11442300</v>
       </c>
       <c r="E49" s="3">
-        <v>11363600</v>
+        <v>11450700</v>
       </c>
       <c r="F49" s="3">
-        <v>11381400</v>
+        <v>11468700</v>
       </c>
       <c r="G49" s="3">
-        <v>11417100</v>
+        <v>11504600</v>
       </c>
       <c r="H49" s="3">
-        <v>11374200</v>
+        <v>11461400</v>
       </c>
       <c r="I49" s="3">
-        <v>11188700</v>
+        <v>11274500</v>
       </c>
       <c r="J49" s="3">
-        <v>11205300</v>
+        <v>11291200</v>
       </c>
       <c r="K49" s="3">
         <v>10976900</v>
@@ -2697,25 +2697,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>331800</v>
+        <v>334300</v>
       </c>
       <c r="E52" s="3">
-        <v>299700</v>
+        <v>302000</v>
       </c>
       <c r="F52" s="3">
-        <v>282700</v>
+        <v>284900</v>
       </c>
       <c r="G52" s="3">
-        <v>285100</v>
+        <v>287300</v>
       </c>
       <c r="H52" s="3">
-        <v>299200</v>
+        <v>301500</v>
       </c>
       <c r="I52" s="3">
-        <v>308700</v>
+        <v>311100</v>
       </c>
       <c r="J52" s="3">
-        <v>309400</v>
+        <v>311700</v>
       </c>
       <c r="K52" s="3">
         <v>242200</v>
@@ -2797,25 +2797,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32408700</v>
+        <v>32657100</v>
       </c>
       <c r="E54" s="3">
-        <v>30911500</v>
+        <v>31148400</v>
       </c>
       <c r="F54" s="3">
-        <v>29315700</v>
+        <v>29540400</v>
       </c>
       <c r="G54" s="3">
-        <v>31030000</v>
+        <v>31267900</v>
       </c>
       <c r="H54" s="3">
-        <v>31076400</v>
+        <v>31314600</v>
       </c>
       <c r="I54" s="3">
-        <v>30795500</v>
+        <v>31031500</v>
       </c>
       <c r="J54" s="3">
-        <v>31338500</v>
+        <v>31578700</v>
       </c>
       <c r="K54" s="3">
         <v>31270700</v>
@@ -2887,25 +2887,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1029700</v>
+        <v>1037600</v>
       </c>
       <c r="E57" s="3">
-        <v>778600</v>
+        <v>784500</v>
       </c>
       <c r="F57" s="3">
-        <v>705500</v>
+        <v>710900</v>
       </c>
       <c r="G57" s="3">
-        <v>1113000</v>
+        <v>1121500</v>
       </c>
       <c r="H57" s="3">
-        <v>701100</v>
+        <v>706400</v>
       </c>
       <c r="I57" s="3">
-        <v>771700</v>
+        <v>777600</v>
       </c>
       <c r="J57" s="3">
-        <v>1924700</v>
+        <v>1939500</v>
       </c>
       <c r="K57" s="3">
         <v>2061200</v>
@@ -2937,25 +2937,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6413800</v>
+        <v>6463000</v>
       </c>
       <c r="E58" s="3">
-        <v>6387000</v>
+        <v>6436000</v>
       </c>
       <c r="F58" s="3">
-        <v>5270600</v>
+        <v>5311000</v>
       </c>
       <c r="G58" s="3">
-        <v>5374400</v>
+        <v>5415600</v>
       </c>
       <c r="H58" s="3">
-        <v>6590700</v>
+        <v>6641200</v>
       </c>
       <c r="I58" s="3">
-        <v>6322200</v>
+        <v>6370700</v>
       </c>
       <c r="J58" s="3">
-        <v>4777600</v>
+        <v>4814200</v>
       </c>
       <c r="K58" s="3">
         <v>5658900</v>
@@ -2987,25 +2987,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3291800</v>
+        <v>3317100</v>
       </c>
       <c r="E59" s="3">
-        <v>3110700</v>
+        <v>3134500</v>
       </c>
       <c r="F59" s="3">
-        <v>3162200</v>
+        <v>3186400</v>
       </c>
       <c r="G59" s="3">
-        <v>3119100</v>
+        <v>3143100</v>
       </c>
       <c r="H59" s="3">
-        <v>3128400</v>
+        <v>3152400</v>
       </c>
       <c r="I59" s="3">
-        <v>3520900</v>
+        <v>3547900</v>
       </c>
       <c r="J59" s="3">
-        <v>4128800</v>
+        <v>4160400</v>
       </c>
       <c r="K59" s="3">
         <v>3692600</v>
@@ -3037,25 +3037,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10735300</v>
+        <v>10817600</v>
       </c>
       <c r="E60" s="3">
-        <v>10276300</v>
+        <v>10355100</v>
       </c>
       <c r="F60" s="3">
-        <v>9138300</v>
+        <v>9208300</v>
       </c>
       <c r="G60" s="3">
-        <v>9606500</v>
+        <v>9680200</v>
       </c>
       <c r="H60" s="3">
-        <v>10420200</v>
+        <v>10500000</v>
       </c>
       <c r="I60" s="3">
-        <v>10614800</v>
+        <v>10696100</v>
       </c>
       <c r="J60" s="3">
-        <v>10831100</v>
+        <v>10914200</v>
       </c>
       <c r="K60" s="3">
         <v>11412700</v>
@@ -3087,25 +3087,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3555900</v>
+        <v>3583200</v>
       </c>
       <c r="E61" s="3">
-        <v>3656600</v>
+        <v>3684600</v>
       </c>
       <c r="F61" s="3">
-        <v>3556700</v>
+        <v>3584000</v>
       </c>
       <c r="G61" s="3">
-        <v>5050500</v>
+        <v>5089200</v>
       </c>
       <c r="H61" s="3">
-        <v>4394200</v>
+        <v>4427800</v>
       </c>
       <c r="I61" s="3">
-        <v>3646600</v>
+        <v>3674500</v>
       </c>
       <c r="J61" s="3">
-        <v>3058700</v>
+        <v>3082200</v>
       </c>
       <c r="K61" s="3">
         <v>3172000</v>
@@ -3137,25 +3137,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>687600</v>
+        <v>692900</v>
       </c>
       <c r="E62" s="3">
-        <v>730400</v>
+        <v>736000</v>
       </c>
       <c r="F62" s="3">
-        <v>719400</v>
+        <v>724900</v>
       </c>
       <c r="G62" s="3">
-        <v>673100</v>
+        <v>678200</v>
       </c>
       <c r="H62" s="3">
-        <v>674600</v>
+        <v>679800</v>
       </c>
       <c r="I62" s="3">
-        <v>719900</v>
+        <v>725400</v>
       </c>
       <c r="J62" s="3">
-        <v>721000</v>
+        <v>726500</v>
       </c>
       <c r="K62" s="3">
         <v>698100</v>
@@ -3337,25 +3337,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15125300</v>
+        <v>15241200</v>
       </c>
       <c r="E66" s="3">
-        <v>14811400</v>
+        <v>14924900</v>
       </c>
       <c r="F66" s="3">
-        <v>13604300</v>
+        <v>13708600</v>
       </c>
       <c r="G66" s="3">
-        <v>15575200</v>
+        <v>15694600</v>
       </c>
       <c r="H66" s="3">
-        <v>15807200</v>
+        <v>15928400</v>
       </c>
       <c r="I66" s="3">
-        <v>15512600</v>
+        <v>15631500</v>
       </c>
       <c r="J66" s="3">
-        <v>15143600</v>
+        <v>15259700</v>
       </c>
       <c r="K66" s="3">
         <v>15770800</v>
@@ -3613,7 +3613,7 @@
         <v>16</v>
       </c>
       <c r="F72" s="3">
-        <v>3148000</v>
+        <v>3172100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
@@ -3625,7 +3625,7 @@
         <v>16</v>
       </c>
       <c r="J72" s="3">
-        <v>3669500</v>
+        <v>3697600</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
@@ -3807,25 +3807,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17283400</v>
+        <v>17415900</v>
       </c>
       <c r="E76" s="3">
-        <v>16100200</v>
+        <v>16223600</v>
       </c>
       <c r="F76" s="3">
-        <v>15711400</v>
+        <v>15831800</v>
       </c>
       <c r="G76" s="3">
-        <v>15454800</v>
+        <v>15573300</v>
       </c>
       <c r="H76" s="3">
-        <v>15269100</v>
+        <v>15386200</v>
       </c>
       <c r="I76" s="3">
-        <v>15282900</v>
+        <v>15400100</v>
       </c>
       <c r="J76" s="3">
-        <v>16194900</v>
+        <v>16319000</v>
       </c>
       <c r="K76" s="3">
         <v>15499900</v>
@@ -3962,25 +3962,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-101300</v>
+        <v>-102100</v>
       </c>
       <c r="E81" s="3">
-        <v>278700</v>
+        <v>280800</v>
       </c>
       <c r="F81" s="3">
-        <v>157200</v>
+        <v>158400</v>
       </c>
       <c r="G81" s="3">
-        <v>247100</v>
+        <v>248900</v>
       </c>
       <c r="H81" s="3">
-        <v>-74500</v>
+        <v>-75100</v>
       </c>
       <c r="I81" s="3">
-        <v>-838100</v>
+        <v>-844500</v>
       </c>
       <c r="J81" s="3">
-        <v>314400</v>
+        <v>316800</v>
       </c>
       <c r="K81" s="3">
         <v>122100</v>
@@ -4050,7 +4050,7 @@
         <v>16</v>
       </c>
       <c r="J83" s="3">
-        <v>171600</v>
+        <v>172900</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>16</v>
       </c>
       <c r="J89" s="3">
-        <v>1148100</v>
+        <v>1156900</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -4420,7 +4420,7 @@
         <v>16</v>
       </c>
       <c r="J91" s="3">
-        <v>-128800</v>
+        <v>-129800</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4570,7 +4570,7 @@
         <v>16</v>
       </c>
       <c r="J94" s="3">
-        <v>-377800</v>
+        <v>-380700</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>16</v>
       </c>
       <c r="J100" s="3">
-        <v>-1449100</v>
+        <v>-1460200</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>16</v>
       </c>
       <c r="J101" s="3">
-        <v>48400</v>
+        <v>48700</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4940,7 +4940,7 @@
         <v>16</v>
       </c>
       <c r="J102" s="3">
-        <v>-630500</v>
+        <v>-635300</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>TCOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,257 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>929200</v>
+        <v>689800</v>
       </c>
       <c r="E8" s="3">
-        <v>648100</v>
+        <v>787500</v>
       </c>
       <c r="F8" s="3">
-        <v>783100</v>
+        <v>868000</v>
       </c>
       <c r="G8" s="3">
-        <v>861700</v>
+        <v>605400</v>
       </c>
       <c r="H8" s="3">
-        <v>498400</v>
+        <v>731500</v>
       </c>
       <c r="I8" s="3">
+        <v>804900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>465500</v>
+      </c>
+      <c r="K8" s="3">
         <v>746400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1314900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1613100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1327800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1241900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1150000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1358600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1050100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>965800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>885700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>192900</v>
+        <v>164700</v>
       </c>
       <c r="E9" s="3">
-        <v>163100</v>
+        <v>180200</v>
       </c>
       <c r="F9" s="3">
-        <v>143600</v>
+        <v>180200</v>
       </c>
       <c r="G9" s="3">
-        <v>162300</v>
+        <v>152400</v>
       </c>
       <c r="H9" s="3">
-        <v>137600</v>
+        <v>134100</v>
       </c>
       <c r="I9" s="3">
+        <v>151600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>128500</v>
+      </c>
+      <c r="K9" s="3">
         <v>192500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>272600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>332100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>274700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>256900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>246400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>289200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>210800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>178500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>152200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>736300</v>
+        <v>525000</v>
       </c>
       <c r="E10" s="3">
-        <v>485000</v>
+        <v>607300</v>
       </c>
       <c r="F10" s="3">
-        <v>639600</v>
+        <v>687700</v>
       </c>
       <c r="G10" s="3">
-        <v>699400</v>
+        <v>453000</v>
       </c>
       <c r="H10" s="3">
-        <v>360800</v>
+        <v>597400</v>
       </c>
       <c r="I10" s="3">
+        <v>653200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>337000</v>
+      </c>
+      <c r="K10" s="3">
         <v>553900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1042300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1281000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1053100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>985000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>903600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1069500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>839400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>787300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +934,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>351200</v>
+        <v>329500</v>
       </c>
       <c r="E12" s="3">
-        <v>351000</v>
+        <v>339700</v>
       </c>
       <c r="F12" s="3">
-        <v>341100</v>
+        <v>328000</v>
       </c>
       <c r="G12" s="3">
-        <v>316800</v>
+        <v>327900</v>
       </c>
       <c r="H12" s="3">
-        <v>284100</v>
+        <v>318600</v>
       </c>
       <c r="I12" s="3">
+        <v>295900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>265400</v>
+      </c>
+      <c r="K12" s="3">
         <v>267600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>425000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>429600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>403600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>387000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>413500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>361800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>323000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>309900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1059,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1109,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>877800</v>
+        <v>793500</v>
       </c>
       <c r="E17" s="3">
-        <v>772200</v>
+        <v>823700</v>
       </c>
       <c r="F17" s="3">
-        <v>785600</v>
+        <v>819900</v>
       </c>
       <c r="G17" s="3">
-        <v>737100</v>
+        <v>721300</v>
       </c>
       <c r="H17" s="3">
-        <v>606900</v>
+        <v>733900</v>
       </c>
       <c r="I17" s="3">
+        <v>688500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>566900</v>
+      </c>
+      <c r="K17" s="3">
         <v>984400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1223400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1267900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1124200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1107300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1178800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1143700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>946300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>881100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>842200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>51400</v>
+        <v>-103700</v>
       </c>
       <c r="E18" s="3">
-        <v>-124200</v>
+        <v>-36300</v>
       </c>
       <c r="F18" s="3">
-        <v>-2500</v>
+        <v>48000</v>
       </c>
       <c r="G18" s="3">
-        <v>124600</v>
+        <v>-116000</v>
       </c>
       <c r="H18" s="3">
-        <v>-108500</v>
+        <v>-2400</v>
       </c>
       <c r="I18" s="3">
+        <v>116400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-101400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-238100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>91500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>345200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>203700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>134600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-28800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>214900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>103900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>84700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1246,58 +1311,66 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-59300</v>
+        <v>-5000</v>
       </c>
       <c r="E20" s="3">
-        <v>461600</v>
+        <v>15200</v>
       </c>
       <c r="F20" s="3">
-        <v>189000</v>
+        <v>-55400</v>
       </c>
       <c r="G20" s="3">
-        <v>262000</v>
+        <v>431200</v>
       </c>
       <c r="H20" s="3">
-        <v>373700</v>
+        <v>176500</v>
       </c>
       <c r="I20" s="3">
+        <v>244800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>349100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-522800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>364600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-129300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-129900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>776300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-80500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-305600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>370200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>125800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>96600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1319,14 +1392,14 @@
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
-        <v>629000</v>
+      <c r="J21" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
+      <c r="L21" s="3">
+        <v>629000</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>16</v>
@@ -1346,158 +1419,182 @@
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>65900</v>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E22" s="3">
+        <v>125800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>61600</v>
+      </c>
+      <c r="G22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>55600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>63400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>67900</v>
+      </c>
+      <c r="K22" s="3">
+        <v>70700</v>
+      </c>
+      <c r="L22" s="3">
+        <v>61100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>65100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>65100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>67100</v>
+      </c>
+      <c r="P22" s="3">
         <v>64200</v>
       </c>
-      <c r="F22" s="3">
-        <v>59500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>67800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>72700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>70700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>61100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>65100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>65100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>67100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>64200</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>57100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>53200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>46200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-73800</v>
+        <v>-108800</v>
       </c>
       <c r="E23" s="3">
-        <v>273200</v>
+        <v>-146900</v>
       </c>
       <c r="F23" s="3">
-        <v>127000</v>
+        <v>-69000</v>
       </c>
       <c r="G23" s="3">
-        <v>318800</v>
+        <v>255200</v>
       </c>
       <c r="H23" s="3">
-        <v>192500</v>
+        <v>118600</v>
       </c>
       <c r="I23" s="3">
+        <v>297800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>179800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-831600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>395000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>150700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>8700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>843800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-173400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-147700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>420800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>164300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>93500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15300</v>
+        <v>5500</v>
       </c>
       <c r="E24" s="3">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="F24" s="3">
+        <v>14300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>36100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>57400</v>
+      </c>
+      <c r="M24" s="3">
+        <v>56200</v>
+      </c>
+      <c r="N24" s="3">
+        <v>51300</v>
+      </c>
+      <c r="O24" s="3">
+        <v>103000</v>
+      </c>
+      <c r="P24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>37300</v>
+      </c>
+      <c r="R24" s="3">
+        <v>46200</v>
+      </c>
+      <c r="S24" s="3">
         <v>25700</v>
       </c>
-      <c r="G24" s="3">
-        <v>38700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>31700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-40100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>57400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>56200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>51300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>103000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>5300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>37300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>46200</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>25700</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-89100</v>
+        <v>-114200</v>
       </c>
       <c r="E26" s="3">
-        <v>266800</v>
+        <v>-160900</v>
       </c>
       <c r="F26" s="3">
-        <v>101300</v>
+        <v>-83300</v>
       </c>
       <c r="G26" s="3">
-        <v>280200</v>
+        <v>249200</v>
       </c>
       <c r="H26" s="3">
-        <v>160800</v>
+        <v>94600</v>
       </c>
       <c r="I26" s="3">
+        <v>261700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>150200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-791500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>337600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>94500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-42600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>740800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-178700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-185000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>374600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>138600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-102100</v>
+        <v>-122900</v>
       </c>
       <c r="E27" s="3">
-        <v>280800</v>
+        <v>-125100</v>
       </c>
       <c r="F27" s="3">
-        <v>158400</v>
+        <v>-95300</v>
       </c>
       <c r="G27" s="3">
-        <v>248900</v>
+        <v>262300</v>
       </c>
       <c r="H27" s="3">
-        <v>-75100</v>
+        <v>147900</v>
       </c>
       <c r="I27" s="3">
+        <v>232500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-70100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-844500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>316800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>122100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-61600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>701700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-181000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-165400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>341600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>152100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>59300</v>
+        <v>5000</v>
       </c>
       <c r="E32" s="3">
-        <v>-461600</v>
+        <v>-15200</v>
       </c>
       <c r="F32" s="3">
-        <v>-189000</v>
+        <v>55400</v>
       </c>
       <c r="G32" s="3">
-        <v>-262000</v>
+        <v>-431200</v>
       </c>
       <c r="H32" s="3">
-        <v>-373700</v>
+        <v>-176500</v>
       </c>
       <c r="I32" s="3">
+        <v>-244800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-349100</v>
+      </c>
+      <c r="K32" s="3">
         <v>522800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-364600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>129300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>129900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-776300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>80500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>305600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-370200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-125800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-96600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-102100</v>
+        <v>-122900</v>
       </c>
       <c r="E33" s="3">
-        <v>280800</v>
+        <v>-125100</v>
       </c>
       <c r="F33" s="3">
-        <v>158400</v>
+        <v>-95300</v>
       </c>
       <c r="G33" s="3">
-        <v>248900</v>
+        <v>262300</v>
       </c>
       <c r="H33" s="3">
-        <v>-75100</v>
+        <v>147900</v>
       </c>
       <c r="I33" s="3">
+        <v>232500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-70100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-844500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>316800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>122100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-61600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>701700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-181000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-165400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>341600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>152100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-102100</v>
+        <v>-122900</v>
       </c>
       <c r="E35" s="3">
-        <v>280800</v>
+        <v>-125100</v>
       </c>
       <c r="F35" s="3">
-        <v>158400</v>
+        <v>-95300</v>
       </c>
       <c r="G35" s="3">
-        <v>248900</v>
+        <v>262300</v>
       </c>
       <c r="H35" s="3">
-        <v>-75100</v>
+        <v>147900</v>
       </c>
       <c r="I35" s="3">
+        <v>232500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-70100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-844500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>316800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>122100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-61600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>701700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-181000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-165400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>341600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>152100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,158 +2312,178 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4369300</v>
+        <v>2920400</v>
       </c>
       <c r="E41" s="3">
-        <v>3637900</v>
+        <v>3025000</v>
       </c>
       <c r="F41" s="3">
-        <v>2854800</v>
+        <v>4081300</v>
       </c>
       <c r="G41" s="3">
-        <v>3976300</v>
+        <v>3398100</v>
       </c>
       <c r="H41" s="3">
-        <v>2981000</v>
+        <v>2666600</v>
       </c>
       <c r="I41" s="3">
+        <v>3714200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2784500</v>
+      </c>
+      <c r="K41" s="3">
         <v>3800900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3143100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2822500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3514200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3454300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3275100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3121000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3162400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2475500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2617500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5566700</v>
+        <v>4356800</v>
       </c>
       <c r="E42" s="3">
-        <v>4839900</v>
+        <v>5435100</v>
       </c>
       <c r="F42" s="3">
-        <v>3915600</v>
+        <v>5199700</v>
       </c>
       <c r="G42" s="3">
-        <v>3506100</v>
+        <v>4520900</v>
       </c>
       <c r="H42" s="3">
-        <v>3768300</v>
+        <v>3657500</v>
       </c>
       <c r="I42" s="3">
+        <v>3274900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3519800</v>
+      </c>
+      <c r="K42" s="3">
         <v>3955500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3637600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>4014100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>5033900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>5126900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>5590900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>5488700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>4760400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>4896000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>4036100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>842300</v>
+        <v>930400</v>
       </c>
       <c r="E43" s="3">
-        <v>686700</v>
+        <v>768200</v>
       </c>
       <c r="F43" s="3">
-        <v>934100</v>
+        <v>786800</v>
       </c>
       <c r="G43" s="3">
-        <v>912500</v>
+        <v>641500</v>
       </c>
       <c r="H43" s="3">
-        <v>809200</v>
+        <v>872500</v>
       </c>
       <c r="I43" s="3">
+        <v>852300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>755800</v>
+      </c>
+      <c r="K43" s="3">
         <v>804300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1647000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1431200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1577500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>929100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1112000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>987100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>898300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>742900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>735000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,258 +2532,294 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1637100</v>
+        <v>1534000</v>
       </c>
       <c r="E45" s="3">
-        <v>1543800</v>
+        <v>2058900</v>
       </c>
       <c r="F45" s="3">
-        <v>1447300</v>
+        <v>1529200</v>
       </c>
       <c r="G45" s="3">
-        <v>1982900</v>
+        <v>1442100</v>
       </c>
       <c r="H45" s="3">
-        <v>2458400</v>
+        <v>1351900</v>
       </c>
       <c r="I45" s="3">
+        <v>1852200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2296300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1638200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2292900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3369700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2122000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2560200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2099400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2669900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1838400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1400500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1190300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12415400</v>
+        <v>9741700</v>
       </c>
       <c r="E46" s="3">
-        <v>10708400</v>
+        <v>11287200</v>
       </c>
       <c r="F46" s="3">
-        <v>9151800</v>
+        <v>11596900</v>
       </c>
       <c r="G46" s="3">
-        <v>10377800</v>
+        <v>10002500</v>
       </c>
       <c r="H46" s="3">
-        <v>10016800</v>
+        <v>8548500</v>
       </c>
       <c r="I46" s="3">
+        <v>9693600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>9356500</v>
+      </c>
+      <c r="K46" s="3">
         <v>10198900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10720600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>11637500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>12247600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>12070600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>12077400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>12266700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>10659600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>9514900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8525300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7420900</v>
+        <v>6629100</v>
       </c>
       <c r="E47" s="3">
-        <v>7611300</v>
+        <v>6368300</v>
       </c>
       <c r="F47" s="3">
-        <v>7567400</v>
+        <v>6931700</v>
       </c>
       <c r="G47" s="3">
-        <v>8046200</v>
+        <v>7109500</v>
       </c>
       <c r="H47" s="3">
-        <v>8465200</v>
+        <v>7068600</v>
       </c>
       <c r="I47" s="3">
+        <v>7515800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>7907200</v>
+      </c>
+      <c r="K47" s="3">
         <v>8101400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>8096900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>7340700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>5350800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>5212700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>4122900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>3724400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>3907000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>3652100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>3737400</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1044200</v>
+        <v>930000</v>
       </c>
       <c r="E48" s="3">
-        <v>1076100</v>
+        <v>949900</v>
       </c>
       <c r="F48" s="3">
-        <v>1067600</v>
+        <v>975400</v>
       </c>
       <c r="G48" s="3">
-        <v>1051900</v>
+        <v>1005100</v>
       </c>
       <c r="H48" s="3">
-        <v>1069600</v>
+        <v>997200</v>
       </c>
       <c r="I48" s="3">
+        <v>982600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>999100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1145700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1158300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1073400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1059800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1013900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>893200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>847700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>835300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>830000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>805800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11442300</v>
+        <v>10668700</v>
       </c>
       <c r="E49" s="3">
-        <v>11450700</v>
+        <v>10678400</v>
       </c>
       <c r="F49" s="3">
-        <v>11468700</v>
+        <v>10688000</v>
       </c>
       <c r="G49" s="3">
-        <v>11504600</v>
+        <v>10695800</v>
       </c>
       <c r="H49" s="3">
-        <v>11461400</v>
+        <v>10712600</v>
       </c>
       <c r="I49" s="3">
+        <v>10746200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>10705900</v>
+      </c>
+      <c r="K49" s="3">
         <v>11274500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>11291200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>10976900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>10908600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>10878900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>10928800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>10452200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>10276000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>10086500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>10056900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2924,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>334300</v>
+        <v>302800</v>
       </c>
       <c r="E52" s="3">
-        <v>302000</v>
+        <v>315500</v>
       </c>
       <c r="F52" s="3">
-        <v>284900</v>
+        <v>312300</v>
       </c>
       <c r="G52" s="3">
-        <v>287300</v>
+        <v>282000</v>
       </c>
       <c r="H52" s="3">
-        <v>301500</v>
+        <v>266100</v>
       </c>
       <c r="I52" s="3">
+        <v>268300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>281600</v>
+      </c>
+      <c r="K52" s="3">
         <v>311100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>311700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>242200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>266800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>217700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>246100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>211200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>240300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>190500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>186800</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32657100</v>
+        <v>28272300</v>
       </c>
       <c r="E54" s="3">
-        <v>31148400</v>
+        <v>29599300</v>
       </c>
       <c r="F54" s="3">
-        <v>29540400</v>
+        <v>30504300</v>
       </c>
       <c r="G54" s="3">
-        <v>31267900</v>
+        <v>29095100</v>
       </c>
       <c r="H54" s="3">
-        <v>31314600</v>
+        <v>27593000</v>
       </c>
       <c r="I54" s="3">
+        <v>29206600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>29250200</v>
+      </c>
+      <c r="K54" s="3">
         <v>31031500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>31578700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>31270700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>29833700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>29393700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>28268500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>27502200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>25918200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>24274100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>23278200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3140,346 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1037600</v>
+        <v>887000</v>
       </c>
       <c r="E57" s="3">
-        <v>784500</v>
+        <v>1079400</v>
       </c>
       <c r="F57" s="3">
-        <v>710900</v>
+        <v>969200</v>
       </c>
       <c r="G57" s="3">
-        <v>1121500</v>
+        <v>732800</v>
       </c>
       <c r="H57" s="3">
-        <v>706400</v>
+        <v>664000</v>
       </c>
       <c r="I57" s="3">
+        <v>1047600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>659900</v>
+      </c>
+      <c r="K57" s="3">
         <v>777600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1939500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2061200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1974700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1668600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1781900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1975000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1593800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1351000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1070200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6463000</v>
+        <v>5874700</v>
       </c>
       <c r="E58" s="3">
-        <v>6436000</v>
+        <v>6652300</v>
       </c>
       <c r="F58" s="3">
-        <v>5311000</v>
+        <v>6036900</v>
       </c>
       <c r="G58" s="3">
-        <v>5415600</v>
+        <v>6011700</v>
       </c>
       <c r="H58" s="3">
-        <v>6641200</v>
+        <v>4960900</v>
       </c>
       <c r="I58" s="3">
+        <v>5058600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>6203400</v>
+      </c>
+      <c r="K58" s="3">
         <v>6370700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4814200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5658900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5758300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5769000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5478000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>5232100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3509800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2952200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2341000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3317100</v>
+        <v>2996300</v>
       </c>
       <c r="E59" s="3">
-        <v>3134500</v>
+        <v>3101800</v>
       </c>
       <c r="F59" s="3">
-        <v>3186400</v>
+        <v>3098400</v>
       </c>
       <c r="G59" s="3">
-        <v>3143100</v>
+        <v>2927900</v>
       </c>
       <c r="H59" s="3">
-        <v>3152400</v>
+        <v>2976400</v>
       </c>
       <c r="I59" s="3">
+        <v>2935900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2944500</v>
+      </c>
+      <c r="K59" s="3">
         <v>3547900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4160400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3692600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3668900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3135500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3203500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2823300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2821200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2478900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2698200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10817600</v>
+        <v>9757900</v>
       </c>
       <c r="E60" s="3">
-        <v>10355100</v>
+        <v>10833500</v>
       </c>
       <c r="F60" s="3">
-        <v>9208300</v>
+        <v>10104500</v>
       </c>
       <c r="G60" s="3">
-        <v>9680200</v>
+        <v>9672400</v>
       </c>
       <c r="H60" s="3">
-        <v>10500000</v>
+        <v>8601300</v>
       </c>
       <c r="I60" s="3">
+        <v>9042000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>9807800</v>
+      </c>
+      <c r="K60" s="3">
         <v>10696100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>10914200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>11412700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>11401800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>10573100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>10463400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>10030300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7924800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>6782200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6049400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3583200</v>
+        <v>1634700</v>
       </c>
       <c r="E61" s="3">
-        <v>3684600</v>
+        <v>1808300</v>
       </c>
       <c r="F61" s="3">
-        <v>3584000</v>
+        <v>3347000</v>
       </c>
       <c r="G61" s="3">
-        <v>5089200</v>
+        <v>3441700</v>
       </c>
       <c r="H61" s="3">
-        <v>4427800</v>
+        <v>3347700</v>
       </c>
       <c r="I61" s="3">
+        <v>4753700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4136000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3674500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3082200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3172000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3311200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3721600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3673100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3785000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4291800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4171300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>4192500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>692900</v>
+        <v>603000</v>
       </c>
       <c r="E62" s="3">
-        <v>736000</v>
+        <v>611100</v>
       </c>
       <c r="F62" s="3">
-        <v>724900</v>
+        <v>647200</v>
       </c>
       <c r="G62" s="3">
-        <v>678200</v>
+        <v>687400</v>
       </c>
       <c r="H62" s="3">
-        <v>679800</v>
+        <v>677100</v>
       </c>
       <c r="I62" s="3">
+        <v>633500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>635000</v>
+      </c>
+      <c r="K62" s="3">
         <v>725400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>726500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>698100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>683800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>748700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>633900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>618100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>649800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>592000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>608800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15241200</v>
+        <v>12110300</v>
       </c>
       <c r="E66" s="3">
-        <v>14924900</v>
+        <v>13389000</v>
       </c>
       <c r="F66" s="3">
-        <v>13708600</v>
+        <v>14236400</v>
       </c>
       <c r="G66" s="3">
-        <v>15694600</v>
+        <v>13941000</v>
       </c>
       <c r="H66" s="3">
-        <v>15928400</v>
+        <v>12804800</v>
       </c>
       <c r="I66" s="3">
+        <v>14660000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>14878300</v>
+      </c>
+      <c r="K66" s="3">
         <v>15631500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>15259700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>15770800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>15766100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>15412600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>15077400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>14757400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>13139500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>11814400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>11105900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>16</v>
+      <c r="D72" s="3">
+        <v>2881900</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="3">
-        <v>3172100</v>
+      <c r="F72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>16</v>
+      <c r="H72" s="3">
+        <v>2963000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J72" s="3">
-        <v>3697600</v>
+      <c r="J72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L72" s="3">
-        <v>3152900</v>
+        <v>3697600</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N72" s="3">
-        <v>2498900</v>
+        <v>3152900</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="P72" s="3">
+        <v>2498900</v>
+      </c>
+      <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S72" s="3">
         <v>2379000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>2227000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17415900</v>
+        <v>16162000</v>
       </c>
       <c r="E76" s="3">
-        <v>16223600</v>
+        <v>16210300</v>
       </c>
       <c r="F76" s="3">
-        <v>15831800</v>
+        <v>16267800</v>
       </c>
       <c r="G76" s="3">
-        <v>15573300</v>
+        <v>15154100</v>
       </c>
       <c r="H76" s="3">
-        <v>15386200</v>
+        <v>14788200</v>
       </c>
       <c r="I76" s="3">
+        <v>14546600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>14371900</v>
+      </c>
+      <c r="K76" s="3">
         <v>15400100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>16319000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>15499900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>14067500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>13981000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>13191100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>12744800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>12778800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>12459700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>12172300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-102100</v>
+        <v>-122900</v>
       </c>
       <c r="E81" s="3">
-        <v>280800</v>
+        <v>-125100</v>
       </c>
       <c r="F81" s="3">
-        <v>158400</v>
+        <v>-95300</v>
       </c>
       <c r="G81" s="3">
-        <v>248900</v>
+        <v>262300</v>
       </c>
       <c r="H81" s="3">
-        <v>-75100</v>
+        <v>147900</v>
       </c>
       <c r="I81" s="3">
+        <v>232500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-70100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-844500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>316800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>122100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-61600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>701700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-181000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-165400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>341600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>152100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,38 +4421,40 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>172900</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -4076,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,38 +4753,44 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1156900</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4376,8 +4809,14 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,38 +4835,40 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-129800</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -4446,8 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,38 +4999,44 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-380700</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4596,8 +5055,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,38 +5301,44 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1460200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4866,38 +5357,44 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>48700</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -4916,38 +5413,44 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-635300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4964,6 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>TCOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>689800</v>
+        <v>600000</v>
       </c>
       <c r="E8" s="3">
-        <v>787500</v>
+        <v>683600</v>
       </c>
       <c r="F8" s="3">
-        <v>868000</v>
+        <v>780400</v>
       </c>
       <c r="G8" s="3">
-        <v>605400</v>
+        <v>860100</v>
       </c>
       <c r="H8" s="3">
-        <v>731500</v>
+        <v>599900</v>
       </c>
       <c r="I8" s="3">
-        <v>804900</v>
+        <v>724900</v>
       </c>
       <c r="J8" s="3">
+        <v>797600</v>
+      </c>
+      <c r="K8" s="3">
         <v>465500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>746400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1314900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1613100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1327800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1241900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1150000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1358600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1050100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>965800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>885700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>164700</v>
+        <v>155800</v>
       </c>
       <c r="E9" s="3">
-        <v>180200</v>
+        <v>163300</v>
       </c>
       <c r="F9" s="3">
-        <v>180200</v>
+        <v>178600</v>
       </c>
       <c r="G9" s="3">
-        <v>152400</v>
+        <v>178600</v>
       </c>
       <c r="H9" s="3">
-        <v>134100</v>
+        <v>151000</v>
       </c>
       <c r="I9" s="3">
-        <v>151600</v>
+        <v>132900</v>
       </c>
       <c r="J9" s="3">
+        <v>150300</v>
+      </c>
+      <c r="K9" s="3">
         <v>128500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>192500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>272600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>332100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>274700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>256900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>246400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>289200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>210800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>178500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>152200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>525000</v>
+        <v>444200</v>
       </c>
       <c r="E10" s="3">
-        <v>607300</v>
+        <v>520300</v>
       </c>
       <c r="F10" s="3">
-        <v>687700</v>
+        <v>601800</v>
       </c>
       <c r="G10" s="3">
-        <v>453000</v>
+        <v>681500</v>
       </c>
       <c r="H10" s="3">
-        <v>597400</v>
+        <v>448900</v>
       </c>
       <c r="I10" s="3">
-        <v>653200</v>
+        <v>592000</v>
       </c>
       <c r="J10" s="3">
+        <v>647400</v>
+      </c>
+      <c r="K10" s="3">
         <v>337000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>553900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1042300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1281000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1053100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>985000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>903600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1069500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>839400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>787300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>329500</v>
+        <v>288300</v>
       </c>
       <c r="E12" s="3">
-        <v>339700</v>
+        <v>326500</v>
       </c>
       <c r="F12" s="3">
-        <v>328000</v>
+        <v>336600</v>
       </c>
       <c r="G12" s="3">
-        <v>327900</v>
+        <v>325100</v>
       </c>
       <c r="H12" s="3">
-        <v>318600</v>
+        <v>324900</v>
       </c>
       <c r="I12" s="3">
-        <v>295900</v>
+        <v>315700</v>
       </c>
       <c r="J12" s="3">
+        <v>293200</v>
+      </c>
+      <c r="K12" s="3">
         <v>265400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>267600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>425000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>429600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>403600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>387000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>413500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>361800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>323000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>309900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>793500</v>
+        <v>652500</v>
       </c>
       <c r="E17" s="3">
-        <v>823700</v>
+        <v>786400</v>
       </c>
       <c r="F17" s="3">
-        <v>819900</v>
+        <v>816300</v>
       </c>
       <c r="G17" s="3">
-        <v>721300</v>
+        <v>812500</v>
       </c>
       <c r="H17" s="3">
-        <v>733900</v>
+        <v>714800</v>
       </c>
       <c r="I17" s="3">
-        <v>688500</v>
+        <v>727200</v>
       </c>
       <c r="J17" s="3">
+        <v>682300</v>
+      </c>
+      <c r="K17" s="3">
         <v>566900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>984400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1223400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1267900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1124200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1107300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1178800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1143700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>946300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>881100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>842200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-103700</v>
+        <v>-52400</v>
       </c>
       <c r="E18" s="3">
-        <v>-36300</v>
+        <v>-102800</v>
       </c>
       <c r="F18" s="3">
-        <v>48000</v>
+        <v>-35900</v>
       </c>
       <c r="G18" s="3">
-        <v>-116000</v>
+        <v>47600</v>
       </c>
       <c r="H18" s="3">
-        <v>-2400</v>
+        <v>-114900</v>
       </c>
       <c r="I18" s="3">
-        <v>116400</v>
+        <v>-2300</v>
       </c>
       <c r="J18" s="3">
+        <v>115400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-101400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-238100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>91500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>345200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>203700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>134600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-28800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>214900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>103900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>84700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,64 +1346,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5000</v>
       </c>
-      <c r="E20" s="3">
-        <v>15200</v>
-      </c>
       <c r="F20" s="3">
-        <v>-55400</v>
+        <v>15000</v>
       </c>
       <c r="G20" s="3">
-        <v>431200</v>
+        <v>-54900</v>
       </c>
       <c r="H20" s="3">
-        <v>176500</v>
+        <v>427300</v>
       </c>
       <c r="I20" s="3">
-        <v>244800</v>
+        <v>174900</v>
       </c>
       <c r="J20" s="3">
+        <v>242600</v>
+      </c>
+      <c r="K20" s="3">
         <v>349100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-522800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>364600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-129300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-129900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>776300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-80500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-305600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>370200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>125800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>96600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1398,11 +1435,11 @@
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>629000</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
@@ -1425,176 +1462,188 @@
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="3">
-        <v>125800</v>
-      </c>
       <c r="F22" s="3">
-        <v>61600</v>
+        <v>124700</v>
       </c>
       <c r="G22" s="3">
-        <v>60000</v>
+        <v>61000</v>
       </c>
       <c r="H22" s="3">
-        <v>55600</v>
+        <v>59400</v>
       </c>
       <c r="I22" s="3">
-        <v>63400</v>
+        <v>55100</v>
       </c>
       <c r="J22" s="3">
+        <v>62800</v>
+      </c>
+      <c r="K22" s="3">
         <v>67900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>70700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>61100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>65100</v>
       </c>
       <c r="N22" s="3">
         <v>65100</v>
       </c>
       <c r="O22" s="3">
+        <v>65100</v>
+      </c>
+      <c r="P22" s="3">
         <v>67100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>64200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>57100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>53200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>46200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-108800</v>
+        <v>-119200</v>
       </c>
       <c r="E23" s="3">
-        <v>-146900</v>
+        <v>-107800</v>
       </c>
       <c r="F23" s="3">
-        <v>-69000</v>
+        <v>-145600</v>
       </c>
       <c r="G23" s="3">
-        <v>255200</v>
+        <v>-68300</v>
       </c>
       <c r="H23" s="3">
-        <v>118600</v>
+        <v>252900</v>
       </c>
       <c r="I23" s="3">
-        <v>297800</v>
+        <v>117600</v>
       </c>
       <c r="J23" s="3">
+        <v>295100</v>
+      </c>
+      <c r="K23" s="3">
         <v>179800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-831600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>395000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>150700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>843800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-173400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-147700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>420800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>164300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>93500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5500</v>
+        <v>-2000</v>
       </c>
       <c r="E24" s="3">
-        <v>14000</v>
+        <v>5400</v>
       </c>
       <c r="F24" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="G24" s="3">
+        <v>14200</v>
+      </c>
+      <c r="H24" s="3">
         <v>6000</v>
       </c>
-      <c r="H24" s="3">
-        <v>24000</v>
-      </c>
       <c r="I24" s="3">
-        <v>36100</v>
+        <v>23800</v>
       </c>
       <c r="J24" s="3">
+        <v>35800</v>
+      </c>
+      <c r="K24" s="3">
         <v>29600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-40100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>57400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>56200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>51300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>103000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>37300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>46200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>25700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-114200</v>
+        <v>-117100</v>
       </c>
       <c r="E26" s="3">
-        <v>-160900</v>
+        <v>-113200</v>
       </c>
       <c r="F26" s="3">
-        <v>-83300</v>
+        <v>-159500</v>
       </c>
       <c r="G26" s="3">
-        <v>249200</v>
+        <v>-82500</v>
       </c>
       <c r="H26" s="3">
-        <v>94600</v>
+        <v>246900</v>
       </c>
       <c r="I26" s="3">
-        <v>261700</v>
+        <v>93800</v>
       </c>
       <c r="J26" s="3">
+        <v>259300</v>
+      </c>
+      <c r="K26" s="3">
         <v>150200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-791500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>337600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>94500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-42600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>740800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-178700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-185000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>374600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>138600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-122900</v>
+        <v>-144400</v>
       </c>
       <c r="E27" s="3">
-        <v>-125100</v>
+        <v>-121800</v>
       </c>
       <c r="F27" s="3">
-        <v>-95300</v>
+        <v>-124000</v>
       </c>
       <c r="G27" s="3">
-        <v>262300</v>
+        <v>-94500</v>
       </c>
       <c r="H27" s="3">
-        <v>147900</v>
+        <v>259900</v>
       </c>
       <c r="I27" s="3">
-        <v>232500</v>
+        <v>146600</v>
       </c>
       <c r="J27" s="3">
+        <v>230400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-70100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-844500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>316800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>122100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-61600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>701700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-181000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-165400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>341600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>152100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E32" s="3">
         <v>5000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-15200</v>
-      </c>
       <c r="F32" s="3">
-        <v>55400</v>
+        <v>-15000</v>
       </c>
       <c r="G32" s="3">
-        <v>-431200</v>
+        <v>54900</v>
       </c>
       <c r="H32" s="3">
-        <v>-176500</v>
+        <v>-427300</v>
       </c>
       <c r="I32" s="3">
-        <v>-244800</v>
+        <v>-174900</v>
       </c>
       <c r="J32" s="3">
+        <v>-242600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-349100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>522800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-364600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>129300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>129900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-776300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>80500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>305600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-370200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-125800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-96600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-122900</v>
+        <v>-144400</v>
       </c>
       <c r="E33" s="3">
-        <v>-125100</v>
+        <v>-121800</v>
       </c>
       <c r="F33" s="3">
-        <v>-95300</v>
+        <v>-124000</v>
       </c>
       <c r="G33" s="3">
-        <v>262300</v>
+        <v>-94500</v>
       </c>
       <c r="H33" s="3">
-        <v>147900</v>
+        <v>259900</v>
       </c>
       <c r="I33" s="3">
-        <v>232500</v>
+        <v>146600</v>
       </c>
       <c r="J33" s="3">
+        <v>230400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-70100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-844500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>316800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>122100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-61600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>701700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-181000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-165400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>341600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>152100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-122900</v>
+        <v>-144400</v>
       </c>
       <c r="E35" s="3">
-        <v>-125100</v>
+        <v>-121800</v>
       </c>
       <c r="F35" s="3">
-        <v>-95300</v>
+        <v>-124000</v>
       </c>
       <c r="G35" s="3">
-        <v>262300</v>
+        <v>-94500</v>
       </c>
       <c r="H35" s="3">
-        <v>147900</v>
+        <v>259900</v>
       </c>
       <c r="I35" s="3">
-        <v>232500</v>
+        <v>146600</v>
       </c>
       <c r="J35" s="3">
+        <v>230400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-70100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-844500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>316800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>122100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-61600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>701700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-181000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-165400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>341600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>152100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,176 +2400,186 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2920400</v>
+        <v>3046300</v>
       </c>
       <c r="E41" s="3">
-        <v>3025000</v>
+        <v>2894000</v>
       </c>
       <c r="F41" s="3">
-        <v>4081300</v>
+        <v>2997700</v>
       </c>
       <c r="G41" s="3">
-        <v>3398100</v>
+        <v>4044400</v>
       </c>
       <c r="H41" s="3">
-        <v>2666600</v>
+        <v>3367500</v>
       </c>
       <c r="I41" s="3">
-        <v>3714200</v>
+        <v>2642600</v>
       </c>
       <c r="J41" s="3">
+        <v>3680700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2784500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3800900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3143100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2822500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3514200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3454300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3275100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3121000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3162400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2475500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2617500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4356800</v>
+        <v>4434800</v>
       </c>
       <c r="E42" s="3">
-        <v>5435100</v>
+        <v>4317500</v>
       </c>
       <c r="F42" s="3">
-        <v>5199700</v>
+        <v>5386000</v>
       </c>
       <c r="G42" s="3">
-        <v>4520900</v>
+        <v>5152800</v>
       </c>
       <c r="H42" s="3">
-        <v>3657500</v>
+        <v>4480100</v>
       </c>
       <c r="I42" s="3">
-        <v>3274900</v>
+        <v>3624500</v>
       </c>
       <c r="J42" s="3">
+        <v>3245400</v>
+      </c>
+      <c r="K42" s="3">
         <v>3519800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3955500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3637600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4014100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5033900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5126900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5590900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5488700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4760400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4896000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4036100</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>930400</v>
+        <v>581100</v>
       </c>
       <c r="E43" s="3">
-        <v>768200</v>
+        <v>922000</v>
       </c>
       <c r="F43" s="3">
-        <v>786800</v>
+        <v>761300</v>
       </c>
       <c r="G43" s="3">
-        <v>641500</v>
+        <v>779700</v>
       </c>
       <c r="H43" s="3">
-        <v>872500</v>
+        <v>635700</v>
       </c>
       <c r="I43" s="3">
-        <v>852300</v>
+        <v>864600</v>
       </c>
       <c r="J43" s="3">
+        <v>844600</v>
+      </c>
+      <c r="K43" s="3">
         <v>755800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>804300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1647000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1431200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1577500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>929100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1112000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>987100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>898300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>742900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>735000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,288 +2634,306 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1534000</v>
+        <v>1354300</v>
       </c>
       <c r="E45" s="3">
-        <v>2058900</v>
+        <v>1520200</v>
       </c>
       <c r="F45" s="3">
-        <v>1529200</v>
+        <v>2040300</v>
       </c>
       <c r="G45" s="3">
-        <v>1442100</v>
+        <v>1515400</v>
       </c>
       <c r="H45" s="3">
-        <v>1351900</v>
+        <v>1429000</v>
       </c>
       <c r="I45" s="3">
-        <v>1852200</v>
+        <v>1339700</v>
       </c>
       <c r="J45" s="3">
+        <v>1835500</v>
+      </c>
+      <c r="K45" s="3">
         <v>2296300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1638200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2292900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3369700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2122000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2560200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2099400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2669900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1838400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1190300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9741700</v>
+        <v>9416500</v>
       </c>
       <c r="E46" s="3">
-        <v>11287200</v>
+        <v>9653800</v>
       </c>
       <c r="F46" s="3">
-        <v>11596900</v>
+        <v>11185300</v>
       </c>
       <c r="G46" s="3">
-        <v>10002500</v>
+        <v>11492300</v>
       </c>
       <c r="H46" s="3">
-        <v>8548500</v>
+        <v>9912200</v>
       </c>
       <c r="I46" s="3">
-        <v>9693600</v>
+        <v>8471300</v>
       </c>
       <c r="J46" s="3">
+        <v>9606100</v>
+      </c>
+      <c r="K46" s="3">
         <v>9356500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10198900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10720600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11637500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12247600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12070600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12077400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12266700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10659600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9514900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8525300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6629100</v>
+        <v>6230800</v>
       </c>
       <c r="E47" s="3">
-        <v>6368300</v>
+        <v>6569300</v>
       </c>
       <c r="F47" s="3">
-        <v>6931700</v>
+        <v>6310800</v>
       </c>
       <c r="G47" s="3">
-        <v>7109500</v>
+        <v>6869100</v>
       </c>
       <c r="H47" s="3">
-        <v>7068600</v>
+        <v>7045400</v>
       </c>
       <c r="I47" s="3">
-        <v>7515800</v>
+        <v>7004800</v>
       </c>
       <c r="J47" s="3">
+        <v>7448000</v>
+      </c>
+      <c r="K47" s="3">
         <v>7907200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8101400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8096900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7340700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5350800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5212700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4122900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3724400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3907000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3652100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3737400</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>930000</v>
+        <v>890200</v>
       </c>
       <c r="E48" s="3">
-        <v>949900</v>
+        <v>921600</v>
       </c>
       <c r="F48" s="3">
-        <v>975400</v>
+        <v>941300</v>
       </c>
       <c r="G48" s="3">
-        <v>1005100</v>
+        <v>966600</v>
       </c>
       <c r="H48" s="3">
-        <v>997200</v>
+        <v>996100</v>
       </c>
       <c r="I48" s="3">
-        <v>982600</v>
+        <v>988200</v>
       </c>
       <c r="J48" s="3">
+        <v>973700</v>
+      </c>
+      <c r="K48" s="3">
         <v>999100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1145700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1158300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1073400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1059800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1013900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>893200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>847700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>835300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>830000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>805800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10668700</v>
+        <v>10564400</v>
       </c>
       <c r="E49" s="3">
-        <v>10678400</v>
+        <v>10572400</v>
       </c>
       <c r="F49" s="3">
-        <v>10688000</v>
+        <v>10582100</v>
       </c>
       <c r="G49" s="3">
-        <v>10695800</v>
+        <v>10591600</v>
       </c>
       <c r="H49" s="3">
-        <v>10712600</v>
+        <v>10599300</v>
       </c>
       <c r="I49" s="3">
-        <v>10746200</v>
+        <v>10615900</v>
       </c>
       <c r="J49" s="3">
+        <v>10649200</v>
+      </c>
+      <c r="K49" s="3">
         <v>10705900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11274500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11291200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10976900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10908600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10878900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10928800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10452200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10276000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10086500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>10056900</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>302800</v>
+        <v>325200</v>
       </c>
       <c r="E52" s="3">
-        <v>315500</v>
+        <v>300100</v>
       </c>
       <c r="F52" s="3">
-        <v>312300</v>
+        <v>312700</v>
       </c>
       <c r="G52" s="3">
-        <v>282000</v>
+        <v>309400</v>
       </c>
       <c r="H52" s="3">
-        <v>266100</v>
+        <v>279500</v>
       </c>
       <c r="I52" s="3">
-        <v>268300</v>
+        <v>263700</v>
       </c>
       <c r="J52" s="3">
+        <v>265900</v>
+      </c>
+      <c r="K52" s="3">
         <v>281600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>311100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>311700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>242200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>266800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>217700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>246100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>211200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>240300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>190500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>186800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28272300</v>
+        <v>27427100</v>
       </c>
       <c r="E54" s="3">
-        <v>29599300</v>
+        <v>28017200</v>
       </c>
       <c r="F54" s="3">
-        <v>30504300</v>
+        <v>29332200</v>
       </c>
       <c r="G54" s="3">
-        <v>29095100</v>
+        <v>30228900</v>
       </c>
       <c r="H54" s="3">
-        <v>27593000</v>
+        <v>28832500</v>
       </c>
       <c r="I54" s="3">
-        <v>29206600</v>
+        <v>27344000</v>
       </c>
       <c r="J54" s="3">
+        <v>28943000</v>
+      </c>
+      <c r="K54" s="3">
         <v>29250200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31031500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31578700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31270700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29833700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29393700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28268500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>27502200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25918200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>24274100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23278200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3272,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>887000</v>
+        <v>613500</v>
       </c>
       <c r="E57" s="3">
-        <v>1079400</v>
+        <v>879000</v>
       </c>
       <c r="F57" s="3">
-        <v>969200</v>
+        <v>1069700</v>
       </c>
       <c r="G57" s="3">
-        <v>732800</v>
+        <v>960400</v>
       </c>
       <c r="H57" s="3">
-        <v>664000</v>
+        <v>726200</v>
       </c>
       <c r="I57" s="3">
-        <v>1047600</v>
+        <v>658000</v>
       </c>
       <c r="J57" s="3">
+        <v>1038100</v>
+      </c>
+      <c r="K57" s="3">
         <v>659900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>777600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1939500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2061200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1974700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1668600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1781900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1975000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1593800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1351000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1070200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5874700</v>
+        <v>4507900</v>
       </c>
       <c r="E58" s="3">
-        <v>6652300</v>
+        <v>5821600</v>
       </c>
       <c r="F58" s="3">
-        <v>6036900</v>
+        <v>6592200</v>
       </c>
       <c r="G58" s="3">
-        <v>6011700</v>
+        <v>5982400</v>
       </c>
       <c r="H58" s="3">
-        <v>4960900</v>
+        <v>5957400</v>
       </c>
       <c r="I58" s="3">
-        <v>5058600</v>
+        <v>4916100</v>
       </c>
       <c r="J58" s="3">
+        <v>5012900</v>
+      </c>
+      <c r="K58" s="3">
         <v>6203400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6370700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4814200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5658900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5758300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5769000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5478000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5232100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3509800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2952200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2341000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2996300</v>
+        <v>2737300</v>
       </c>
       <c r="E59" s="3">
-        <v>3101800</v>
+        <v>2969200</v>
       </c>
       <c r="F59" s="3">
-        <v>3098400</v>
+        <v>3073800</v>
       </c>
       <c r="G59" s="3">
-        <v>2927900</v>
+        <v>3070400</v>
       </c>
       <c r="H59" s="3">
-        <v>2976400</v>
+        <v>2901500</v>
       </c>
       <c r="I59" s="3">
-        <v>2935900</v>
+        <v>2949500</v>
       </c>
       <c r="J59" s="3">
+        <v>2909400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2944500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3547900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4160400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3692600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3668900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3135500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3203500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2823300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2821200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2478900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2698200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9757900</v>
+        <v>7858800</v>
       </c>
       <c r="E60" s="3">
-        <v>10833500</v>
+        <v>9669800</v>
       </c>
       <c r="F60" s="3">
-        <v>10104500</v>
+        <v>10735700</v>
       </c>
       <c r="G60" s="3">
-        <v>9672400</v>
+        <v>10013300</v>
       </c>
       <c r="H60" s="3">
-        <v>8601300</v>
+        <v>9585100</v>
       </c>
       <c r="I60" s="3">
-        <v>9042000</v>
+        <v>8523600</v>
       </c>
       <c r="J60" s="3">
+        <v>8960400</v>
+      </c>
+      <c r="K60" s="3">
         <v>9807800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10696100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10914200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11412700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11401800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10573100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10463400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10030300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7924800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6782200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6049400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1634700</v>
+        <v>2964700</v>
       </c>
       <c r="E61" s="3">
-        <v>1808300</v>
+        <v>1619900</v>
       </c>
       <c r="F61" s="3">
-        <v>3347000</v>
+        <v>1791900</v>
       </c>
       <c r="G61" s="3">
-        <v>3441700</v>
+        <v>3316800</v>
       </c>
       <c r="H61" s="3">
-        <v>3347700</v>
+        <v>3410700</v>
       </c>
       <c r="I61" s="3">
-        <v>4753700</v>
+        <v>3317500</v>
       </c>
       <c r="J61" s="3">
+        <v>4710800</v>
+      </c>
+      <c r="K61" s="3">
         <v>4136000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3674500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3082200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3172000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3311200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3721600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3673100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3785000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4291800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4171300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4192500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>603000</v>
+        <v>587800</v>
       </c>
       <c r="E62" s="3">
-        <v>611100</v>
+        <v>597600</v>
       </c>
       <c r="F62" s="3">
-        <v>647200</v>
+        <v>605600</v>
       </c>
       <c r="G62" s="3">
-        <v>687400</v>
+        <v>641400</v>
       </c>
       <c r="H62" s="3">
-        <v>677100</v>
+        <v>681200</v>
       </c>
       <c r="I62" s="3">
-        <v>633500</v>
+        <v>671000</v>
       </c>
       <c r="J62" s="3">
+        <v>627800</v>
+      </c>
+      <c r="K62" s="3">
         <v>635000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>725400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>726500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>698100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>683800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>748700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>633900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>618100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>649800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>592000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>608800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12110300</v>
+        <v>11522500</v>
       </c>
       <c r="E66" s="3">
-        <v>13389000</v>
+        <v>12001000</v>
       </c>
       <c r="F66" s="3">
-        <v>14236400</v>
+        <v>13268100</v>
       </c>
       <c r="G66" s="3">
-        <v>13941000</v>
+        <v>14108000</v>
       </c>
       <c r="H66" s="3">
-        <v>12804800</v>
+        <v>13815200</v>
       </c>
       <c r="I66" s="3">
-        <v>14660000</v>
+        <v>12689300</v>
       </c>
       <c r="J66" s="3">
+        <v>14527600</v>
+      </c>
+      <c r="K66" s="3">
         <v>14878300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15631500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15259700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15770800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15766100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15412600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15077400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14757400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13139500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11814400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11105900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,16 +4119,19 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>2881900</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2855900</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>16</v>
@@ -3965,11 +4139,11 @@
       <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="3">
-        <v>2963000</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="I72" s="3">
+        <v>2936200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>16</v>
@@ -3977,35 +4151,38 @@
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="3">
         <v>3697600</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3152900</v>
       </c>
-      <c r="O72" s="3" t="s">
+      <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2498900</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T72" s="3">
         <v>2379000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2227000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16162000</v>
+        <v>15904600</v>
       </c>
       <c r="E76" s="3">
-        <v>16210300</v>
+        <v>16016100</v>
       </c>
       <c r="F76" s="3">
-        <v>16267800</v>
+        <v>16064000</v>
       </c>
       <c r="G76" s="3">
-        <v>15154100</v>
+        <v>16121000</v>
       </c>
       <c r="H76" s="3">
-        <v>14788200</v>
+        <v>15017300</v>
       </c>
       <c r="I76" s="3">
-        <v>14546600</v>
+        <v>14654700</v>
       </c>
       <c r="J76" s="3">
+        <v>14415400</v>
+      </c>
+      <c r="K76" s="3">
         <v>14371900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15400100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16319000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15499900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14067500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13981000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13191100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12744800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12778800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12459700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12172300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-122900</v>
+        <v>-144400</v>
       </c>
       <c r="E81" s="3">
-        <v>-125100</v>
+        <v>-121800</v>
       </c>
       <c r="F81" s="3">
-        <v>-95300</v>
+        <v>-124000</v>
       </c>
       <c r="G81" s="3">
-        <v>262300</v>
+        <v>-94500</v>
       </c>
       <c r="H81" s="3">
-        <v>147900</v>
+        <v>259900</v>
       </c>
       <c r="I81" s="3">
-        <v>232500</v>
+        <v>146600</v>
       </c>
       <c r="J81" s="3">
+        <v>230400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-70100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-844500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>316800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>122100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-61600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>701700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-181000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-165400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>341600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>152100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4449,15 +4648,15 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>172900</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4785,15 +5002,15 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1156900</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4863,15 +5084,15 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-129800</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5031,15 +5261,15 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-380700</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5333,15 +5579,15 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1460200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5389,15 +5638,15 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>48700</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5445,15 +5697,15 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-635300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>TCOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>600000</v>
+        <v>558300</v>
       </c>
       <c r="E8" s="3">
-        <v>683600</v>
+        <v>572000</v>
       </c>
       <c r="F8" s="3">
-        <v>780400</v>
+        <v>651600</v>
       </c>
       <c r="G8" s="3">
-        <v>860100</v>
+        <v>743900</v>
       </c>
       <c r="H8" s="3">
-        <v>599900</v>
+        <v>819900</v>
       </c>
       <c r="I8" s="3">
-        <v>724900</v>
+        <v>571800</v>
       </c>
       <c r="J8" s="3">
+        <v>691000</v>
+      </c>
+      <c r="K8" s="3">
         <v>797600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>465500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>746400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1314900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1613100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1327800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1241900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1150000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1358600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1050100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>965800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>885700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>155800</v>
+        <v>135900</v>
       </c>
       <c r="E9" s="3">
-        <v>163300</v>
+        <v>148500</v>
       </c>
       <c r="F9" s="3">
-        <v>178600</v>
+        <v>155600</v>
       </c>
       <c r="G9" s="3">
-        <v>178600</v>
+        <v>170200</v>
       </c>
       <c r="H9" s="3">
-        <v>151000</v>
+        <v>170200</v>
       </c>
       <c r="I9" s="3">
-        <v>132900</v>
+        <v>143900</v>
       </c>
       <c r="J9" s="3">
+        <v>126700</v>
+      </c>
+      <c r="K9" s="3">
         <v>150300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>128500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>192500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>272600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>332100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>274700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>256900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>246400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>289200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>210800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>178500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>152200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>444200</v>
+        <v>422500</v>
       </c>
       <c r="E10" s="3">
-        <v>520300</v>
+        <v>423400</v>
       </c>
       <c r="F10" s="3">
-        <v>601800</v>
+        <v>496000</v>
       </c>
       <c r="G10" s="3">
-        <v>681500</v>
+        <v>573600</v>
       </c>
       <c r="H10" s="3">
-        <v>448900</v>
+        <v>649600</v>
       </c>
       <c r="I10" s="3">
-        <v>592000</v>
+        <v>427900</v>
       </c>
       <c r="J10" s="3">
+        <v>564300</v>
+      </c>
+      <c r="K10" s="3">
         <v>647400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>337000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>553900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1042300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1281000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1053100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>985000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>903600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1069500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>839400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>787300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>288300</v>
+        <v>246700</v>
       </c>
       <c r="E12" s="3">
-        <v>326500</v>
+        <v>274800</v>
       </c>
       <c r="F12" s="3">
-        <v>336600</v>
+        <v>311300</v>
       </c>
       <c r="G12" s="3">
-        <v>325100</v>
+        <v>320900</v>
       </c>
       <c r="H12" s="3">
-        <v>324900</v>
+        <v>309900</v>
       </c>
       <c r="I12" s="3">
-        <v>315700</v>
+        <v>309700</v>
       </c>
       <c r="J12" s="3">
+        <v>301000</v>
+      </c>
+      <c r="K12" s="3">
         <v>293200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>265400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>267600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>425000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>429600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>403600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>387000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>413500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>361800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>323000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>309900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>652500</v>
+        <v>581600</v>
       </c>
       <c r="E17" s="3">
-        <v>786400</v>
+        <v>621900</v>
       </c>
       <c r="F17" s="3">
-        <v>816300</v>
+        <v>749600</v>
       </c>
       <c r="G17" s="3">
-        <v>812500</v>
+        <v>778100</v>
       </c>
       <c r="H17" s="3">
-        <v>714800</v>
+        <v>774500</v>
       </c>
       <c r="I17" s="3">
-        <v>727200</v>
+        <v>681400</v>
       </c>
       <c r="J17" s="3">
+        <v>693200</v>
+      </c>
+      <c r="K17" s="3">
         <v>682300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>566900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>984400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1223400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1267900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1124200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1107300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1178800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1143700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>946300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>881100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>842200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-52400</v>
+        <v>-23200</v>
       </c>
       <c r="E18" s="3">
-        <v>-102800</v>
+        <v>-50000</v>
       </c>
       <c r="F18" s="3">
-        <v>-35900</v>
+        <v>-98000</v>
       </c>
       <c r="G18" s="3">
-        <v>47600</v>
+        <v>-34200</v>
       </c>
       <c r="H18" s="3">
-        <v>-114900</v>
+        <v>45400</v>
       </c>
       <c r="I18" s="3">
-        <v>-2300</v>
+        <v>-109600</v>
       </c>
       <c r="J18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K18" s="3">
         <v>115400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-101400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-238100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>91500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>345200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>203700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>134600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-28800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>214900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>103900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>84700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,67 +1380,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-16900</v>
+        <v>141000</v>
       </c>
       <c r="E20" s="3">
-        <v>-5000</v>
+        <v>-16100</v>
       </c>
       <c r="F20" s="3">
-        <v>15000</v>
+        <v>-4700</v>
       </c>
       <c r="G20" s="3">
-        <v>-54900</v>
+        <v>14300</v>
       </c>
       <c r="H20" s="3">
-        <v>427300</v>
+        <v>-52300</v>
       </c>
       <c r="I20" s="3">
-        <v>174900</v>
+        <v>407300</v>
       </c>
       <c r="J20" s="3">
+        <v>166800</v>
+      </c>
+      <c r="K20" s="3">
         <v>242600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>349100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-522800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>364600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-129300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-129900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>776300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-80500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-305600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>370200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>125800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>96600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1438,11 +1475,11 @@
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>629000</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
@@ -1465,185 +1502,197 @@
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>49800</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>48900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>47500</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="3">
-        <v>124700</v>
-      </c>
       <c r="G22" s="3">
-        <v>61000</v>
+        <v>118900</v>
       </c>
       <c r="H22" s="3">
-        <v>59400</v>
+        <v>58200</v>
       </c>
       <c r="I22" s="3">
-        <v>55100</v>
+        <v>56700</v>
       </c>
       <c r="J22" s="3">
+        <v>52500</v>
+      </c>
+      <c r="K22" s="3">
         <v>62800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>67900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>70700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>61100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>65100</v>
       </c>
       <c r="O22" s="3">
         <v>65100</v>
       </c>
       <c r="P22" s="3">
+        <v>65100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>67100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>64200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>57100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>53200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>46200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-119200</v>
+        <v>68900</v>
       </c>
       <c r="E23" s="3">
-        <v>-107800</v>
+        <v>-113600</v>
       </c>
       <c r="F23" s="3">
-        <v>-145600</v>
+        <v>-102700</v>
       </c>
       <c r="G23" s="3">
-        <v>-68300</v>
+        <v>-138800</v>
       </c>
       <c r="H23" s="3">
-        <v>252900</v>
+        <v>-65100</v>
       </c>
       <c r="I23" s="3">
-        <v>117600</v>
+        <v>241100</v>
       </c>
       <c r="J23" s="3">
+        <v>112100</v>
+      </c>
+      <c r="K23" s="3">
         <v>295100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>179800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-831600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>395000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>150700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>843800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-173400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-147700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>420800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>164300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>93500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2000</v>
+        <v>24100</v>
       </c>
       <c r="E24" s="3">
-        <v>5400</v>
+        <v>-1900</v>
       </c>
       <c r="F24" s="3">
-        <v>13900</v>
+        <v>5200</v>
       </c>
       <c r="G24" s="3">
-        <v>14200</v>
+        <v>13200</v>
       </c>
       <c r="H24" s="3">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="I24" s="3">
-        <v>23800</v>
+        <v>5700</v>
       </c>
       <c r="J24" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K24" s="3">
         <v>35800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-40100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>57400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>56200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>51300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>103000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>37300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>46200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>25700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-117100</v>
+        <v>44800</v>
       </c>
       <c r="E26" s="3">
-        <v>-113200</v>
+        <v>-111600</v>
       </c>
       <c r="F26" s="3">
-        <v>-159500</v>
+        <v>-107900</v>
       </c>
       <c r="G26" s="3">
-        <v>-82500</v>
+        <v>-152000</v>
       </c>
       <c r="H26" s="3">
-        <v>246900</v>
+        <v>-78600</v>
       </c>
       <c r="I26" s="3">
-        <v>93800</v>
+        <v>235400</v>
       </c>
       <c r="J26" s="3">
+        <v>89400</v>
+      </c>
+      <c r="K26" s="3">
         <v>259300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>150200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-791500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>337600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>94500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-42600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>740800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-178700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-185000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>374600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>138600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-144400</v>
+        <v>9600</v>
       </c>
       <c r="E27" s="3">
-        <v>-121800</v>
+        <v>-137700</v>
       </c>
       <c r="F27" s="3">
-        <v>-124000</v>
+        <v>-116100</v>
       </c>
       <c r="G27" s="3">
-        <v>-94500</v>
+        <v>-118200</v>
       </c>
       <c r="H27" s="3">
-        <v>259900</v>
+        <v>-90100</v>
       </c>
       <c r="I27" s="3">
-        <v>146600</v>
+        <v>247800</v>
       </c>
       <c r="J27" s="3">
+        <v>139800</v>
+      </c>
+      <c r="K27" s="3">
         <v>230400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-70100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-844500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>316800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>122100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-61600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>701700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-181000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-165400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>341600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>152100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16900</v>
+        <v>-141000</v>
       </c>
       <c r="E32" s="3">
-        <v>5000</v>
+        <v>16100</v>
       </c>
       <c r="F32" s="3">
-        <v>-15000</v>
+        <v>4700</v>
       </c>
       <c r="G32" s="3">
-        <v>54900</v>
+        <v>-14300</v>
       </c>
       <c r="H32" s="3">
-        <v>-427300</v>
+        <v>52300</v>
       </c>
       <c r="I32" s="3">
-        <v>-174900</v>
+        <v>-407300</v>
       </c>
       <c r="J32" s="3">
+        <v>-166800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-242600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-349100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>522800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-364600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>129300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>129900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-776300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>80500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>305600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-370200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-125800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-96600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-144400</v>
+        <v>9600</v>
       </c>
       <c r="E33" s="3">
-        <v>-121800</v>
+        <v>-137700</v>
       </c>
       <c r="F33" s="3">
-        <v>-124000</v>
+        <v>-116100</v>
       </c>
       <c r="G33" s="3">
-        <v>-94500</v>
+        <v>-118200</v>
       </c>
       <c r="H33" s="3">
-        <v>259900</v>
+        <v>-90100</v>
       </c>
       <c r="I33" s="3">
-        <v>146600</v>
+        <v>247800</v>
       </c>
       <c r="J33" s="3">
+        <v>139800</v>
+      </c>
+      <c r="K33" s="3">
         <v>230400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-70100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-844500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>316800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>122100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-61600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>701700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-181000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-165400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>341600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>152100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-144400</v>
+        <v>9600</v>
       </c>
       <c r="E35" s="3">
-        <v>-121800</v>
+        <v>-137700</v>
       </c>
       <c r="F35" s="3">
-        <v>-124000</v>
+        <v>-116100</v>
       </c>
       <c r="G35" s="3">
-        <v>-94500</v>
+        <v>-118200</v>
       </c>
       <c r="H35" s="3">
-        <v>259900</v>
+        <v>-90100</v>
       </c>
       <c r="I35" s="3">
-        <v>146600</v>
+        <v>247800</v>
       </c>
       <c r="J35" s="3">
+        <v>139800</v>
+      </c>
+      <c r="K35" s="3">
         <v>230400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-70100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-844500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>316800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>122100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-61600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>701700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-181000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-165400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>341600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>152100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,185 +2487,195 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3046300</v>
+        <v>3195900</v>
       </c>
       <c r="E41" s="3">
-        <v>2894000</v>
+        <v>2903900</v>
       </c>
       <c r="F41" s="3">
-        <v>2997700</v>
+        <v>2758700</v>
       </c>
       <c r="G41" s="3">
-        <v>4044400</v>
+        <v>2857500</v>
       </c>
       <c r="H41" s="3">
-        <v>3367500</v>
+        <v>3855300</v>
       </c>
       <c r="I41" s="3">
-        <v>2642600</v>
+        <v>3210000</v>
       </c>
       <c r="J41" s="3">
+        <v>2519000</v>
+      </c>
+      <c r="K41" s="3">
         <v>3680700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2784500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3800900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3143100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2822500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3514200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3454300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3275100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3121000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3162400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2475500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2617500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4434800</v>
+        <v>4276400</v>
       </c>
       <c r="E42" s="3">
-        <v>4317500</v>
+        <v>4227400</v>
       </c>
       <c r="F42" s="3">
-        <v>5386000</v>
+        <v>4115600</v>
       </c>
       <c r="G42" s="3">
-        <v>5152800</v>
+        <v>5134100</v>
       </c>
       <c r="H42" s="3">
-        <v>4480100</v>
+        <v>4911800</v>
       </c>
       <c r="I42" s="3">
-        <v>3624500</v>
+        <v>4270500</v>
       </c>
       <c r="J42" s="3">
+        <v>3454900</v>
+      </c>
+      <c r="K42" s="3">
         <v>3245400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3519800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3955500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3637600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4014100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5033900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5126900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5590900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5488700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4760400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4896000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4036100</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>581100</v>
+        <v>757900</v>
       </c>
       <c r="E43" s="3">
-        <v>922000</v>
+        <v>553900</v>
       </c>
       <c r="F43" s="3">
-        <v>761300</v>
+        <v>878900</v>
       </c>
       <c r="G43" s="3">
-        <v>779700</v>
+        <v>725600</v>
       </c>
       <c r="H43" s="3">
-        <v>635700</v>
+        <v>743200</v>
       </c>
       <c r="I43" s="3">
-        <v>864600</v>
+        <v>605900</v>
       </c>
       <c r="J43" s="3">
+        <v>824200</v>
+      </c>
+      <c r="K43" s="3">
         <v>844600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>755800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>804300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1647000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1431200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1577500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>929100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1112000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>987100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>898300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>742900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>735000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,303 +2733,321 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1354300</v>
+        <v>1500300</v>
       </c>
       <c r="E45" s="3">
-        <v>1520200</v>
+        <v>1290900</v>
       </c>
       <c r="F45" s="3">
-        <v>2040300</v>
+        <v>1449100</v>
       </c>
       <c r="G45" s="3">
-        <v>1515400</v>
+        <v>1944900</v>
       </c>
       <c r="H45" s="3">
-        <v>1429000</v>
+        <v>1444500</v>
       </c>
       <c r="I45" s="3">
-        <v>1339700</v>
+        <v>1362200</v>
       </c>
       <c r="J45" s="3">
+        <v>1277000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1835500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2296300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1638200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2292900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3369700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2122000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2560200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2099400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2669900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1838400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1400500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1190300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9416500</v>
+        <v>9730500</v>
       </c>
       <c r="E46" s="3">
-        <v>9653800</v>
+        <v>8976000</v>
       </c>
       <c r="F46" s="3">
-        <v>11185300</v>
+        <v>9202200</v>
       </c>
       <c r="G46" s="3">
-        <v>11492300</v>
+        <v>10662200</v>
       </c>
       <c r="H46" s="3">
-        <v>9912200</v>
+        <v>10954800</v>
       </c>
       <c r="I46" s="3">
-        <v>8471300</v>
+        <v>9448600</v>
       </c>
       <c r="J46" s="3">
+        <v>8075100</v>
+      </c>
+      <c r="K46" s="3">
         <v>9606100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9356500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10198900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10720600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11637500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12247600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12070600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12077400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12266700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10659600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9514900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8525300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6230800</v>
+        <v>6135200</v>
       </c>
       <c r="E47" s="3">
-        <v>6569300</v>
+        <v>5939400</v>
       </c>
       <c r="F47" s="3">
-        <v>6310800</v>
+        <v>6262100</v>
       </c>
       <c r="G47" s="3">
-        <v>6869100</v>
+        <v>6015700</v>
       </c>
       <c r="H47" s="3">
-        <v>7045400</v>
+        <v>6547800</v>
       </c>
       <c r="I47" s="3">
-        <v>7004800</v>
+        <v>6715800</v>
       </c>
       <c r="J47" s="3">
+        <v>6677100</v>
+      </c>
+      <c r="K47" s="3">
         <v>7448000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7907200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8101400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8096900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7340700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5350800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5212700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4122900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3724400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3907000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3652100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3737400</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>890200</v>
+        <v>867500</v>
       </c>
       <c r="E48" s="3">
-        <v>921600</v>
+        <v>848600</v>
       </c>
       <c r="F48" s="3">
-        <v>941300</v>
+        <v>878500</v>
       </c>
       <c r="G48" s="3">
-        <v>966600</v>
+        <v>897300</v>
       </c>
       <c r="H48" s="3">
-        <v>996100</v>
+        <v>921400</v>
       </c>
       <c r="I48" s="3">
-        <v>988200</v>
+        <v>949500</v>
       </c>
       <c r="J48" s="3">
+        <v>942000</v>
+      </c>
+      <c r="K48" s="3">
         <v>973700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>999100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1145700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1158300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1073400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1059800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1013900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>893200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>847700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>835300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>830000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>805800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10564400</v>
+        <v>10057900</v>
       </c>
       <c r="E49" s="3">
-        <v>10572400</v>
+        <v>10070300</v>
       </c>
       <c r="F49" s="3">
-        <v>10582100</v>
+        <v>10077900</v>
       </c>
       <c r="G49" s="3">
-        <v>10591600</v>
+        <v>10087100</v>
       </c>
       <c r="H49" s="3">
-        <v>10599300</v>
+        <v>10096200</v>
       </c>
       <c r="I49" s="3">
-        <v>10615900</v>
+        <v>10103600</v>
       </c>
       <c r="J49" s="3">
+        <v>10119400</v>
+      </c>
+      <c r="K49" s="3">
         <v>10649200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10705900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11274500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11291200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10976900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10908600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10878900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10928800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10452200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10276000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>10086500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>10056900</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>325200</v>
+        <v>301100</v>
       </c>
       <c r="E52" s="3">
-        <v>300100</v>
+        <v>310000</v>
       </c>
       <c r="F52" s="3">
-        <v>312700</v>
+        <v>286100</v>
       </c>
       <c r="G52" s="3">
-        <v>309400</v>
+        <v>298000</v>
       </c>
       <c r="H52" s="3">
-        <v>279500</v>
+        <v>295000</v>
       </c>
       <c r="I52" s="3">
-        <v>263700</v>
+        <v>266400</v>
       </c>
       <c r="J52" s="3">
+        <v>251400</v>
+      </c>
+      <c r="K52" s="3">
         <v>265900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>281600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>311100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>311700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>242200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>266800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>217700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>246100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>211200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>240300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>190500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>186800</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27427100</v>
+        <v>27092200</v>
       </c>
       <c r="E54" s="3">
-        <v>28017200</v>
+        <v>26144300</v>
       </c>
       <c r="F54" s="3">
-        <v>29332200</v>
+        <v>26706800</v>
       </c>
       <c r="G54" s="3">
-        <v>30228900</v>
+        <v>27960300</v>
       </c>
       <c r="H54" s="3">
-        <v>28832500</v>
+        <v>28815100</v>
       </c>
       <c r="I54" s="3">
-        <v>27344000</v>
+        <v>27483900</v>
       </c>
       <c r="J54" s="3">
+        <v>26065100</v>
+      </c>
+      <c r="K54" s="3">
         <v>28943000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29250200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31031500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31578700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31270700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29833700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>29393700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28268500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>27502200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25918200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>24274100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>23278200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>613500</v>
+        <v>938900</v>
       </c>
       <c r="E57" s="3">
-        <v>879000</v>
+        <v>584800</v>
       </c>
       <c r="F57" s="3">
-        <v>1069700</v>
+        <v>837800</v>
       </c>
       <c r="G57" s="3">
-        <v>960400</v>
+        <v>1019600</v>
       </c>
       <c r="H57" s="3">
-        <v>726200</v>
+        <v>915500</v>
       </c>
       <c r="I57" s="3">
-        <v>658000</v>
+        <v>692200</v>
       </c>
       <c r="J57" s="3">
+        <v>627200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1038100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>659900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>777600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1939500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2061200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1974700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1668600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1781900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1975000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1593800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1351000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1070200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4507900</v>
+        <v>5039500</v>
       </c>
       <c r="E58" s="3">
-        <v>5821600</v>
+        <v>4297100</v>
       </c>
       <c r="F58" s="3">
-        <v>6592200</v>
+        <v>5549300</v>
       </c>
       <c r="G58" s="3">
-        <v>5982400</v>
+        <v>6283900</v>
       </c>
       <c r="H58" s="3">
-        <v>5957400</v>
+        <v>5702600</v>
       </c>
       <c r="I58" s="3">
-        <v>4916100</v>
+        <v>5678800</v>
       </c>
       <c r="J58" s="3">
+        <v>4686200</v>
+      </c>
+      <c r="K58" s="3">
         <v>5012900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6203400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6370700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4814200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5658900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5758300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5769000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5478000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5232100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3509800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2952200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2341000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2737300</v>
+        <v>2748900</v>
       </c>
       <c r="E59" s="3">
-        <v>2969200</v>
+        <v>2609300</v>
       </c>
       <c r="F59" s="3">
-        <v>3073800</v>
+        <v>2830400</v>
       </c>
       <c r="G59" s="3">
-        <v>3070400</v>
+        <v>2930000</v>
       </c>
       <c r="H59" s="3">
-        <v>2901500</v>
+        <v>2926800</v>
       </c>
       <c r="I59" s="3">
-        <v>2949500</v>
+        <v>2765800</v>
       </c>
       <c r="J59" s="3">
+        <v>2811600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2909400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2944500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3547900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4160400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3692600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3668900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3135500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3203500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2823300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2821200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2478900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2698200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7858800</v>
+        <v>8727300</v>
       </c>
       <c r="E60" s="3">
-        <v>9669800</v>
+        <v>7491200</v>
       </c>
       <c r="F60" s="3">
-        <v>10735700</v>
+        <v>9217500</v>
       </c>
       <c r="G60" s="3">
-        <v>10013300</v>
+        <v>10233600</v>
       </c>
       <c r="H60" s="3">
-        <v>9585100</v>
+        <v>9544900</v>
       </c>
       <c r="I60" s="3">
-        <v>8523600</v>
+        <v>9136800</v>
       </c>
       <c r="J60" s="3">
+        <v>8125000</v>
+      </c>
+      <c r="K60" s="3">
         <v>8960400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9807800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10696100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10914200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11412700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11401800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10573100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10463400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10030300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7924800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6782200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6049400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2964700</v>
+        <v>2422400</v>
       </c>
       <c r="E61" s="3">
-        <v>1619900</v>
+        <v>2826000</v>
       </c>
       <c r="F61" s="3">
-        <v>1791900</v>
+        <v>1544100</v>
       </c>
       <c r="G61" s="3">
-        <v>3316800</v>
+        <v>1708100</v>
       </c>
       <c r="H61" s="3">
-        <v>3410700</v>
+        <v>3161600</v>
       </c>
       <c r="I61" s="3">
-        <v>3317500</v>
+        <v>3251200</v>
       </c>
       <c r="J61" s="3">
+        <v>3162300</v>
+      </c>
+      <c r="K61" s="3">
         <v>4710800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4136000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3674500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3082200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3172000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3311200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3721600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3673100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3785000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4291800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4171300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4192500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>587800</v>
+        <v>591900</v>
       </c>
       <c r="E62" s="3">
-        <v>597600</v>
+        <v>560300</v>
       </c>
       <c r="F62" s="3">
-        <v>605600</v>
+        <v>569600</v>
       </c>
       <c r="G62" s="3">
-        <v>641400</v>
+        <v>577300</v>
       </c>
       <c r="H62" s="3">
-        <v>681200</v>
+        <v>611400</v>
       </c>
       <c r="I62" s="3">
-        <v>671000</v>
+        <v>649400</v>
       </c>
       <c r="J62" s="3">
+        <v>639600</v>
+      </c>
+      <c r="K62" s="3">
         <v>627800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>635000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>725400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>726500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>698100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>683800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>748700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>633900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>618100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>649800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>592000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>608800</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11522500</v>
+        <v>11844000</v>
       </c>
       <c r="E66" s="3">
-        <v>12001000</v>
+        <v>10983600</v>
       </c>
       <c r="F66" s="3">
-        <v>13268100</v>
+        <v>11439700</v>
       </c>
       <c r="G66" s="3">
-        <v>14108000</v>
+        <v>12647600</v>
       </c>
       <c r="H66" s="3">
-        <v>13815200</v>
+        <v>13448100</v>
       </c>
       <c r="I66" s="3">
-        <v>12689300</v>
+        <v>13169000</v>
       </c>
       <c r="J66" s="3">
+        <v>12095800</v>
+      </c>
+      <c r="K66" s="3">
         <v>14527600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14878300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15631500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15259700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15770800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15766100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15412600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15077400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14757400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13139500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11814400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11105900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,19 +4293,22 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="3">
-        <v>2855900</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2722300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
@@ -4142,11 +4316,11 @@
       <c r="H72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="3">
-        <v>2936200</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="I72" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2798900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
@@ -4154,35 +4328,38 @@
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N72" s="3">
         <v>3697600</v>
       </c>
-      <c r="N72" s="3" t="s">
+      <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3152900</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2498900</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U72" s="3">
         <v>2379000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2227000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15904600</v>
+        <v>15248200</v>
       </c>
       <c r="E76" s="3">
-        <v>16016100</v>
+        <v>15160700</v>
       </c>
       <c r="F76" s="3">
-        <v>16064000</v>
+        <v>15267000</v>
       </c>
       <c r="G76" s="3">
-        <v>16121000</v>
+        <v>15312700</v>
       </c>
       <c r="H76" s="3">
-        <v>15017300</v>
+        <v>15367000</v>
       </c>
       <c r="I76" s="3">
-        <v>14654700</v>
+        <v>14314900</v>
       </c>
       <c r="J76" s="3">
+        <v>13969300</v>
+      </c>
+      <c r="K76" s="3">
         <v>14415400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14371900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15400100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16319000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15499900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14067500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13981000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13191100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12744800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12778800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12459700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12172300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-144400</v>
+        <v>9600</v>
       </c>
       <c r="E81" s="3">
-        <v>-121800</v>
+        <v>-137700</v>
       </c>
       <c r="F81" s="3">
-        <v>-124000</v>
+        <v>-116100</v>
       </c>
       <c r="G81" s="3">
-        <v>-94500</v>
+        <v>-118200</v>
       </c>
       <c r="H81" s="3">
-        <v>259900</v>
+        <v>-90100</v>
       </c>
       <c r="I81" s="3">
-        <v>146600</v>
+        <v>247800</v>
       </c>
       <c r="J81" s="3">
+        <v>139800</v>
+      </c>
+      <c r="K81" s="3">
         <v>230400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-70100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-844500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>316800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>122100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-61600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>701700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-181000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-165400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>341600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>152100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4651,15 +4850,15 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>172900</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5190,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5005,15 +5222,15 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1156900</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5087,15 +5308,15 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-129800</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5264,15 +5494,15 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-380700</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5796,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5582,15 +5828,15 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1460200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5641,15 +5890,15 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>48700</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -5671,8 +5920,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5700,15 +5952,15 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-635300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>TCOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,308 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>558300</v>
+        <v>722000</v>
       </c>
       <c r="E8" s="3">
-        <v>572000</v>
+        <v>989800</v>
       </c>
       <c r="F8" s="3">
-        <v>651600</v>
+        <v>576100</v>
       </c>
       <c r="G8" s="3">
-        <v>743900</v>
+        <v>590100</v>
       </c>
       <c r="H8" s="3">
-        <v>819900</v>
+        <v>672300</v>
       </c>
       <c r="I8" s="3">
+        <v>767500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>845900</v>
+      </c>
+      <c r="K8" s="3">
         <v>571800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>691000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>797600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>465500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>746400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1314900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1613100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1327800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1241900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1150000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1358600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1050100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>965800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>885700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>135900</v>
+        <v>172200</v>
       </c>
       <c r="E9" s="3">
-        <v>148500</v>
+        <v>182500</v>
       </c>
       <c r="F9" s="3">
-        <v>155600</v>
+        <v>140200</v>
       </c>
       <c r="G9" s="3">
-        <v>170200</v>
+        <v>153200</v>
       </c>
       <c r="H9" s="3">
-        <v>170200</v>
+        <v>160600</v>
       </c>
       <c r="I9" s="3">
+        <v>175600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>175600</v>
+      </c>
+      <c r="K9" s="3">
         <v>143900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>126700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>150300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>128500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>192500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>272600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>332100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>274700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>256900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>246400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>289200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>210800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>178500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>152200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>422500</v>
+        <v>549800</v>
       </c>
       <c r="E10" s="3">
-        <v>423400</v>
+        <v>807300</v>
       </c>
       <c r="F10" s="3">
-        <v>496000</v>
+        <v>435900</v>
       </c>
       <c r="G10" s="3">
-        <v>573600</v>
+        <v>436900</v>
       </c>
       <c r="H10" s="3">
-        <v>649600</v>
+        <v>511700</v>
       </c>
       <c r="I10" s="3">
+        <v>591900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>670300</v>
+      </c>
+      <c r="K10" s="3">
         <v>427900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>564300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>647400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>337000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>553900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1042300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1281000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1053100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>985000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>903600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1069500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>839400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>787300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>246700</v>
+        <v>302200</v>
       </c>
       <c r="E12" s="3">
-        <v>274800</v>
+        <v>357800</v>
       </c>
       <c r="F12" s="3">
-        <v>311300</v>
+        <v>254500</v>
       </c>
       <c r="G12" s="3">
-        <v>320900</v>
+        <v>283500</v>
       </c>
       <c r="H12" s="3">
+        <v>321100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>331000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>319700</v>
+      </c>
+      <c r="K12" s="3">
+        <v>309700</v>
+      </c>
+      <c r="L12" s="3">
+        <v>301000</v>
+      </c>
+      <c r="M12" s="3">
+        <v>293200</v>
+      </c>
+      <c r="N12" s="3">
+        <v>265400</v>
+      </c>
+      <c r="O12" s="3">
+        <v>267600</v>
+      </c>
+      <c r="P12" s="3">
+        <v>425000</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>429600</v>
+      </c>
+      <c r="R12" s="3">
+        <v>403600</v>
+      </c>
+      <c r="S12" s="3">
+        <v>387000</v>
+      </c>
+      <c r="T12" s="3">
+        <v>413500</v>
+      </c>
+      <c r="U12" s="3">
+        <v>361800</v>
+      </c>
+      <c r="V12" s="3">
+        <v>323000</v>
+      </c>
+      <c r="W12" s="3">
         <v>309900</v>
       </c>
-      <c r="I12" s="3">
-        <v>309700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>301000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>293200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>265400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>267600</v>
-      </c>
-      <c r="N12" s="3">
-        <v>425000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>429600</v>
-      </c>
-      <c r="P12" s="3">
-        <v>403600</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>387000</v>
-      </c>
-      <c r="R12" s="3">
-        <v>413500</v>
-      </c>
-      <c r="S12" s="3">
-        <v>361800</v>
-      </c>
-      <c r="T12" s="3">
-        <v>323000</v>
-      </c>
-      <c r="U12" s="3">
-        <v>309900</v>
-      </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>581600</v>
+        <v>756400</v>
       </c>
       <c r="E17" s="3">
-        <v>621900</v>
+        <v>867200</v>
       </c>
       <c r="F17" s="3">
-        <v>749600</v>
+        <v>600000</v>
       </c>
       <c r="G17" s="3">
-        <v>778100</v>
+        <v>641700</v>
       </c>
       <c r="H17" s="3">
-        <v>774500</v>
+        <v>773400</v>
       </c>
       <c r="I17" s="3">
+        <v>802800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>799100</v>
+      </c>
+      <c r="K17" s="3">
         <v>681400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>693200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>682300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>566900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>984400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1223400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1267900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1124200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1107300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1178800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1143700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>946300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>881100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>842200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-23200</v>
+        <v>-34500</v>
       </c>
       <c r="E18" s="3">
-        <v>-50000</v>
+        <v>122700</v>
       </c>
       <c r="F18" s="3">
-        <v>-98000</v>
+        <v>-24000</v>
       </c>
       <c r="G18" s="3">
-        <v>-34200</v>
+        <v>-51600</v>
       </c>
       <c r="H18" s="3">
-        <v>45400</v>
+        <v>-101100</v>
       </c>
       <c r="I18" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>46800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-109600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>115400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-101400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-238100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>91500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>345200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>203700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>134600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-28800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>214900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>103900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>84700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,70 +1446,78 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>141000</v>
+        <v>460000</v>
       </c>
       <c r="E20" s="3">
-        <v>-16100</v>
+        <v>8300</v>
       </c>
       <c r="F20" s="3">
-        <v>-4700</v>
+        <v>145500</v>
       </c>
       <c r="G20" s="3">
-        <v>14300</v>
+        <v>-16700</v>
       </c>
       <c r="H20" s="3">
-        <v>-52300</v>
+        <v>-4900</v>
       </c>
       <c r="I20" s="3">
+        <v>14800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="K20" s="3">
         <v>407300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>166800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>242600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>349100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-522800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>364600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-129300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-129900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>776300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-80500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-305600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>370200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>125800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>96600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1478,14 +1551,14 @@
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="3">
-        <v>629000</v>
+      <c r="N21" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
+      <c r="P21" s="3">
+        <v>629000</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>16</v>
@@ -1505,194 +1578,218 @@
       <c r="V21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>48900</v>
+        <v>61300</v>
       </c>
       <c r="E22" s="3">
-        <v>47500</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>70700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>50400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="3">
-        <v>118900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>58200</v>
-      </c>
       <c r="I22" s="3">
+        <v>122700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K22" s="3">
         <v>56700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>52500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>62800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>67900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>70700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>61100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>65100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>65100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>67100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>64200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>57100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>53200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>46200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>68900</v>
+        <v>364200</v>
       </c>
       <c r="E23" s="3">
-        <v>-113600</v>
+        <v>60300</v>
       </c>
       <c r="F23" s="3">
-        <v>-102700</v>
+        <v>71100</v>
       </c>
       <c r="G23" s="3">
-        <v>-138800</v>
+        <v>-117200</v>
       </c>
       <c r="H23" s="3">
-        <v>-65100</v>
+        <v>-106000</v>
       </c>
       <c r="I23" s="3">
+        <v>-143200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="K23" s="3">
         <v>241100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>112100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>295100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>179800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-831600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>395000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>150700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>8700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>843800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-173400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-147700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>420800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>164300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>93500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24100</v>
+        <v>35300</v>
       </c>
       <c r="E24" s="3">
-        <v>-1900</v>
+        <v>39800</v>
       </c>
       <c r="F24" s="3">
-        <v>5200</v>
+        <v>24800</v>
       </c>
       <c r="G24" s="3">
-        <v>13200</v>
+        <v>-2000</v>
       </c>
       <c r="H24" s="3">
-        <v>13500</v>
+        <v>5300</v>
       </c>
       <c r="I24" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K24" s="3">
         <v>5700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>22700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>35800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>29600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-40100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>57400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>56200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>51300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>103000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>5300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>37300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>46200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>25700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>44800</v>
+        <v>328900</v>
       </c>
       <c r="E26" s="3">
-        <v>-111600</v>
+        <v>20500</v>
       </c>
       <c r="F26" s="3">
-        <v>-107900</v>
+        <v>46200</v>
       </c>
       <c r="G26" s="3">
-        <v>-152000</v>
+        <v>-115200</v>
       </c>
       <c r="H26" s="3">
-        <v>-78600</v>
+        <v>-111300</v>
       </c>
       <c r="I26" s="3">
+        <v>-156800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-81100</v>
+      </c>
+      <c r="K26" s="3">
         <v>235400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>89400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>259300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>150200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-791500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>337600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>94500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>740800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-178700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-185000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>374600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>138600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9600</v>
+        <v>295400</v>
       </c>
       <c r="E27" s="3">
-        <v>-137700</v>
+        <v>38200</v>
       </c>
       <c r="F27" s="3">
-        <v>-116100</v>
+        <v>9900</v>
       </c>
       <c r="G27" s="3">
-        <v>-118200</v>
+        <v>-142000</v>
       </c>
       <c r="H27" s="3">
-        <v>-90100</v>
+        <v>-119800</v>
       </c>
       <c r="I27" s="3">
+        <v>-121900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="K27" s="3">
         <v>247800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>139800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>230400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-70100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-844500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>316800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>122100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-61600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>701700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-181000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-165400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>341600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>152100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-141000</v>
+        <v>-460000</v>
       </c>
       <c r="E32" s="3">
-        <v>16100</v>
+        <v>-8300</v>
       </c>
       <c r="F32" s="3">
-        <v>4700</v>
+        <v>-145500</v>
       </c>
       <c r="G32" s="3">
-        <v>-14300</v>
+        <v>16700</v>
       </c>
       <c r="H32" s="3">
-        <v>52300</v>
+        <v>4900</v>
       </c>
       <c r="I32" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>54000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-407300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-166800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-242600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-349100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>522800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-364600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>129300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>129900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-776300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>80500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>305600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-370200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-125800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-96600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9600</v>
+        <v>295400</v>
       </c>
       <c r="E33" s="3">
-        <v>-137700</v>
+        <v>38200</v>
       </c>
       <c r="F33" s="3">
-        <v>-116100</v>
+        <v>9900</v>
       </c>
       <c r="G33" s="3">
-        <v>-118200</v>
+        <v>-142000</v>
       </c>
       <c r="H33" s="3">
-        <v>-90100</v>
+        <v>-119800</v>
       </c>
       <c r="I33" s="3">
+        <v>-121900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="K33" s="3">
         <v>247800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>139800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>230400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-70100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-844500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>316800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>122100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-61600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>701700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-181000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-165400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>341600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>152100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9600</v>
+        <v>295400</v>
       </c>
       <c r="E35" s="3">
-        <v>-137700</v>
+        <v>38200</v>
       </c>
       <c r="F35" s="3">
-        <v>-116100</v>
+        <v>9900</v>
       </c>
       <c r="G35" s="3">
-        <v>-118200</v>
+        <v>-142000</v>
       </c>
       <c r="H35" s="3">
-        <v>-90100</v>
+        <v>-119800</v>
       </c>
       <c r="I35" s="3">
+        <v>-121900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="K35" s="3">
         <v>247800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>139800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>230400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-70100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-844500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>316800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>122100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-61600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>701700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-181000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-165400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>341600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>152100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,194 +2659,214 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3195900</v>
+        <v>2655100</v>
       </c>
       <c r="E41" s="3">
-        <v>2903900</v>
+        <v>2716700</v>
       </c>
       <c r="F41" s="3">
-        <v>2758700</v>
+        <v>3297400</v>
       </c>
       <c r="G41" s="3">
-        <v>2857500</v>
+        <v>2996100</v>
       </c>
       <c r="H41" s="3">
-        <v>3855300</v>
+        <v>2846300</v>
       </c>
       <c r="I41" s="3">
+        <v>2948200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3977700</v>
+      </c>
+      <c r="K41" s="3">
         <v>3210000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2519000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3680700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2784500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3800900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3143100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2822500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3514200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3454300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3275100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3121000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3162400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2475500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2617500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4276400</v>
+        <v>3668800</v>
       </c>
       <c r="E42" s="3">
-        <v>4227400</v>
+        <v>4119600</v>
       </c>
       <c r="F42" s="3">
-        <v>4115600</v>
+        <v>4412200</v>
       </c>
       <c r="G42" s="3">
-        <v>5134100</v>
+        <v>4361600</v>
       </c>
       <c r="H42" s="3">
-        <v>4911800</v>
+        <v>4246300</v>
       </c>
       <c r="I42" s="3">
+        <v>5297100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>5067800</v>
+      </c>
+      <c r="K42" s="3">
         <v>4270500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3454900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3245400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>3519800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>3955500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>3637600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>4014100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>5033900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>5126900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>5590900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>5488700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>4760400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>4896000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>4036100</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>757900</v>
+        <v>787900</v>
       </c>
       <c r="E43" s="3">
-        <v>553900</v>
+        <v>883400</v>
       </c>
       <c r="F43" s="3">
-        <v>878900</v>
+        <v>782000</v>
       </c>
       <c r="G43" s="3">
-        <v>725600</v>
+        <v>571500</v>
       </c>
       <c r="H43" s="3">
-        <v>743200</v>
+        <v>906800</v>
       </c>
       <c r="I43" s="3">
+        <v>748700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>766800</v>
+      </c>
+      <c r="K43" s="3">
         <v>605900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>824200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>844600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>755800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>804300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1647000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1431200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1577500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>929100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1112000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>987100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>898300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>742900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>735000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,318 +2927,354 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1500300</v>
+        <v>1711500</v>
       </c>
       <c r="E45" s="3">
-        <v>1290900</v>
+        <v>1909300</v>
       </c>
       <c r="F45" s="3">
-        <v>1449100</v>
+        <v>1547900</v>
       </c>
       <c r="G45" s="3">
-        <v>1944900</v>
+        <v>1331900</v>
       </c>
       <c r="H45" s="3">
-        <v>1444500</v>
+        <v>1495100</v>
       </c>
       <c r="I45" s="3">
+        <v>2006700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1490300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1362200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1277000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1835500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2296300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1638200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2292900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3369700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2122000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2560200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2099400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>2669900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1838400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1400500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1190300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9730500</v>
+        <v>8823300</v>
       </c>
       <c r="E46" s="3">
-        <v>8976000</v>
+        <v>9629000</v>
       </c>
       <c r="F46" s="3">
-        <v>9202200</v>
+        <v>10039500</v>
       </c>
       <c r="G46" s="3">
-        <v>10662200</v>
+        <v>9261000</v>
       </c>
       <c r="H46" s="3">
-        <v>10954800</v>
+        <v>9494400</v>
       </c>
       <c r="I46" s="3">
+        <v>11000700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>11302600</v>
+      </c>
+      <c r="K46" s="3">
         <v>9448600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>8075100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>9606100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>9356500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>10198900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>10720600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>11637500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>12247600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>12070600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>12077400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>12266700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>10659600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>9514900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>8525300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6135200</v>
+        <v>7206400</v>
       </c>
       <c r="E47" s="3">
-        <v>5939400</v>
+        <v>6750700</v>
       </c>
       <c r="F47" s="3">
-        <v>6262100</v>
+        <v>6330100</v>
       </c>
       <c r="G47" s="3">
-        <v>6015700</v>
+        <v>6128000</v>
       </c>
       <c r="H47" s="3">
-        <v>6547800</v>
+        <v>6460900</v>
       </c>
       <c r="I47" s="3">
+        <v>6206700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>6755700</v>
+      </c>
+      <c r="K47" s="3">
         <v>6715800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>6677100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>7448000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>7907200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>8101400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>8096900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>7340700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>5350800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>5212700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>4122900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>3724400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>3907000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>3652100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>3737400</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>867500</v>
+        <v>865000</v>
       </c>
       <c r="E48" s="3">
-        <v>848600</v>
+        <v>875400</v>
       </c>
       <c r="F48" s="3">
-        <v>878500</v>
+        <v>895000</v>
       </c>
       <c r="G48" s="3">
-        <v>897300</v>
+        <v>875500</v>
       </c>
       <c r="H48" s="3">
-        <v>921400</v>
+        <v>906400</v>
       </c>
       <c r="I48" s="3">
+        <v>925800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>950600</v>
+      </c>
+      <c r="K48" s="3">
         <v>949500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>942000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>973700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>999100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1145700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1158300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1073400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1059800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1013900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>893200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>847700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>835300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>830000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>805800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10057900</v>
+        <v>10363900</v>
       </c>
       <c r="E49" s="3">
-        <v>10070300</v>
+        <v>10366800</v>
       </c>
       <c r="F49" s="3">
-        <v>10077900</v>
+        <v>10377300</v>
       </c>
       <c r="G49" s="3">
-        <v>10087100</v>
+        <v>10390000</v>
       </c>
       <c r="H49" s="3">
-        <v>10096200</v>
+        <v>10397900</v>
       </c>
       <c r="I49" s="3">
+        <v>10407400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>10416800</v>
+      </c>
+      <c r="K49" s="3">
         <v>10103600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>10119400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>10649200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>10705900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>11274500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>11291200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>10976900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>10908600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>10878900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>10928800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>10452200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>10276000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>10086500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>10056900</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>301100</v>
+        <v>272000</v>
       </c>
       <c r="E52" s="3">
-        <v>310000</v>
+        <v>283200</v>
       </c>
       <c r="F52" s="3">
-        <v>286100</v>
+        <v>310700</v>
       </c>
       <c r="G52" s="3">
-        <v>298000</v>
+        <v>319800</v>
       </c>
       <c r="H52" s="3">
-        <v>295000</v>
+        <v>295100</v>
       </c>
       <c r="I52" s="3">
+        <v>307500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>304300</v>
+      </c>
+      <c r="K52" s="3">
         <v>266400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>251400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>265900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>281600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>311100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>311700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>242200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>266800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>217700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>246100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>211200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>240300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>190500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>186800</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27092200</v>
+        <v>27530700</v>
       </c>
       <c r="E54" s="3">
-        <v>26144300</v>
+        <v>27905100</v>
       </c>
       <c r="F54" s="3">
-        <v>26706800</v>
+        <v>27952500</v>
       </c>
       <c r="G54" s="3">
-        <v>27960300</v>
+        <v>26974400</v>
       </c>
       <c r="H54" s="3">
-        <v>28815100</v>
+        <v>27554800</v>
       </c>
       <c r="I54" s="3">
+        <v>28848100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>29730100</v>
+      </c>
+      <c r="K54" s="3">
         <v>27483900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>26065100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>28943000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>29250200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>31031500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>31578700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>31270700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>29833700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>29393700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>28268500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>27502200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>25918200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>24274100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>23278200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3663,418 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>938900</v>
+        <v>1087100</v>
       </c>
       <c r="E57" s="3">
-        <v>584800</v>
+        <v>1061200</v>
       </c>
       <c r="F57" s="3">
-        <v>837800</v>
+        <v>968700</v>
       </c>
       <c r="G57" s="3">
-        <v>1019600</v>
+        <v>603300</v>
       </c>
       <c r="H57" s="3">
-        <v>915500</v>
+        <v>864400</v>
       </c>
       <c r="I57" s="3">
+        <v>1052000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>944600</v>
+      </c>
+      <c r="K57" s="3">
         <v>692200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>627200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1038100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>659900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>777600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1939500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2061200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1974700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1668600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1781900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1975000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1593800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1351000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1070200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5039500</v>
+        <v>4088900</v>
       </c>
       <c r="E58" s="3">
-        <v>4297100</v>
+        <v>4864100</v>
       </c>
       <c r="F58" s="3">
-        <v>5549300</v>
+        <v>5199500</v>
       </c>
       <c r="G58" s="3">
-        <v>6283900</v>
+        <v>4433500</v>
       </c>
       <c r="H58" s="3">
-        <v>5702600</v>
+        <v>5725600</v>
       </c>
       <c r="I58" s="3">
+        <v>6483400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>5883700</v>
+      </c>
+      <c r="K58" s="3">
         <v>5678800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4686200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5012900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6203400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>6370700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4814200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>5658900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>5758300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>5769000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>5478000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>5232100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3509800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>2952200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2341000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2748900</v>
+        <v>3015400</v>
       </c>
       <c r="E59" s="3">
-        <v>2609300</v>
+        <v>2937200</v>
       </c>
       <c r="F59" s="3">
-        <v>2830400</v>
+        <v>2836200</v>
       </c>
       <c r="G59" s="3">
-        <v>2930000</v>
+        <v>2692200</v>
       </c>
       <c r="H59" s="3">
-        <v>2926800</v>
+        <v>2920200</v>
       </c>
       <c r="I59" s="3">
+        <v>3023100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3019800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2765800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2811600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2909400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2944500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3547900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4160400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3692600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3668900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3135500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3203500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2823300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2821200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2478900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2698200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8727300</v>
+        <v>8191400</v>
       </c>
       <c r="E60" s="3">
-        <v>7491200</v>
+        <v>8862500</v>
       </c>
       <c r="F60" s="3">
-        <v>9217500</v>
+        <v>9004400</v>
       </c>
       <c r="G60" s="3">
-        <v>10233600</v>
+        <v>7729100</v>
       </c>
       <c r="H60" s="3">
-        <v>9544900</v>
+        <v>9510200</v>
       </c>
       <c r="I60" s="3">
+        <v>10558500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>9848000</v>
+      </c>
+      <c r="K60" s="3">
         <v>9136800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8125000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8960400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>9807800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>10696100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>10914200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>11412700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>11401800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>10573100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>10463400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>10030300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>7924800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>6782200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>6049400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2422400</v>
+        <v>2496300</v>
       </c>
       <c r="E61" s="3">
-        <v>2826000</v>
+        <v>2504000</v>
       </c>
       <c r="F61" s="3">
-        <v>1544100</v>
+        <v>2499300</v>
       </c>
       <c r="G61" s="3">
-        <v>1708100</v>
+        <v>2915800</v>
       </c>
       <c r="H61" s="3">
-        <v>3161600</v>
+        <v>1593200</v>
       </c>
       <c r="I61" s="3">
+        <v>1762400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3262000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3251200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3162300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4710800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4136000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3674500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3082200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3172000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3311200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>3721600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>3673100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3785000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>4291800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4171300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>4192500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>591900</v>
+        <v>611200</v>
       </c>
       <c r="E62" s="3">
-        <v>560300</v>
+        <v>604900</v>
       </c>
       <c r="F62" s="3">
-        <v>569600</v>
+        <v>610700</v>
       </c>
       <c r="G62" s="3">
-        <v>577300</v>
+        <v>578100</v>
       </c>
       <c r="H62" s="3">
-        <v>611400</v>
+        <v>587700</v>
       </c>
       <c r="I62" s="3">
+        <v>595600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>630800</v>
+      </c>
+      <c r="K62" s="3">
         <v>649400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>639600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>627800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>635000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>725400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>726500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>698100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>683800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>748700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>633900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>618100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>649800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>592000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>608800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11844000</v>
+        <v>11404600</v>
       </c>
       <c r="E66" s="3">
-        <v>10983600</v>
+        <v>12073800</v>
       </c>
       <c r="F66" s="3">
-        <v>11439700</v>
+        <v>12220100</v>
       </c>
       <c r="G66" s="3">
-        <v>12647600</v>
+        <v>11332300</v>
       </c>
       <c r="H66" s="3">
-        <v>13448100</v>
+        <v>11803000</v>
       </c>
       <c r="I66" s="3">
+        <v>13049200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>13875100</v>
+      </c>
+      <c r="K66" s="3">
         <v>13169000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>12095800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>14527600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>14878300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>15631500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>15259700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15770800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>15766100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>15412600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>15077400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>14757400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>13139500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>11814400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>11105900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,8 +4637,14 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4307,59 +4654,65 @@
       <c r="E72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="3">
-        <v>2722300</v>
+      <c r="F72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>16</v>
+      <c r="H72" s="3">
+        <v>2808800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J72" s="3">
-        <v>2798900</v>
+      <c r="J72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>16</v>
+      <c r="L72" s="3">
+        <v>2798900</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N72" s="3">
-        <v>3697600</v>
+      <c r="N72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P72" s="3">
-        <v>3152900</v>
+        <v>3697600</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R72" s="3">
-        <v>2498900</v>
+        <v>3152900</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T72" s="3" t="s">
+      <c r="T72" s="3">
+        <v>2498900</v>
+      </c>
+      <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W72" s="3">
         <v>2379000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>2227000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15248200</v>
+        <v>16126100</v>
       </c>
       <c r="E76" s="3">
-        <v>15160700</v>
+        <v>15831200</v>
       </c>
       <c r="F76" s="3">
-        <v>15267000</v>
+        <v>15732400</v>
       </c>
       <c r="G76" s="3">
-        <v>15312700</v>
+        <v>15642100</v>
       </c>
       <c r="H76" s="3">
-        <v>15367000</v>
+        <v>15751800</v>
       </c>
       <c r="I76" s="3">
+        <v>15798900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>15854900</v>
+      </c>
+      <c r="K76" s="3">
         <v>14314900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>13969300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>14415400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>14371900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>15400100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>16319000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>15499900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>14067500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>13981000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>13191100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>12744800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>12778800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>12459700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>12172300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9600</v>
+        <v>295400</v>
       </c>
       <c r="E81" s="3">
-        <v>-137700</v>
+        <v>38200</v>
       </c>
       <c r="F81" s="3">
-        <v>-116100</v>
+        <v>9900</v>
       </c>
       <c r="G81" s="3">
-        <v>-118200</v>
+        <v>-142000</v>
       </c>
       <c r="H81" s="3">
-        <v>-90100</v>
+        <v>-119800</v>
       </c>
       <c r="I81" s="3">
+        <v>-121900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="K81" s="3">
         <v>247800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>139800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>230400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-70100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-844500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>316800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>122100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-61600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>701700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-181000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-165400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>341600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>152100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4853,18 +5250,18 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>172900</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -4883,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5620,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5225,18 +5658,18 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1156900</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -5255,8 +5688,14 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5311,18 +5752,18 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-129800</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -5341,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5497,18 +5956,18 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-380700</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5527,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6284,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5831,18 +6322,18 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1460200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5861,8 +6352,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5893,18 +6390,18 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>48700</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -5923,8 +6420,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5955,18 +6458,18 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-635300</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5983,6 +6486,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>TCOM</t>
   </si>
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>722000</v>
+        <v>714600</v>
       </c>
       <c r="E8" s="3">
-        <v>989800</v>
+        <v>979700</v>
       </c>
       <c r="F8" s="3">
-        <v>576100</v>
+        <v>570200</v>
       </c>
       <c r="G8" s="3">
-        <v>590100</v>
+        <v>584100</v>
       </c>
       <c r="H8" s="3">
-        <v>672300</v>
+        <v>665400</v>
       </c>
       <c r="I8" s="3">
-        <v>767500</v>
+        <v>759600</v>
       </c>
       <c r="J8" s="3">
-        <v>845900</v>
+        <v>837300</v>
       </c>
       <c r="K8" s="3">
         <v>571800</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>172200</v>
+        <v>170400</v>
       </c>
       <c r="E9" s="3">
-        <v>182500</v>
+        <v>180700</v>
       </c>
       <c r="F9" s="3">
-        <v>140200</v>
+        <v>138700</v>
       </c>
       <c r="G9" s="3">
-        <v>153200</v>
+        <v>151700</v>
       </c>
       <c r="H9" s="3">
-        <v>160600</v>
+        <v>158900</v>
       </c>
       <c r="I9" s="3">
-        <v>175600</v>
+        <v>173800</v>
       </c>
       <c r="J9" s="3">
-        <v>175600</v>
+        <v>173800</v>
       </c>
       <c r="K9" s="3">
         <v>143900</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>549800</v>
+        <v>544200</v>
       </c>
       <c r="E10" s="3">
-        <v>807300</v>
+        <v>799000</v>
       </c>
       <c r="F10" s="3">
-        <v>435900</v>
+        <v>431400</v>
       </c>
       <c r="G10" s="3">
-        <v>436900</v>
+        <v>432400</v>
       </c>
       <c r="H10" s="3">
-        <v>511700</v>
+        <v>506500</v>
       </c>
       <c r="I10" s="3">
-        <v>591900</v>
+        <v>585800</v>
       </c>
       <c r="J10" s="3">
-        <v>670300</v>
+        <v>663400</v>
       </c>
       <c r="K10" s="3">
         <v>427900</v>
@@ -997,25 +997,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>302200</v>
+        <v>299100</v>
       </c>
       <c r="E12" s="3">
-        <v>357800</v>
+        <v>354100</v>
       </c>
       <c r="F12" s="3">
-        <v>254500</v>
+        <v>251900</v>
       </c>
       <c r="G12" s="3">
-        <v>283500</v>
+        <v>280600</v>
       </c>
       <c r="H12" s="3">
-        <v>321100</v>
+        <v>317800</v>
       </c>
       <c r="I12" s="3">
-        <v>331000</v>
+        <v>327700</v>
       </c>
       <c r="J12" s="3">
-        <v>319700</v>
+        <v>316400</v>
       </c>
       <c r="K12" s="3">
         <v>309700</v>
@@ -1292,25 +1292,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>756400</v>
+        <v>748700</v>
       </c>
       <c r="E17" s="3">
-        <v>867200</v>
+        <v>858300</v>
       </c>
       <c r="F17" s="3">
-        <v>600000</v>
+        <v>593900</v>
       </c>
       <c r="G17" s="3">
-        <v>641700</v>
+        <v>635100</v>
       </c>
       <c r="H17" s="3">
-        <v>773400</v>
+        <v>765500</v>
       </c>
       <c r="I17" s="3">
-        <v>802800</v>
+        <v>794600</v>
       </c>
       <c r="J17" s="3">
-        <v>799100</v>
+        <v>790900</v>
       </c>
       <c r="K17" s="3">
         <v>681400</v>
@@ -1360,25 +1360,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-34500</v>
+        <v>-34100</v>
       </c>
       <c r="E18" s="3">
-        <v>122700</v>
+        <v>121400</v>
       </c>
       <c r="F18" s="3">
-        <v>-24000</v>
+        <v>-23700</v>
       </c>
       <c r="G18" s="3">
-        <v>-51600</v>
+        <v>-51000</v>
       </c>
       <c r="H18" s="3">
-        <v>-101100</v>
+        <v>-100100</v>
       </c>
       <c r="I18" s="3">
-        <v>-35300</v>
+        <v>-35000</v>
       </c>
       <c r="J18" s="3">
-        <v>46800</v>
+        <v>46300</v>
       </c>
       <c r="K18" s="3">
         <v>-109600</v>
@@ -1454,25 +1454,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>460000</v>
+        <v>441500</v>
       </c>
       <c r="E20" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="F20" s="3">
-        <v>145500</v>
+        <v>144000</v>
       </c>
       <c r="G20" s="3">
-        <v>-16700</v>
+        <v>-16500</v>
       </c>
       <c r="H20" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="I20" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="J20" s="3">
-        <v>-54000</v>
+        <v>-53400</v>
       </c>
       <c r="K20" s="3">
         <v>407300</v>
@@ -1590,25 +1590,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>61300</v>
+        <v>46900</v>
       </c>
       <c r="E22" s="3">
-        <v>70700</v>
+        <v>69900</v>
       </c>
       <c r="F22" s="3">
-        <v>50400</v>
+        <v>49900</v>
       </c>
       <c r="G22" s="3">
-        <v>49000</v>
+        <v>48500</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="3">
-        <v>122700</v>
+        <v>121400</v>
       </c>
       <c r="J22" s="3">
-        <v>60000</v>
+        <v>59400</v>
       </c>
       <c r="K22" s="3">
         <v>56700</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>364200</v>
+        <v>360500</v>
       </c>
       <c r="E23" s="3">
-        <v>60300</v>
+        <v>59700</v>
       </c>
       <c r="F23" s="3">
-        <v>71100</v>
+        <v>70400</v>
       </c>
       <c r="G23" s="3">
-        <v>-117200</v>
+        <v>-116000</v>
       </c>
       <c r="H23" s="3">
-        <v>-106000</v>
+        <v>-104900</v>
       </c>
       <c r="I23" s="3">
-        <v>-143200</v>
+        <v>-141700</v>
       </c>
       <c r="J23" s="3">
-        <v>-67200</v>
+        <v>-66500</v>
       </c>
       <c r="K23" s="3">
         <v>241100</v>
@@ -1726,13 +1726,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>35300</v>
+        <v>35000</v>
       </c>
       <c r="E24" s="3">
-        <v>39800</v>
+        <v>39400</v>
       </c>
       <c r="F24" s="3">
-        <v>24800</v>
+        <v>24600</v>
       </c>
       <c r="G24" s="3">
         <v>-2000</v>
@@ -1741,10 +1741,10 @@
         <v>5300</v>
       </c>
       <c r="I24" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="J24" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="K24" s="3">
         <v>5700</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>328900</v>
+        <v>325500</v>
       </c>
       <c r="E26" s="3">
-        <v>20500</v>
+        <v>20300</v>
       </c>
       <c r="F26" s="3">
-        <v>46200</v>
+        <v>45800</v>
       </c>
       <c r="G26" s="3">
-        <v>-115200</v>
+        <v>-114000</v>
       </c>
       <c r="H26" s="3">
-        <v>-111300</v>
+        <v>-110200</v>
       </c>
       <c r="I26" s="3">
-        <v>-156800</v>
+        <v>-155200</v>
       </c>
       <c r="J26" s="3">
-        <v>-81100</v>
+        <v>-80300</v>
       </c>
       <c r="K26" s="3">
         <v>235400</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>295400</v>
+        <v>292400</v>
       </c>
       <c r="E27" s="3">
-        <v>38200</v>
+        <v>37800</v>
       </c>
       <c r="F27" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="G27" s="3">
-        <v>-142000</v>
+        <v>-140600</v>
       </c>
       <c r="H27" s="3">
-        <v>-119800</v>
+        <v>-118600</v>
       </c>
       <c r="I27" s="3">
-        <v>-121900</v>
+        <v>-120700</v>
       </c>
       <c r="J27" s="3">
-        <v>-92900</v>
+        <v>-92000</v>
       </c>
       <c r="K27" s="3">
         <v>247800</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-460000</v>
+        <v>-441500</v>
       </c>
       <c r="E32" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="F32" s="3">
-        <v>-145500</v>
+        <v>-144000</v>
       </c>
       <c r="G32" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="H32" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="I32" s="3">
-        <v>-14800</v>
+        <v>-14600</v>
       </c>
       <c r="J32" s="3">
-        <v>54000</v>
+        <v>53400</v>
       </c>
       <c r="K32" s="3">
         <v>-407300</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>295400</v>
+        <v>292400</v>
       </c>
       <c r="E33" s="3">
-        <v>38200</v>
+        <v>37800</v>
       </c>
       <c r="F33" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="G33" s="3">
-        <v>-142000</v>
+        <v>-140600</v>
       </c>
       <c r="H33" s="3">
-        <v>-119800</v>
+        <v>-118600</v>
       </c>
       <c r="I33" s="3">
-        <v>-121900</v>
+        <v>-120700</v>
       </c>
       <c r="J33" s="3">
-        <v>-92900</v>
+        <v>-92000</v>
       </c>
       <c r="K33" s="3">
         <v>247800</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>295400</v>
+        <v>292400</v>
       </c>
       <c r="E35" s="3">
-        <v>38200</v>
+        <v>37800</v>
       </c>
       <c r="F35" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="G35" s="3">
-        <v>-142000</v>
+        <v>-140600</v>
       </c>
       <c r="H35" s="3">
-        <v>-119800</v>
+        <v>-118600</v>
       </c>
       <c r="I35" s="3">
-        <v>-121900</v>
+        <v>-120700</v>
       </c>
       <c r="J35" s="3">
-        <v>-92900</v>
+        <v>-92000</v>
       </c>
       <c r="K35" s="3">
         <v>247800</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2655100</v>
+        <v>2416600</v>
       </c>
       <c r="E41" s="3">
-        <v>2716700</v>
+        <v>2688900</v>
       </c>
       <c r="F41" s="3">
-        <v>3297400</v>
+        <v>3263600</v>
       </c>
       <c r="G41" s="3">
-        <v>2996100</v>
+        <v>2965400</v>
       </c>
       <c r="H41" s="3">
-        <v>2846300</v>
+        <v>2817100</v>
       </c>
       <c r="I41" s="3">
-        <v>2948200</v>
+        <v>2918100</v>
       </c>
       <c r="J41" s="3">
-        <v>3977700</v>
+        <v>3937000</v>
       </c>
       <c r="K41" s="3">
         <v>3210000</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3668800</v>
+        <v>3631200</v>
       </c>
       <c r="E42" s="3">
-        <v>4119600</v>
+        <v>4077400</v>
       </c>
       <c r="F42" s="3">
-        <v>4412200</v>
+        <v>4367000</v>
       </c>
       <c r="G42" s="3">
-        <v>4361600</v>
+        <v>4317000</v>
       </c>
       <c r="H42" s="3">
-        <v>4246300</v>
+        <v>4202800</v>
       </c>
       <c r="I42" s="3">
-        <v>5297100</v>
+        <v>5242900</v>
       </c>
       <c r="J42" s="3">
-        <v>5067800</v>
+        <v>5015900</v>
       </c>
       <c r="K42" s="3">
         <v>4270500</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>787900</v>
+        <v>1028300</v>
       </c>
       <c r="E43" s="3">
-        <v>883400</v>
+        <v>874400</v>
       </c>
       <c r="F43" s="3">
-        <v>782000</v>
+        <v>774000</v>
       </c>
       <c r="G43" s="3">
-        <v>571500</v>
+        <v>565600</v>
       </c>
       <c r="H43" s="3">
-        <v>906800</v>
+        <v>897500</v>
       </c>
       <c r="I43" s="3">
-        <v>748700</v>
+        <v>741000</v>
       </c>
       <c r="J43" s="3">
-        <v>766800</v>
+        <v>758900</v>
       </c>
       <c r="K43" s="3">
         <v>605900</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1711500</v>
+        <v>1656900</v>
       </c>
       <c r="E45" s="3">
-        <v>1909300</v>
+        <v>1889700</v>
       </c>
       <c r="F45" s="3">
-        <v>1547900</v>
+        <v>1532100</v>
       </c>
       <c r="G45" s="3">
-        <v>1331900</v>
+        <v>1318300</v>
       </c>
       <c r="H45" s="3">
-        <v>1495100</v>
+        <v>1479800</v>
       </c>
       <c r="I45" s="3">
-        <v>2006700</v>
+        <v>1986100</v>
       </c>
       <c r="J45" s="3">
-        <v>1490300</v>
+        <v>1475100</v>
       </c>
       <c r="K45" s="3">
         <v>1362200</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8823300</v>
+        <v>8733000</v>
       </c>
       <c r="E46" s="3">
-        <v>9629000</v>
+        <v>9530400</v>
       </c>
       <c r="F46" s="3">
-        <v>10039500</v>
+        <v>9936700</v>
       </c>
       <c r="G46" s="3">
-        <v>9261000</v>
+        <v>9166300</v>
       </c>
       <c r="H46" s="3">
-        <v>9494400</v>
+        <v>9397300</v>
       </c>
       <c r="I46" s="3">
-        <v>11000700</v>
+        <v>10888100</v>
       </c>
       <c r="J46" s="3">
-        <v>11302600</v>
+        <v>11186900</v>
       </c>
       <c r="K46" s="3">
         <v>9448600</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7206400</v>
+        <v>7136200</v>
       </c>
       <c r="E47" s="3">
-        <v>6750700</v>
+        <v>6681600</v>
       </c>
       <c r="F47" s="3">
-        <v>6330100</v>
+        <v>6265300</v>
       </c>
       <c r="G47" s="3">
-        <v>6128000</v>
+        <v>6065300</v>
       </c>
       <c r="H47" s="3">
-        <v>6460900</v>
+        <v>6394800</v>
       </c>
       <c r="I47" s="3">
-        <v>6206700</v>
+        <v>6143200</v>
       </c>
       <c r="J47" s="3">
-        <v>6755700</v>
+        <v>6686600</v>
       </c>
       <c r="K47" s="3">
         <v>6715800</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>865000</v>
+        <v>856200</v>
       </c>
       <c r="E48" s="3">
-        <v>875400</v>
+        <v>866400</v>
       </c>
       <c r="F48" s="3">
-        <v>895000</v>
+        <v>885900</v>
       </c>
       <c r="G48" s="3">
-        <v>875500</v>
+        <v>866500</v>
       </c>
       <c r="H48" s="3">
-        <v>906400</v>
+        <v>897100</v>
       </c>
       <c r="I48" s="3">
-        <v>925800</v>
+        <v>916300</v>
       </c>
       <c r="J48" s="3">
-        <v>950600</v>
+        <v>940900</v>
       </c>
       <c r="K48" s="3">
         <v>949500</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10363900</v>
+        <v>10257800</v>
       </c>
       <c r="E49" s="3">
-        <v>10366800</v>
+        <v>10260700</v>
       </c>
       <c r="F49" s="3">
-        <v>10377300</v>
+        <v>10271000</v>
       </c>
       <c r="G49" s="3">
-        <v>10390000</v>
+        <v>10283700</v>
       </c>
       <c r="H49" s="3">
-        <v>10397900</v>
+        <v>10291500</v>
       </c>
       <c r="I49" s="3">
-        <v>10407400</v>
+        <v>10300900</v>
       </c>
       <c r="J49" s="3">
-        <v>10416800</v>
+        <v>10310100</v>
       </c>
       <c r="K49" s="3">
         <v>10103600</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>272000</v>
+        <v>265700</v>
       </c>
       <c r="E52" s="3">
-        <v>283200</v>
+        <v>280300</v>
       </c>
       <c r="F52" s="3">
-        <v>310700</v>
+        <v>307500</v>
       </c>
       <c r="G52" s="3">
-        <v>319800</v>
+        <v>316600</v>
       </c>
       <c r="H52" s="3">
-        <v>295100</v>
+        <v>292100</v>
       </c>
       <c r="I52" s="3">
-        <v>307500</v>
+        <v>304300</v>
       </c>
       <c r="J52" s="3">
-        <v>304300</v>
+        <v>301200</v>
       </c>
       <c r="K52" s="3">
         <v>266400</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27530700</v>
+        <v>27248900</v>
       </c>
       <c r="E54" s="3">
-        <v>27905100</v>
+        <v>27619500</v>
       </c>
       <c r="F54" s="3">
-        <v>27952500</v>
+        <v>27666400</v>
       </c>
       <c r="G54" s="3">
-        <v>26974400</v>
+        <v>26698300</v>
       </c>
       <c r="H54" s="3">
-        <v>27554800</v>
+        <v>27272800</v>
       </c>
       <c r="I54" s="3">
-        <v>28848100</v>
+        <v>28552800</v>
       </c>
       <c r="J54" s="3">
-        <v>29730100</v>
+        <v>29425800</v>
       </c>
       <c r="K54" s="3">
         <v>27483900</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1087100</v>
+        <v>1075900</v>
       </c>
       <c r="E57" s="3">
-        <v>1061200</v>
+        <v>1050300</v>
       </c>
       <c r="F57" s="3">
-        <v>968700</v>
+        <v>958800</v>
       </c>
       <c r="G57" s="3">
-        <v>603300</v>
+        <v>597200</v>
       </c>
       <c r="H57" s="3">
-        <v>864400</v>
+        <v>855600</v>
       </c>
       <c r="I57" s="3">
-        <v>1052000</v>
+        <v>1041200</v>
       </c>
       <c r="J57" s="3">
-        <v>944600</v>
+        <v>934900</v>
       </c>
       <c r="K57" s="3">
         <v>692200</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4088900</v>
+        <v>4644600</v>
       </c>
       <c r="E58" s="3">
-        <v>4864100</v>
+        <v>4814300</v>
       </c>
       <c r="F58" s="3">
-        <v>5199500</v>
+        <v>5146300</v>
       </c>
       <c r="G58" s="3">
-        <v>4433500</v>
+        <v>4388200</v>
       </c>
       <c r="H58" s="3">
-        <v>5725600</v>
+        <v>5667000</v>
       </c>
       <c r="I58" s="3">
-        <v>6483400</v>
+        <v>6417100</v>
       </c>
       <c r="J58" s="3">
-        <v>5883700</v>
+        <v>5823500</v>
       </c>
       <c r="K58" s="3">
         <v>5678800</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3015400</v>
+        <v>2984600</v>
       </c>
       <c r="E59" s="3">
-        <v>2937200</v>
+        <v>2907100</v>
       </c>
       <c r="F59" s="3">
-        <v>2836200</v>
+        <v>2807200</v>
       </c>
       <c r="G59" s="3">
-        <v>2692200</v>
+        <v>2664600</v>
       </c>
       <c r="H59" s="3">
-        <v>2920200</v>
+        <v>2890300</v>
       </c>
       <c r="I59" s="3">
-        <v>3023100</v>
+        <v>2992100</v>
       </c>
       <c r="J59" s="3">
-        <v>3019800</v>
+        <v>2988800</v>
       </c>
       <c r="K59" s="3">
         <v>2765800</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8191400</v>
+        <v>8705100</v>
       </c>
       <c r="E60" s="3">
-        <v>8862500</v>
+        <v>8771800</v>
       </c>
       <c r="F60" s="3">
-        <v>9004400</v>
+        <v>8912200</v>
       </c>
       <c r="G60" s="3">
-        <v>7729100</v>
+        <v>7649900</v>
       </c>
       <c r="H60" s="3">
-        <v>9510200</v>
+        <v>9412900</v>
       </c>
       <c r="I60" s="3">
-        <v>10558500</v>
+        <v>10450400</v>
       </c>
       <c r="J60" s="3">
-        <v>9848000</v>
+        <v>9747200</v>
       </c>
       <c r="K60" s="3">
         <v>9136800</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2496300</v>
+        <v>1873100</v>
       </c>
       <c r="E61" s="3">
-        <v>2504000</v>
+        <v>2478400</v>
       </c>
       <c r="F61" s="3">
-        <v>2499300</v>
+        <v>2473700</v>
       </c>
       <c r="G61" s="3">
-        <v>2915800</v>
+        <v>2885900</v>
       </c>
       <c r="H61" s="3">
-        <v>1593200</v>
+        <v>1576900</v>
       </c>
       <c r="I61" s="3">
-        <v>1762400</v>
+        <v>1744300</v>
       </c>
       <c r="J61" s="3">
-        <v>3262000</v>
+        <v>3228700</v>
       </c>
       <c r="K61" s="3">
         <v>3251200</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>611200</v>
+        <v>605000</v>
       </c>
       <c r="E62" s="3">
-        <v>604900</v>
+        <v>598700</v>
       </c>
       <c r="F62" s="3">
-        <v>610700</v>
+        <v>604400</v>
       </c>
       <c r="G62" s="3">
-        <v>578100</v>
+        <v>572200</v>
       </c>
       <c r="H62" s="3">
-        <v>587700</v>
+        <v>581700</v>
       </c>
       <c r="I62" s="3">
-        <v>595600</v>
+        <v>589500</v>
       </c>
       <c r="J62" s="3">
-        <v>630800</v>
+        <v>624300</v>
       </c>
       <c r="K62" s="3">
         <v>649400</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11404600</v>
+        <v>11287800</v>
       </c>
       <c r="E66" s="3">
-        <v>12073800</v>
+        <v>11950300</v>
       </c>
       <c r="F66" s="3">
-        <v>12220100</v>
+        <v>12095000</v>
       </c>
       <c r="G66" s="3">
-        <v>11332300</v>
+        <v>11216300</v>
       </c>
       <c r="H66" s="3">
-        <v>11803000</v>
+        <v>11682200</v>
       </c>
       <c r="I66" s="3">
-        <v>13049200</v>
+        <v>12915600</v>
       </c>
       <c r="J66" s="3">
-        <v>13875100</v>
+        <v>13733100</v>
       </c>
       <c r="K66" s="3">
         <v>13169000</v>
@@ -4648,8 +4648,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>16</v>
+      <c r="D72" s="3">
+        <v>2979500</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>16</v>
@@ -4661,7 +4661,7 @@
         <v>16</v>
       </c>
       <c r="H72" s="3">
-        <v>2808800</v>
+        <v>2780000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16126100</v>
+        <v>15961000</v>
       </c>
       <c r="E76" s="3">
-        <v>15831200</v>
+        <v>15669200</v>
       </c>
       <c r="F76" s="3">
-        <v>15732400</v>
+        <v>15571400</v>
       </c>
       <c r="G76" s="3">
-        <v>15642100</v>
+        <v>15482000</v>
       </c>
       <c r="H76" s="3">
-        <v>15751800</v>
+        <v>15590600</v>
       </c>
       <c r="I76" s="3">
-        <v>15798900</v>
+        <v>15637200</v>
       </c>
       <c r="J76" s="3">
-        <v>15854900</v>
+        <v>15692600</v>
       </c>
       <c r="K76" s="3">
         <v>14314900</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>295400</v>
+        <v>292400</v>
       </c>
       <c r="E81" s="3">
-        <v>38200</v>
+        <v>37800</v>
       </c>
       <c r="F81" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="G81" s="3">
-        <v>-142000</v>
+        <v>-140600</v>
       </c>
       <c r="H81" s="3">
-        <v>-119800</v>
+        <v>-118600</v>
       </c>
       <c r="I81" s="3">
-        <v>-121900</v>
+        <v>-120700</v>
       </c>
       <c r="J81" s="3">
-        <v>-92900</v>
+        <v>-92000</v>
       </c>
       <c r="K81" s="3">
         <v>247800</v>

--- a/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>TCOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>714600</v>
+        <v>1267300</v>
       </c>
       <c r="E8" s="3">
-        <v>979700</v>
+        <v>692600</v>
       </c>
       <c r="F8" s="3">
-        <v>570200</v>
+        <v>949600</v>
       </c>
       <c r="G8" s="3">
-        <v>584100</v>
+        <v>552600</v>
       </c>
       <c r="H8" s="3">
-        <v>665400</v>
+        <v>566100</v>
       </c>
       <c r="I8" s="3">
-        <v>759600</v>
+        <v>644900</v>
       </c>
       <c r="J8" s="3">
+        <v>736300</v>
+      </c>
+      <c r="K8" s="3">
         <v>837300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>571800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>691000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>797600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>465500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>746400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1314900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1613100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1327800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1241900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1150000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1358600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1050100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>965800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>885700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>170400</v>
+        <v>225500</v>
       </c>
       <c r="E9" s="3">
-        <v>180700</v>
+        <v>165200</v>
       </c>
       <c r="F9" s="3">
-        <v>138700</v>
+        <v>175100</v>
       </c>
       <c r="G9" s="3">
-        <v>151700</v>
+        <v>134500</v>
       </c>
       <c r="H9" s="3">
-        <v>158900</v>
+        <v>147000</v>
       </c>
       <c r="I9" s="3">
+        <v>154000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>168500</v>
+      </c>
+      <c r="K9" s="3">
         <v>173800</v>
       </c>
-      <c r="J9" s="3">
-        <v>173800</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>143900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>126700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>150300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>128500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>192500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>272600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>332100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>274700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>256900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>246400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>289200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>210800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>178500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>152200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>544200</v>
+        <v>1041800</v>
       </c>
       <c r="E10" s="3">
-        <v>799000</v>
+        <v>527400</v>
       </c>
       <c r="F10" s="3">
-        <v>431400</v>
+        <v>774500</v>
       </c>
       <c r="G10" s="3">
-        <v>432400</v>
+        <v>418200</v>
       </c>
       <c r="H10" s="3">
-        <v>506500</v>
+        <v>419100</v>
       </c>
       <c r="I10" s="3">
-        <v>585800</v>
+        <v>490900</v>
       </c>
       <c r="J10" s="3">
+        <v>567800</v>
+      </c>
+      <c r="K10" s="3">
         <v>663400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>427900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>564300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>647400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>337000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>553900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1042300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1281000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1053100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>985000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>903600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1069500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>839400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>787300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>299100</v>
+        <v>368400</v>
       </c>
       <c r="E12" s="3">
-        <v>354100</v>
+        <v>289900</v>
       </c>
       <c r="F12" s="3">
-        <v>251900</v>
+        <v>343200</v>
       </c>
       <c r="G12" s="3">
-        <v>280600</v>
+        <v>244100</v>
       </c>
       <c r="H12" s="3">
-        <v>317800</v>
+        <v>272000</v>
       </c>
       <c r="I12" s="3">
-        <v>327700</v>
+        <v>308100</v>
       </c>
       <c r="J12" s="3">
+        <v>317600</v>
+      </c>
+      <c r="K12" s="3">
         <v>316400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>309700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>301000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>293200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>265400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>267600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>425000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>429600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>403600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>387000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>413500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>361800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>323000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>309900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>748700</v>
+        <v>958500</v>
       </c>
       <c r="E17" s="3">
-        <v>858300</v>
+        <v>725700</v>
       </c>
       <c r="F17" s="3">
-        <v>593900</v>
+        <v>831900</v>
       </c>
       <c r="G17" s="3">
-        <v>635100</v>
+        <v>575600</v>
       </c>
       <c r="H17" s="3">
-        <v>765500</v>
+        <v>615600</v>
       </c>
       <c r="I17" s="3">
-        <v>794600</v>
+        <v>741900</v>
       </c>
       <c r="J17" s="3">
+        <v>770200</v>
+      </c>
+      <c r="K17" s="3">
         <v>790900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>681400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>693200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>682300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>566900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>984400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1223400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1267900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1124200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1107300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1178800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1143700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>946300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>881100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>842200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-34100</v>
+        <v>308800</v>
       </c>
       <c r="E18" s="3">
-        <v>121400</v>
+        <v>-33100</v>
       </c>
       <c r="F18" s="3">
-        <v>-23700</v>
+        <v>117700</v>
       </c>
       <c r="G18" s="3">
-        <v>-51000</v>
+        <v>-23000</v>
       </c>
       <c r="H18" s="3">
-        <v>-100100</v>
+        <v>-49500</v>
       </c>
       <c r="I18" s="3">
-        <v>-35000</v>
+        <v>-97000</v>
       </c>
       <c r="J18" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="K18" s="3">
         <v>46300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-109600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>115400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-101400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-238100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>91500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>345200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>203700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>134600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-28800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>214900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>103900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>84700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,76 +1481,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>441500</v>
+        <v>288400</v>
       </c>
       <c r="E20" s="3">
-        <v>8200</v>
+        <v>427900</v>
       </c>
       <c r="F20" s="3">
-        <v>144000</v>
+        <v>8000</v>
       </c>
       <c r="G20" s="3">
-        <v>-16500</v>
+        <v>139600</v>
       </c>
       <c r="H20" s="3">
-        <v>-4800</v>
+        <v>-16000</v>
       </c>
       <c r="I20" s="3">
-        <v>14600</v>
+        <v>-4700</v>
       </c>
       <c r="J20" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-53400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>407300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>166800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>242600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>349100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-522800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>364600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-129300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-129900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>776300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-80500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-305600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>370200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>125800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>96600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1557,11 +1594,11 @@
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>629000</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>16</v>
@@ -1584,212 +1621,224 @@
       <c r="X21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>46900</v>
+        <v>67000</v>
       </c>
       <c r="E22" s="3">
-        <v>69900</v>
+        <v>45500</v>
       </c>
       <c r="F22" s="3">
-        <v>49900</v>
+        <v>67800</v>
       </c>
       <c r="G22" s="3">
-        <v>48500</v>
-      </c>
-      <c r="H22" s="3" t="s">
+        <v>48400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>47000</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="3">
-        <v>121400</v>
-      </c>
       <c r="J22" s="3">
+        <v>117700</v>
+      </c>
+      <c r="K22" s="3">
         <v>59400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>56700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>52500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>62800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>67900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>70700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>61100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>65100</v>
       </c>
       <c r="R22" s="3">
         <v>65100</v>
       </c>
       <c r="S22" s="3">
+        <v>65100</v>
+      </c>
+      <c r="T22" s="3">
         <v>67100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>64200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>57100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>53200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>46200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>360500</v>
+        <v>530200</v>
       </c>
       <c r="E23" s="3">
-        <v>59700</v>
+        <v>349400</v>
       </c>
       <c r="F23" s="3">
-        <v>70400</v>
+        <v>57900</v>
       </c>
       <c r="G23" s="3">
-        <v>-116000</v>
+        <v>68200</v>
       </c>
       <c r="H23" s="3">
-        <v>-104900</v>
+        <v>-112400</v>
       </c>
       <c r="I23" s="3">
-        <v>-141700</v>
+        <v>-101700</v>
       </c>
       <c r="J23" s="3">
+        <v>-137400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-66500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>241100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>112100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>295100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>179800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-831600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>395000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>150700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>843800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-173400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-147700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>420800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>164300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>93500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>35000</v>
+        <v>47000</v>
       </c>
       <c r="E24" s="3">
-        <v>39400</v>
+        <v>33900</v>
       </c>
       <c r="F24" s="3">
-        <v>24600</v>
+        <v>38200</v>
       </c>
       <c r="G24" s="3">
-        <v>-2000</v>
+        <v>23800</v>
       </c>
       <c r="H24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>13800</v>
+      </c>
+      <c r="L24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="M24" s="3">
+        <v>22700</v>
+      </c>
+      <c r="N24" s="3">
+        <v>35800</v>
+      </c>
+      <c r="O24" s="3">
+        <v>29600</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>57400</v>
+      </c>
+      <c r="R24" s="3">
+        <v>56200</v>
+      </c>
+      <c r="S24" s="3">
+        <v>51300</v>
+      </c>
+      <c r="T24" s="3">
+        <v>103000</v>
+      </c>
+      <c r="U24" s="3">
         <v>5300</v>
       </c>
-      <c r="I24" s="3">
-        <v>13500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>13800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>5700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>22700</v>
-      </c>
-      <c r="M24" s="3">
-        <v>35800</v>
-      </c>
-      <c r="N24" s="3">
-        <v>29600</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-40100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>57400</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>56200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>51300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>103000</v>
-      </c>
-      <c r="T24" s="3">
-        <v>5300</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>37300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>46200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>25700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>325500</v>
+        <v>483200</v>
       </c>
       <c r="E26" s="3">
-        <v>20300</v>
+        <v>315500</v>
       </c>
       <c r="F26" s="3">
-        <v>45800</v>
+        <v>19700</v>
       </c>
       <c r="G26" s="3">
-        <v>-114000</v>
+        <v>44400</v>
       </c>
       <c r="H26" s="3">
-        <v>-110200</v>
+        <v>-110500</v>
       </c>
       <c r="I26" s="3">
-        <v>-155200</v>
+        <v>-106800</v>
       </c>
       <c r="J26" s="3">
+        <v>-150500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-80300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>235400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>89400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>259300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>150200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-791500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>337600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>94500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-42600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>740800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-178700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-185000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>374600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>138600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>292400</v>
+        <v>465000</v>
       </c>
       <c r="E27" s="3">
-        <v>37800</v>
+        <v>283400</v>
       </c>
       <c r="F27" s="3">
-        <v>9800</v>
+        <v>36600</v>
       </c>
       <c r="G27" s="3">
-        <v>-140600</v>
+        <v>9500</v>
       </c>
       <c r="H27" s="3">
-        <v>-118600</v>
+        <v>-136300</v>
       </c>
       <c r="I27" s="3">
-        <v>-120700</v>
+        <v>-114900</v>
       </c>
       <c r="J27" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-92000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>247800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>139800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>230400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-70100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-844500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>316800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>122100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-61600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>701700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-181000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-165400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>341600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>152100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-441500</v>
+        <v>-288400</v>
       </c>
       <c r="E32" s="3">
-        <v>-8200</v>
+        <v>-427900</v>
       </c>
       <c r="F32" s="3">
-        <v>-144000</v>
+        <v>-8000</v>
       </c>
       <c r="G32" s="3">
-        <v>16500</v>
+        <v>-139600</v>
       </c>
       <c r="H32" s="3">
-        <v>4800</v>
+        <v>16000</v>
       </c>
       <c r="I32" s="3">
-        <v>-14600</v>
+        <v>4700</v>
       </c>
       <c r="J32" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K32" s="3">
         <v>53400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-407300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-166800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-242600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-349100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>522800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-364600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>129300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>129900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-776300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>80500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>305600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-370200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-125800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-96600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>292400</v>
+        <v>465000</v>
       </c>
       <c r="E33" s="3">
-        <v>37800</v>
+        <v>283400</v>
       </c>
       <c r="F33" s="3">
-        <v>9800</v>
+        <v>36600</v>
       </c>
       <c r="G33" s="3">
-        <v>-140600</v>
+        <v>9500</v>
       </c>
       <c r="H33" s="3">
-        <v>-118600</v>
+        <v>-136300</v>
       </c>
       <c r="I33" s="3">
-        <v>-120700</v>
+        <v>-114900</v>
       </c>
       <c r="J33" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-92000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>247800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>139800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>230400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-70100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-844500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>316800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>122100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-61600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>701700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-181000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-165400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>341600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>152100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>292400</v>
+        <v>465000</v>
       </c>
       <c r="E35" s="3">
-        <v>37800</v>
+        <v>283400</v>
       </c>
       <c r="F35" s="3">
-        <v>9800</v>
+        <v>36600</v>
       </c>
       <c r="G35" s="3">
-        <v>-140600</v>
+        <v>9500</v>
       </c>
       <c r="H35" s="3">
-        <v>-118600</v>
+        <v>-136300</v>
       </c>
       <c r="I35" s="3">
-        <v>-120700</v>
+        <v>-114900</v>
       </c>
       <c r="J35" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-92000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>247800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>139800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>230400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-70100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-844500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>316800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>122100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-61600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>701700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-181000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-165400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>341600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>152100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,212 +2747,222 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2416600</v>
+        <v>4212800</v>
       </c>
       <c r="E41" s="3">
-        <v>2688900</v>
+        <v>2342300</v>
       </c>
       <c r="F41" s="3">
-        <v>3263600</v>
+        <v>2606200</v>
       </c>
       <c r="G41" s="3">
-        <v>2965400</v>
+        <v>3163300</v>
       </c>
       <c r="H41" s="3">
-        <v>2817100</v>
+        <v>2874200</v>
       </c>
       <c r="I41" s="3">
-        <v>2918100</v>
+        <v>2730500</v>
       </c>
       <c r="J41" s="3">
+        <v>2828300</v>
+      </c>
+      <c r="K41" s="3">
         <v>3937000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3210000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2519000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3680700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2784500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3800900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3143100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2822500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3514200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3454300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3275100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3121000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3162400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2475500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2617500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3631200</v>
+        <v>2395400</v>
       </c>
       <c r="E42" s="3">
-        <v>4077400</v>
+        <v>3519600</v>
       </c>
       <c r="F42" s="3">
-        <v>4367000</v>
+        <v>3952100</v>
       </c>
       <c r="G42" s="3">
-        <v>4317000</v>
+        <v>4232700</v>
       </c>
       <c r="H42" s="3">
-        <v>4202800</v>
+        <v>4184200</v>
       </c>
       <c r="I42" s="3">
-        <v>5242900</v>
+        <v>4073600</v>
       </c>
       <c r="J42" s="3">
+        <v>5081700</v>
+      </c>
+      <c r="K42" s="3">
         <v>5015900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4270500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3454900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3245400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3519800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3955500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3637600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4014100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5033900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5126900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>5590900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>5488700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4760400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4896000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4036100</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1028300</v>
+        <v>1275400</v>
       </c>
       <c r="E43" s="3">
-        <v>874400</v>
+        <v>996700</v>
       </c>
       <c r="F43" s="3">
-        <v>774000</v>
+        <v>847500</v>
       </c>
       <c r="G43" s="3">
-        <v>565600</v>
+        <v>750200</v>
       </c>
       <c r="H43" s="3">
-        <v>897500</v>
+        <v>548200</v>
       </c>
       <c r="I43" s="3">
-        <v>741000</v>
+        <v>869900</v>
       </c>
       <c r="J43" s="3">
+        <v>718200</v>
+      </c>
+      <c r="K43" s="3">
         <v>758900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>605900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>824200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>844600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>755800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>804300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1647000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1431200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1577500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>929100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1112000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>987100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>898300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>742900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>735000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,348 +3029,366 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1656900</v>
+        <v>2089700</v>
       </c>
       <c r="E45" s="3">
-        <v>1889700</v>
+        <v>1606000</v>
       </c>
       <c r="F45" s="3">
-        <v>1532100</v>
+        <v>1831600</v>
       </c>
       <c r="G45" s="3">
-        <v>1318300</v>
+        <v>1485000</v>
       </c>
       <c r="H45" s="3">
-        <v>1479800</v>
+        <v>1277800</v>
       </c>
       <c r="I45" s="3">
-        <v>1986100</v>
+        <v>1434300</v>
       </c>
       <c r="J45" s="3">
+        <v>1925100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1475100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1362200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1277000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1835500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2296300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1638200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2292900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3369700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2122000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2560200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2099400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2669900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1838400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1400500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1190300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8733000</v>
+        <v>9973300</v>
       </c>
       <c r="E46" s="3">
-        <v>9530400</v>
+        <v>8464500</v>
       </c>
       <c r="F46" s="3">
-        <v>9936700</v>
+        <v>9237500</v>
       </c>
       <c r="G46" s="3">
-        <v>9166300</v>
+        <v>9631200</v>
       </c>
       <c r="H46" s="3">
-        <v>9397300</v>
+        <v>8884500</v>
       </c>
       <c r="I46" s="3">
-        <v>10888100</v>
+        <v>9108400</v>
       </c>
       <c r="J46" s="3">
+        <v>10553400</v>
+      </c>
+      <c r="K46" s="3">
         <v>11186900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9448600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8075100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9606100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9356500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10198900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10720600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11637500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12247600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12070600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12077400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12266700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10659600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9514900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8525300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7136200</v>
+        <v>7814900</v>
       </c>
       <c r="E47" s="3">
-        <v>6681600</v>
+        <v>6916800</v>
       </c>
       <c r="F47" s="3">
-        <v>6265300</v>
+        <v>6476200</v>
       </c>
       <c r="G47" s="3">
-        <v>6065300</v>
+        <v>6072700</v>
       </c>
       <c r="H47" s="3">
-        <v>6394800</v>
+        <v>5878800</v>
       </c>
       <c r="I47" s="3">
-        <v>6143200</v>
+        <v>6198200</v>
       </c>
       <c r="J47" s="3">
+        <v>5954300</v>
+      </c>
+      <c r="K47" s="3">
         <v>6686600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6715800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6677100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7448000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7907200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8101400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8096900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7340700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5350800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5212700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4122900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3724400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3907000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3652100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3737400</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>856200</v>
+        <v>812500</v>
       </c>
       <c r="E48" s="3">
-        <v>866400</v>
+        <v>829800</v>
       </c>
       <c r="F48" s="3">
-        <v>885900</v>
+        <v>839800</v>
       </c>
       <c r="G48" s="3">
-        <v>866500</v>
+        <v>858600</v>
       </c>
       <c r="H48" s="3">
-        <v>897100</v>
+        <v>839900</v>
       </c>
       <c r="I48" s="3">
-        <v>916300</v>
+        <v>869500</v>
       </c>
       <c r="J48" s="3">
+        <v>888100</v>
+      </c>
+      <c r="K48" s="3">
         <v>940900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>949500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>942000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>973700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>999100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1145700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1158300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1073400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1059800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1013900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>893200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>847700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>835300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>830000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>805800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10257800</v>
+        <v>9936800</v>
       </c>
       <c r="E49" s="3">
-        <v>10260700</v>
+        <v>9942500</v>
       </c>
       <c r="F49" s="3">
-        <v>10271000</v>
+        <v>9945200</v>
       </c>
       <c r="G49" s="3">
-        <v>10283700</v>
+        <v>9955300</v>
       </c>
       <c r="H49" s="3">
-        <v>10291500</v>
+        <v>9967600</v>
       </c>
       <c r="I49" s="3">
-        <v>10300900</v>
+        <v>9975100</v>
       </c>
       <c r="J49" s="3">
+        <v>9984200</v>
+      </c>
+      <c r="K49" s="3">
         <v>10310100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10103600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10119400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10649200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10705900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11274500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11291200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10976900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10908600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10878900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>10928800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>10452200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>10276000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>10086500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>10056900</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>265700</v>
+        <v>276800</v>
       </c>
       <c r="E52" s="3">
-        <v>280300</v>
+        <v>257500</v>
       </c>
       <c r="F52" s="3">
-        <v>307500</v>
+        <v>271700</v>
       </c>
       <c r="G52" s="3">
-        <v>316600</v>
+        <v>298000</v>
       </c>
       <c r="H52" s="3">
-        <v>292100</v>
+        <v>306800</v>
       </c>
       <c r="I52" s="3">
-        <v>304300</v>
+        <v>283100</v>
       </c>
       <c r="J52" s="3">
+        <v>295000</v>
+      </c>
+      <c r="K52" s="3">
         <v>301200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>266400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>251400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>265900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>281600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>311100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>311700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>242200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>266800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>217700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>246100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>211200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>240300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>190500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>186800</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27248900</v>
+        <v>28814300</v>
       </c>
       <c r="E54" s="3">
-        <v>27619500</v>
+        <v>26411200</v>
       </c>
       <c r="F54" s="3">
-        <v>27666400</v>
+        <v>26770400</v>
       </c>
       <c r="G54" s="3">
-        <v>26698300</v>
+        <v>26815800</v>
       </c>
       <c r="H54" s="3">
-        <v>27272800</v>
+        <v>25877600</v>
       </c>
       <c r="I54" s="3">
-        <v>28552800</v>
+        <v>26434300</v>
       </c>
       <c r="J54" s="3">
+        <v>27675000</v>
+      </c>
+      <c r="K54" s="3">
         <v>29425800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27483900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26065100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28943000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29250200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31031500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31578700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31270700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>29833700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>29393700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28268500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>27502200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>25918200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>24274100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>23278200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3795,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1075900</v>
+        <v>1555100</v>
       </c>
       <c r="E57" s="3">
-        <v>1050300</v>
+        <v>1042900</v>
       </c>
       <c r="F57" s="3">
-        <v>958800</v>
+        <v>1018100</v>
       </c>
       <c r="G57" s="3">
-        <v>597200</v>
+        <v>929300</v>
       </c>
       <c r="H57" s="3">
-        <v>855600</v>
+        <v>578800</v>
       </c>
       <c r="I57" s="3">
-        <v>1041200</v>
+        <v>829300</v>
       </c>
       <c r="J57" s="3">
+        <v>1009200</v>
+      </c>
+      <c r="K57" s="3">
         <v>934900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>692200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>627200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1038100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>659900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>777600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1939500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2061200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1974700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1668600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1781900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1975000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1593800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1351000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1070200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4644600</v>
+        <v>5405200</v>
       </c>
       <c r="E58" s="3">
-        <v>4814300</v>
+        <v>4501800</v>
       </c>
       <c r="F58" s="3">
-        <v>5146300</v>
+        <v>4666300</v>
       </c>
       <c r="G58" s="3">
-        <v>4388200</v>
+        <v>4988000</v>
       </c>
       <c r="H58" s="3">
-        <v>5667000</v>
+        <v>4253300</v>
       </c>
       <c r="I58" s="3">
-        <v>6417100</v>
+        <v>5492700</v>
       </c>
       <c r="J58" s="3">
+        <v>6219800</v>
+      </c>
+      <c r="K58" s="3">
         <v>5823500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5678800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4686200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5012900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6203400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6370700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4814200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5658900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5758300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5769000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5478000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5232100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3509800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2952200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2341000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2984600</v>
+        <v>3310700</v>
       </c>
       <c r="E59" s="3">
-        <v>2907100</v>
+        <v>2892800</v>
       </c>
       <c r="F59" s="3">
-        <v>2807200</v>
+        <v>2817700</v>
       </c>
       <c r="G59" s="3">
-        <v>2664600</v>
+        <v>2720900</v>
       </c>
       <c r="H59" s="3">
-        <v>2890300</v>
+        <v>2582700</v>
       </c>
       <c r="I59" s="3">
-        <v>2992100</v>
+        <v>2801500</v>
       </c>
       <c r="J59" s="3">
+        <v>2900100</v>
+      </c>
+      <c r="K59" s="3">
         <v>2988800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2765800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2811600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2909400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2944500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3547900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4160400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3692600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3668900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3135500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3203500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2823300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2821200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2478900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2698200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8705100</v>
+        <v>10271100</v>
       </c>
       <c r="E60" s="3">
-        <v>8771800</v>
+        <v>8437500</v>
       </c>
       <c r="F60" s="3">
-        <v>8912200</v>
+        <v>8502100</v>
       </c>
       <c r="G60" s="3">
-        <v>7649900</v>
+        <v>8638300</v>
       </c>
       <c r="H60" s="3">
-        <v>9412900</v>
+        <v>7414800</v>
       </c>
       <c r="I60" s="3">
-        <v>10450400</v>
+        <v>9123500</v>
       </c>
       <c r="J60" s="3">
+        <v>10129200</v>
+      </c>
+      <c r="K60" s="3">
         <v>9747200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9136800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8125000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8960400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9807800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10696100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10914200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11412700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11401800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10573100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10463400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10030300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7924800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6782200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6049400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1873100</v>
+        <v>1853600</v>
       </c>
       <c r="E61" s="3">
-        <v>2478400</v>
+        <v>1815500</v>
       </c>
       <c r="F61" s="3">
-        <v>2473700</v>
+        <v>2402200</v>
       </c>
       <c r="G61" s="3">
-        <v>2885900</v>
+        <v>2397600</v>
       </c>
       <c r="H61" s="3">
-        <v>1576900</v>
+        <v>2797200</v>
       </c>
       <c r="I61" s="3">
-        <v>1744300</v>
+        <v>1528400</v>
       </c>
       <c r="J61" s="3">
+        <v>1690700</v>
+      </c>
+      <c r="K61" s="3">
         <v>3228700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3251200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3162300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4710800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4136000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3674500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3082200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3172000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3311200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3721600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3673100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3785000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4291800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4171300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4192500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>605000</v>
+        <v>585000</v>
       </c>
       <c r="E62" s="3">
-        <v>598700</v>
+        <v>586400</v>
       </c>
       <c r="F62" s="3">
-        <v>604400</v>
+        <v>580300</v>
       </c>
       <c r="G62" s="3">
-        <v>572200</v>
+        <v>585800</v>
       </c>
       <c r="H62" s="3">
-        <v>581700</v>
+        <v>554600</v>
       </c>
       <c r="I62" s="3">
-        <v>589500</v>
+        <v>563800</v>
       </c>
       <c r="J62" s="3">
+        <v>571400</v>
+      </c>
+      <c r="K62" s="3">
         <v>624300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>649400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>639600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>627800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>635000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>725400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>726500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>698100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>683800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>748700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>633900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>618100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>649800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>592000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>608800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11287800</v>
+        <v>12811200</v>
       </c>
       <c r="E66" s="3">
-        <v>11950300</v>
+        <v>10940800</v>
       </c>
       <c r="F66" s="3">
-        <v>12095000</v>
+        <v>11582900</v>
       </c>
       <c r="G66" s="3">
-        <v>11216300</v>
+        <v>11723100</v>
       </c>
       <c r="H66" s="3">
-        <v>11682200</v>
+        <v>10871500</v>
       </c>
       <c r="I66" s="3">
-        <v>12915600</v>
+        <v>11323000</v>
       </c>
       <c r="J66" s="3">
+        <v>12518600</v>
+      </c>
+      <c r="K66" s="3">
         <v>13733100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13169000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12095800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14527600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14878300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15631500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15259700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15770800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15766100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15412600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15077400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14757400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13139500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11814400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11105900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,16 +4814,19 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>2979500</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2887900</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>16</v>
@@ -4660,11 +4834,11 @@
       <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="3">
-        <v>2780000</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="I72" s="3">
+        <v>2694600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>16</v>
@@ -4672,11 +4846,11 @@
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="3">
         <v>2798900</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
@@ -4684,35 +4858,38 @@
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="3">
         <v>3697600</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3152900</v>
       </c>
-      <c r="S72" s="3" t="s">
+      <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2498900</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X72" s="3">
         <v>2379000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2227000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15961000</v>
+        <v>16003100</v>
       </c>
       <c r="E76" s="3">
-        <v>15669200</v>
+        <v>15470400</v>
       </c>
       <c r="F76" s="3">
-        <v>15571400</v>
+        <v>15187500</v>
       </c>
       <c r="G76" s="3">
-        <v>15482000</v>
+        <v>15092700</v>
       </c>
       <c r="H76" s="3">
-        <v>15590600</v>
+        <v>15006000</v>
       </c>
       <c r="I76" s="3">
-        <v>15637200</v>
+        <v>15111300</v>
       </c>
       <c r="J76" s="3">
+        <v>15156500</v>
+      </c>
+      <c r="K76" s="3">
         <v>15692600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14314900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13969300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14415400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14371900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15400100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16319000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15499900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14067500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13981000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13191100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12744800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12778800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12459700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12172300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>292400</v>
+        <v>465000</v>
       </c>
       <c r="E81" s="3">
-        <v>37800</v>
+        <v>283400</v>
       </c>
       <c r="F81" s="3">
-        <v>9800</v>
+        <v>36600</v>
       </c>
       <c r="G81" s="3">
-        <v>-140600</v>
+        <v>9500</v>
       </c>
       <c r="H81" s="3">
-        <v>-118600</v>
+        <v>-136300</v>
       </c>
       <c r="I81" s="3">
-        <v>-120700</v>
+        <v>-114900</v>
       </c>
       <c r="J81" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-92000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>247800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>139800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>230400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-70100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-844500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>316800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>122100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-61600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>701700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-181000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-165400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>341600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>152100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5256,15 +5455,15 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>172900</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5664,15 +5881,15 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1156900</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -5694,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5758,15 +5979,15 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-129800</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5962,15 +6192,15 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-380700</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6328,15 +6574,15 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1460200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6396,15 +6645,15 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>48700</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6464,15 +6716,15 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-635300</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCOM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>TCOM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1267300</v>
+        <v>1553000</v>
       </c>
       <c r="E8" s="3">
-        <v>692600</v>
+        <v>1270100</v>
       </c>
       <c r="F8" s="3">
-        <v>949600</v>
+        <v>694100</v>
       </c>
       <c r="G8" s="3">
-        <v>552600</v>
+        <v>951600</v>
       </c>
       <c r="H8" s="3">
-        <v>566100</v>
+        <v>553800</v>
       </c>
       <c r="I8" s="3">
-        <v>644900</v>
+        <v>567400</v>
       </c>
       <c r="J8" s="3">
+        <v>646400</v>
+      </c>
+      <c r="K8" s="3">
         <v>736300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>837300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>571800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>691000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>797600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>465500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>746400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1314900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1613100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1327800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1241900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1150000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1358600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1050100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>965800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>885700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>225500</v>
+        <v>277100</v>
       </c>
       <c r="E9" s="3">
-        <v>165200</v>
+        <v>226000</v>
       </c>
       <c r="F9" s="3">
-        <v>175100</v>
+        <v>165600</v>
       </c>
       <c r="G9" s="3">
-        <v>134500</v>
+        <v>175500</v>
       </c>
       <c r="H9" s="3">
-        <v>147000</v>
+        <v>134800</v>
       </c>
       <c r="I9" s="3">
-        <v>154000</v>
+        <v>147300</v>
       </c>
       <c r="J9" s="3">
+        <v>154400</v>
+      </c>
+      <c r="K9" s="3">
         <v>168500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>173800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>143900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>126700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>150300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>128500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>192500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>272600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>332100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>274700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>256900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>246400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>289200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>210800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>178500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>152200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1041800</v>
+        <v>1275900</v>
       </c>
       <c r="E10" s="3">
-        <v>527400</v>
+        <v>1044000</v>
       </c>
       <c r="F10" s="3">
-        <v>774500</v>
+        <v>528600</v>
       </c>
       <c r="G10" s="3">
-        <v>418200</v>
+        <v>776100</v>
       </c>
       <c r="H10" s="3">
         <v>419100</v>
       </c>
       <c r="I10" s="3">
-        <v>490900</v>
+        <v>420000</v>
       </c>
       <c r="J10" s="3">
+        <v>492000</v>
+      </c>
+      <c r="K10" s="3">
         <v>567800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>663400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>427900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>564300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>647400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>337000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>553900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1042300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1281000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1053100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>985000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>903600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1069500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>839400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>787300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,79 +1018,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>368400</v>
+        <v>407800</v>
       </c>
       <c r="E12" s="3">
-        <v>289900</v>
+        <v>369200</v>
       </c>
       <c r="F12" s="3">
-        <v>343200</v>
+        <v>290500</v>
       </c>
       <c r="G12" s="3">
-        <v>244100</v>
+        <v>344000</v>
       </c>
       <c r="H12" s="3">
-        <v>272000</v>
+        <v>244700</v>
       </c>
       <c r="I12" s="3">
-        <v>308100</v>
+        <v>272600</v>
       </c>
       <c r="J12" s="3">
+        <v>308700</v>
+      </c>
+      <c r="K12" s="3">
         <v>317600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>316400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>309700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>301000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>293200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>265400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>267600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>425000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>429600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>403600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>387000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>413500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>361800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>323000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>309900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>297600</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>958500</v>
+        <v>1141900</v>
       </c>
       <c r="E17" s="3">
-        <v>725700</v>
+        <v>960600</v>
       </c>
       <c r="F17" s="3">
-        <v>831900</v>
+        <v>727300</v>
       </c>
       <c r="G17" s="3">
-        <v>575600</v>
+        <v>833700</v>
       </c>
       <c r="H17" s="3">
-        <v>615600</v>
+        <v>576900</v>
       </c>
       <c r="I17" s="3">
-        <v>741900</v>
+        <v>616900</v>
       </c>
       <c r="J17" s="3">
+        <v>743600</v>
+      </c>
+      <c r="K17" s="3">
         <v>770200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>790900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>681400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>693200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>682300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>566900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>984400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1223400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1267900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1124200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1107300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1178800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1143700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>946300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>881100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>842200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>308800</v>
+        <v>411100</v>
       </c>
       <c r="E18" s="3">
+        <v>309400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-33100</v>
       </c>
-      <c r="F18" s="3">
-        <v>117700</v>
-      </c>
       <c r="G18" s="3">
-        <v>-23000</v>
+        <v>117900</v>
       </c>
       <c r="H18" s="3">
-        <v>-49500</v>
+        <v>-23100</v>
       </c>
       <c r="I18" s="3">
-        <v>-97000</v>
+        <v>-49600</v>
       </c>
       <c r="J18" s="3">
+        <v>-97200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-33900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>46300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-109600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>115400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-101400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-238100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>91500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>345200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>203700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>134600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-28800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>214900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>103900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>84700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,79 +1515,83 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>288400</v>
+        <v>-199900</v>
       </c>
       <c r="E20" s="3">
-        <v>427900</v>
+        <v>289000</v>
       </c>
       <c r="F20" s="3">
+        <v>428900</v>
+      </c>
+      <c r="G20" s="3">
         <v>8000</v>
       </c>
-      <c r="G20" s="3">
-        <v>139600</v>
-      </c>
       <c r="H20" s="3">
+        <v>139900</v>
+      </c>
+      <c r="I20" s="3">
         <v>-16000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-53400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>407300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>166800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>242600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>349100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-522800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>364600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-129300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-129900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>776300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-80500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-305600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>370200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>125800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>96600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1597,11 +1634,11 @@
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>629000</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>16</v>
@@ -1624,221 +1661,233 @@
       <c r="Y21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>67000</v>
+        <v>76600</v>
       </c>
       <c r="E22" s="3">
-        <v>45500</v>
+        <v>67100</v>
       </c>
       <c r="F22" s="3">
-        <v>67800</v>
+        <v>45600</v>
       </c>
       <c r="G22" s="3">
-        <v>48400</v>
+        <v>67900</v>
       </c>
       <c r="H22" s="3">
-        <v>47000</v>
-      </c>
-      <c r="I22" s="3" t="s">
+        <v>48500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>47100</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>117700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>59400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>56700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>52500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>62800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>67900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>70700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>61100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>65100</v>
       </c>
       <c r="S22" s="3">
         <v>65100</v>
       </c>
       <c r="T22" s="3">
+        <v>65100</v>
+      </c>
+      <c r="U22" s="3">
         <v>67100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>64200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>57100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>53200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>46200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>530200</v>
+        <v>134500</v>
       </c>
       <c r="E23" s="3">
-        <v>349400</v>
+        <v>531300</v>
       </c>
       <c r="F23" s="3">
-        <v>57900</v>
+        <v>350200</v>
       </c>
       <c r="G23" s="3">
-        <v>68200</v>
+        <v>58000</v>
       </c>
       <c r="H23" s="3">
-        <v>-112400</v>
+        <v>68300</v>
       </c>
       <c r="I23" s="3">
-        <v>-101700</v>
+        <v>-112700</v>
       </c>
       <c r="J23" s="3">
+        <v>-101900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-137400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-66500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>241100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>112100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>295100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>179800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-831600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>395000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>150700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>843800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-173400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-147700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>420800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>164300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>93500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47000</v>
+        <v>77600</v>
       </c>
       <c r="E24" s="3">
-        <v>33900</v>
+        <v>47100</v>
       </c>
       <c r="F24" s="3">
+        <v>34000</v>
+      </c>
+      <c r="G24" s="3">
         <v>38200</v>
       </c>
-      <c r="G24" s="3">
-        <v>23800</v>
-      </c>
       <c r="H24" s="3">
+        <v>23900</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>35800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>29600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-40100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>57400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>56200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>51300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>103000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>37300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>46200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>25700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>483200</v>
+        <v>56900</v>
       </c>
       <c r="E26" s="3">
-        <v>315500</v>
+        <v>484200</v>
       </c>
       <c r="F26" s="3">
+        <v>316200</v>
+      </c>
+      <c r="G26" s="3">
         <v>19700</v>
       </c>
-      <c r="G26" s="3">
-        <v>44400</v>
-      </c>
       <c r="H26" s="3">
-        <v>-110500</v>
+        <v>44500</v>
       </c>
       <c r="I26" s="3">
-        <v>-106800</v>
+        <v>-110700</v>
       </c>
       <c r="J26" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-150500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-80300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>235400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>89400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>259300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>150200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-791500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>337600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>94500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-42600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>740800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-178700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-185000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>374600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>138600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>59400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>465000</v>
+        <v>87100</v>
       </c>
       <c r="E27" s="3">
-        <v>283400</v>
+        <v>466000</v>
       </c>
       <c r="F27" s="3">
-        <v>36600</v>
+        <v>284000</v>
       </c>
       <c r="G27" s="3">
+        <v>36700</v>
+      </c>
+      <c r="H27" s="3">
         <v>9500</v>
       </c>
-      <c r="H27" s="3">
-        <v>-136300</v>
-      </c>
       <c r="I27" s="3">
-        <v>-114900</v>
+        <v>-136600</v>
       </c>
       <c r="J27" s="3">
+        <v>-115200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-117000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-92000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>247800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>139800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>230400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-70100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-844500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>316800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>122100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-61600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>701700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-181000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-165400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>341600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>152100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-288400</v>
+        <v>199900</v>
       </c>
       <c r="E32" s="3">
-        <v>-427900</v>
+        <v>-289000</v>
       </c>
       <c r="F32" s="3">
+        <v>-428900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-8000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-139600</v>
-      </c>
       <c r="H32" s="3">
+        <v>-139900</v>
+      </c>
+      <c r="I32" s="3">
         <v>16000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>53400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-407300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-166800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-242600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-349100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>522800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-364600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>129300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>129900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-776300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>80500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>305600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-370200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-125800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-96600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>465000</v>
+        <v>87100</v>
       </c>
       <c r="E33" s="3">
-        <v>283400</v>
+        <v>466000</v>
       </c>
       <c r="F33" s="3">
-        <v>36600</v>
+        <v>284000</v>
       </c>
       <c r="G33" s="3">
+        <v>36700</v>
+      </c>
+      <c r="H33" s="3">
         <v>9500</v>
       </c>
-      <c r="H33" s="3">
-        <v>-136300</v>
-      </c>
       <c r="I33" s="3">
-        <v>-114900</v>
+        <v>-136600</v>
       </c>
       <c r="J33" s="3">
+        <v>-115200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-117000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-92000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>247800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>139800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>230400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-70100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-844500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>316800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>122100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-61600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>701700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-181000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-165400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>341600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>152100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>465000</v>
+        <v>87100</v>
       </c>
       <c r="E35" s="3">
-        <v>283400</v>
+        <v>466000</v>
       </c>
       <c r="F35" s="3">
-        <v>36600</v>
+        <v>284000</v>
       </c>
       <c r="G35" s="3">
+        <v>36700</v>
+      </c>
+      <c r="H35" s="3">
         <v>9500</v>
       </c>
-      <c r="H35" s="3">
-        <v>-136300</v>
-      </c>
       <c r="I35" s="3">
-        <v>-114900</v>
+        <v>-136600</v>
       </c>
       <c r="J35" s="3">
+        <v>-115200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-117000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-92000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>247800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>139800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>230400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-70100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-844500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>316800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>122100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-61600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>701700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-181000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-165400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>341600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>152100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,221 +2834,231 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4212800</v>
+        <v>5087300</v>
       </c>
       <c r="E41" s="3">
-        <v>2342300</v>
+        <v>4221900</v>
       </c>
       <c r="F41" s="3">
-        <v>2606200</v>
+        <v>2347400</v>
       </c>
       <c r="G41" s="3">
-        <v>3163300</v>
+        <v>2611900</v>
       </c>
       <c r="H41" s="3">
-        <v>2874200</v>
+        <v>3170200</v>
       </c>
       <c r="I41" s="3">
-        <v>2730500</v>
+        <v>2880500</v>
       </c>
       <c r="J41" s="3">
+        <v>2736500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2828300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3937000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3210000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2519000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3680700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2784500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3800900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3143100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2822500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3514200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3454300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3275100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3121000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3162400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2475500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2617500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2395400</v>
+        <v>2558900</v>
       </c>
       <c r="E42" s="3">
-        <v>3519600</v>
+        <v>2400700</v>
       </c>
       <c r="F42" s="3">
-        <v>3952100</v>
+        <v>3527300</v>
       </c>
       <c r="G42" s="3">
-        <v>4232700</v>
+        <v>3960700</v>
       </c>
       <c r="H42" s="3">
-        <v>4184200</v>
+        <v>4242000</v>
       </c>
       <c r="I42" s="3">
-        <v>4073600</v>
+        <v>4193400</v>
       </c>
       <c r="J42" s="3">
+        <v>4082500</v>
+      </c>
+      <c r="K42" s="3">
         <v>5081700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5015900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4270500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3454900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3245400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3519800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3955500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3637600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4014100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5033900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>5126900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>5590900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5488700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4760400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4896000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4036100</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1275400</v>
+        <v>1475900</v>
       </c>
       <c r="E43" s="3">
-        <v>996700</v>
+        <v>1278200</v>
       </c>
       <c r="F43" s="3">
-        <v>847500</v>
+        <v>998900</v>
       </c>
       <c r="G43" s="3">
-        <v>750200</v>
+        <v>849300</v>
       </c>
       <c r="H43" s="3">
-        <v>548200</v>
+        <v>751800</v>
       </c>
       <c r="I43" s="3">
-        <v>869900</v>
+        <v>549400</v>
       </c>
       <c r="J43" s="3">
+        <v>871800</v>
+      </c>
+      <c r="K43" s="3">
         <v>718200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>758900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>605900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>824200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>844600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>755800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>804300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1647000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1431200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1577500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>929100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1112000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>987100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>898300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>742900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>735000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,363 +3128,381 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2089700</v>
+        <v>2351200</v>
       </c>
       <c r="E45" s="3">
-        <v>1606000</v>
+        <v>2094300</v>
       </c>
       <c r="F45" s="3">
-        <v>1831600</v>
+        <v>1609500</v>
       </c>
       <c r="G45" s="3">
-        <v>1485000</v>
+        <v>1835600</v>
       </c>
       <c r="H45" s="3">
-        <v>1277800</v>
+        <v>1488200</v>
       </c>
       <c r="I45" s="3">
-        <v>1434300</v>
+        <v>1280600</v>
       </c>
       <c r="J45" s="3">
+        <v>1437400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1925100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1475100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1362200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1277000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1835500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2296300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1638200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2292900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3369700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2122000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2560200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2099400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2669900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1838400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1400500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1190300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9973300</v>
+        <v>11473300</v>
       </c>
       <c r="E46" s="3">
-        <v>8464500</v>
+        <v>9995100</v>
       </c>
       <c r="F46" s="3">
-        <v>9237500</v>
+        <v>8482900</v>
       </c>
       <c r="G46" s="3">
-        <v>9631200</v>
+        <v>9257600</v>
       </c>
       <c r="H46" s="3">
-        <v>8884500</v>
+        <v>9652200</v>
       </c>
       <c r="I46" s="3">
-        <v>9108400</v>
+        <v>8903800</v>
       </c>
       <c r="J46" s="3">
+        <v>9128200</v>
+      </c>
+      <c r="K46" s="3">
         <v>10553400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11186900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9448600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8075100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9606100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9356500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10198900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10720600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11637500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12247600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12070600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12077400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12266700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10659600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9514900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8525300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7814900</v>
+        <v>7560800</v>
       </c>
       <c r="E47" s="3">
-        <v>6916800</v>
+        <v>7831900</v>
       </c>
       <c r="F47" s="3">
-        <v>6476200</v>
+        <v>6931900</v>
       </c>
       <c r="G47" s="3">
-        <v>6072700</v>
+        <v>6490300</v>
       </c>
       <c r="H47" s="3">
-        <v>5878800</v>
+        <v>6085900</v>
       </c>
       <c r="I47" s="3">
-        <v>6198200</v>
+        <v>5891600</v>
       </c>
       <c r="J47" s="3">
+        <v>6211700</v>
+      </c>
+      <c r="K47" s="3">
         <v>5954300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6686600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6715800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6677100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7448000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7907200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8101400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8096900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7340700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5350800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5212700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4122900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3724400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3907000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3652100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3737400</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>812500</v>
+        <v>815600</v>
       </c>
       <c r="E48" s="3">
-        <v>829800</v>
+        <v>814300</v>
       </c>
       <c r="F48" s="3">
-        <v>839800</v>
+        <v>831700</v>
       </c>
       <c r="G48" s="3">
-        <v>858600</v>
+        <v>841600</v>
       </c>
       <c r="H48" s="3">
-        <v>839900</v>
+        <v>860500</v>
       </c>
       <c r="I48" s="3">
-        <v>869500</v>
+        <v>841700</v>
       </c>
       <c r="J48" s="3">
+        <v>871400</v>
+      </c>
+      <c r="K48" s="3">
         <v>888100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>940900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>949500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>942000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>973700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>999100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1145700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1158300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1073400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1059800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1013900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>893200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>847700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>835300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>830000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>805800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9936800</v>
+        <v>9958300</v>
       </c>
       <c r="E49" s="3">
-        <v>9942500</v>
+        <v>9958500</v>
       </c>
       <c r="F49" s="3">
-        <v>9945200</v>
+        <v>9964100</v>
       </c>
       <c r="G49" s="3">
-        <v>9955300</v>
+        <v>9966900</v>
       </c>
       <c r="H49" s="3">
-        <v>9967600</v>
+        <v>9977000</v>
       </c>
       <c r="I49" s="3">
-        <v>9975100</v>
+        <v>9989300</v>
       </c>
       <c r="J49" s="3">
+        <v>9996900</v>
+      </c>
+      <c r="K49" s="3">
         <v>9984200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10310100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10103600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10119400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10649200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10705900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11274500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11291200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10976900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10908600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>10878900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>10928800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>10452200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>10276000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>10086500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>10056900</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>276800</v>
+        <v>323100</v>
       </c>
       <c r="E52" s="3">
-        <v>257500</v>
+        <v>277400</v>
       </c>
       <c r="F52" s="3">
-        <v>271700</v>
+        <v>258100</v>
       </c>
       <c r="G52" s="3">
-        <v>298000</v>
+        <v>272300</v>
       </c>
       <c r="H52" s="3">
-        <v>306800</v>
+        <v>298700</v>
       </c>
       <c r="I52" s="3">
-        <v>283100</v>
+        <v>307500</v>
       </c>
       <c r="J52" s="3">
+        <v>283800</v>
+      </c>
+      <c r="K52" s="3">
         <v>295000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>301200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>266400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>251400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>265900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>281600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>311100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>311700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>242200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>266800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>217700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>246100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>211200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>240300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>190500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>186800</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28814300</v>
+        <v>30131300</v>
       </c>
       <c r="E54" s="3">
-        <v>26411200</v>
+        <v>28877100</v>
       </c>
       <c r="F54" s="3">
-        <v>26770400</v>
+        <v>26468700</v>
       </c>
       <c r="G54" s="3">
-        <v>26815800</v>
+        <v>26828700</v>
       </c>
       <c r="H54" s="3">
-        <v>25877600</v>
+        <v>26874200</v>
       </c>
       <c r="I54" s="3">
-        <v>26434300</v>
+        <v>25933900</v>
       </c>
       <c r="J54" s="3">
+        <v>26491900</v>
+      </c>
+      <c r="K54" s="3">
         <v>27675000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29425800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27483900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26065100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28943000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29250200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31031500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31578700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31270700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>29833700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>29393700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28268500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>27502200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>25918200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>24274100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>23278200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,434 +3926,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1555100</v>
+        <v>2033800</v>
       </c>
       <c r="E57" s="3">
-        <v>1042900</v>
+        <v>1558500</v>
       </c>
       <c r="F57" s="3">
-        <v>1018100</v>
+        <v>1045100</v>
       </c>
       <c r="G57" s="3">
-        <v>929300</v>
+        <v>1020300</v>
       </c>
       <c r="H57" s="3">
-        <v>578800</v>
+        <v>931300</v>
       </c>
       <c r="I57" s="3">
-        <v>829300</v>
+        <v>580100</v>
       </c>
       <c r="J57" s="3">
+        <v>831100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1009200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>934900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>692200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>627200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1038100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>659900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>777600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1939500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2061200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1974700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1668600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1781900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1975000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1593800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1351000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1070200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5405200</v>
+        <v>4475700</v>
       </c>
       <c r="E58" s="3">
-        <v>4501800</v>
+        <v>5417000</v>
       </c>
       <c r="F58" s="3">
-        <v>4666300</v>
+        <v>4511600</v>
       </c>
       <c r="G58" s="3">
-        <v>4988000</v>
+        <v>4676500</v>
       </c>
       <c r="H58" s="3">
-        <v>4253300</v>
+        <v>4998900</v>
       </c>
       <c r="I58" s="3">
-        <v>5492700</v>
+        <v>4262500</v>
       </c>
       <c r="J58" s="3">
+        <v>5504700</v>
+      </c>
+      <c r="K58" s="3">
         <v>6219800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5823500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5678800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4686200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5012900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6203400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6370700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4814200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5658900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5758300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5769000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5478000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5232100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3509800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2952200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2341000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3310700</v>
+        <v>3940000</v>
       </c>
       <c r="E59" s="3">
-        <v>2892800</v>
+        <v>3317900</v>
       </c>
       <c r="F59" s="3">
-        <v>2817700</v>
+        <v>2899100</v>
       </c>
       <c r="G59" s="3">
-        <v>2720900</v>
+        <v>2823900</v>
       </c>
       <c r="H59" s="3">
-        <v>2582700</v>
+        <v>2726800</v>
       </c>
       <c r="I59" s="3">
-        <v>2801500</v>
+        <v>2588300</v>
       </c>
       <c r="J59" s="3">
+        <v>2807600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2900100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2988800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2765800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2811600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2909400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2944500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3547900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4160400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3692600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3668900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3135500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3203500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2823300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2821200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2478900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2698200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10271100</v>
+        <v>10449500</v>
       </c>
       <c r="E60" s="3">
-        <v>8437500</v>
+        <v>10293400</v>
       </c>
       <c r="F60" s="3">
-        <v>8502100</v>
+        <v>8455900</v>
       </c>
       <c r="G60" s="3">
-        <v>8638300</v>
+        <v>8520600</v>
       </c>
       <c r="H60" s="3">
-        <v>7414800</v>
+        <v>8657100</v>
       </c>
       <c r="I60" s="3">
-        <v>9123500</v>
+        <v>7430900</v>
       </c>
       <c r="J60" s="3">
+        <v>9143400</v>
+      </c>
+      <c r="K60" s="3">
         <v>10129200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9747200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9136800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8125000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8960400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9807800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10696100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10914200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11412700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11401800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10573100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10463400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10030300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7924800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6782200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6049400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1853600</v>
+        <v>2719800</v>
       </c>
       <c r="E61" s="3">
-        <v>1815500</v>
+        <v>1857600</v>
       </c>
       <c r="F61" s="3">
-        <v>2402200</v>
+        <v>1819500</v>
       </c>
       <c r="G61" s="3">
-        <v>2397600</v>
+        <v>2407400</v>
       </c>
       <c r="H61" s="3">
-        <v>2797200</v>
+        <v>2402900</v>
       </c>
       <c r="I61" s="3">
-        <v>1528400</v>
+        <v>2803300</v>
       </c>
       <c r="J61" s="3">
+        <v>1531700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1690700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3228700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3251200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3162300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4710800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4136000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3674500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3082200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3172000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3311200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3721600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3673100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3785000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4291800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4171300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4192500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>585000</v>
+        <v>613200</v>
       </c>
       <c r="E62" s="3">
-        <v>586400</v>
+        <v>586300</v>
       </c>
       <c r="F62" s="3">
-        <v>580300</v>
+        <v>587700</v>
       </c>
       <c r="G62" s="3">
-        <v>585800</v>
+        <v>581600</v>
       </c>
       <c r="H62" s="3">
-        <v>554600</v>
+        <v>587100</v>
       </c>
       <c r="I62" s="3">
-        <v>563800</v>
+        <v>555800</v>
       </c>
       <c r="J62" s="3">
+        <v>565000</v>
+      </c>
+      <c r="K62" s="3">
         <v>571400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>624300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>649400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>639600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>627800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>635000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>725400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>726500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>698100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>683800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>748700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>633900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>618100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>649800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>592000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>608800</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12811200</v>
+        <v>13886300</v>
       </c>
       <c r="E66" s="3">
-        <v>10940800</v>
+        <v>12839100</v>
       </c>
       <c r="F66" s="3">
-        <v>11582900</v>
+        <v>10964700</v>
       </c>
       <c r="G66" s="3">
-        <v>11723100</v>
+        <v>11608100</v>
       </c>
       <c r="H66" s="3">
-        <v>10871500</v>
+        <v>11748700</v>
       </c>
       <c r="I66" s="3">
-        <v>11323000</v>
+        <v>10895200</v>
       </c>
       <c r="J66" s="3">
+        <v>11347700</v>
+      </c>
+      <c r="K66" s="3">
         <v>12518600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13733100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13169000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12095800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14527600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14878300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15631500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15259700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15770800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15766100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15412600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15077400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14757400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13139500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11814400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11105900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,19 +4988,22 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="3">
-        <v>2887900</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2894200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
@@ -4837,11 +5011,11 @@
       <c r="H72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="3">
-        <v>2694600</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="I72" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2700400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
@@ -4849,11 +5023,11 @@
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N72" s="3">
         <v>2798900</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
@@ -4861,35 +5035,38 @@
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R72" s="3">
         <v>3697600</v>
       </c>
-      <c r="R72" s="3" t="s">
+      <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3152900</v>
       </c>
-      <c r="T72" s="3" t="s">
+      <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2498900</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y72" s="3">
         <v>2379000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2227000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16003100</v>
+        <v>16245000</v>
       </c>
       <c r="E76" s="3">
-        <v>15470400</v>
+        <v>16038000</v>
       </c>
       <c r="F76" s="3">
-        <v>15187500</v>
+        <v>15504000</v>
       </c>
       <c r="G76" s="3">
-        <v>15092700</v>
+        <v>15220600</v>
       </c>
       <c r="H76" s="3">
-        <v>15006000</v>
+        <v>15125600</v>
       </c>
       <c r="I76" s="3">
-        <v>15111300</v>
+        <v>15038700</v>
       </c>
       <c r="J76" s="3">
+        <v>15144200</v>
+      </c>
+      <c r="K76" s="3">
         <v>15156500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15692600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14314900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13969300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14415400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14371900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15400100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16319000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15499900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14067500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13981000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13191100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12744800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12778800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12459700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12172300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>465000</v>
+        <v>87100</v>
       </c>
       <c r="E81" s="3">
-        <v>283400</v>
+        <v>466000</v>
       </c>
       <c r="F81" s="3">
-        <v>36600</v>
+        <v>284000</v>
       </c>
       <c r="G81" s="3">
+        <v>36700</v>
+      </c>
+      <c r="H81" s="3">
         <v>9500</v>
       </c>
-      <c r="H81" s="3">
-        <v>-136300</v>
-      </c>
       <c r="I81" s="3">
-        <v>-114900</v>
+        <v>-136600</v>
       </c>
       <c r="J81" s="3">
+        <v>-115200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-117000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-92000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>247800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>139800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>230400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-70100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-844500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>316800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>122100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-61600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>701700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-181000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-165400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>341600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>152100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5458,15 +5657,15 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>172900</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6057,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5884,15 +6101,15 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1156900</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -5914,8 +6131,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5982,15 +6203,15 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-129800</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6195,15 +6425,15 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-380700</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6779,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6577,15 +6823,15 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1460200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6607,8 +6853,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6648,15 +6897,15 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>48700</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -6678,8 +6927,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6719,15 +6971,15 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-635300</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6747,6 +6999,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>
